--- a/培根搜尋資訊.xlsx
+++ b/培根搜尋資訊.xlsx
@@ -462,10 +462,8 @@
           <t>一群不懂的享受的肥宅 再發一次 這次我要挽回我巴哈美食家的稱號</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="G2" t="n">
+        <v>46</v>
       </c>
       <c r="H2" t="n">
         <v>34</v>
@@ -493,7 +491,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'postId': '63854063', 'userId': 'dwerg23', 'userLv': '19', 'userGp': '112', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '17', 'postip': '39.10.194.xxx', 'postTime': '2020-02-15 18:50:13', 'getgp': '0', 'getbp': '0', 'content': '上面那白白的是洨嗎==', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '63852802', 'userId': 'wl02589303', 'userLv': '21', 'userGp': '767', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '1', 'postip': '39.10.170.xxx', 'postTime': '2020-02-15 17:52:48', 'getgp': '11', 'getbp': '0', 'content': '一群不懂的享受的肥宅再發一次 這次我要挽回我巴哈美食家的稱號', 'comments': {'0': {'bsn': '60076', 'sn': '2511122', 'userid': 'ZU00923740', 'comment': '[ss311040:Bobson]  https://truth.bahamut.com.tw/s01/202002/4da397fe9c4fddc1bdf445028557e159.JPG', 'gp': '0', 'bp': '0', 'wtime': '2020-02-16 00:32:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ss311040:Bobson]  https://truth.bahamut.com.tw/s01/202002/4da397fe9c4fddc1bdf445028557e159.JPG', 'snB': '63852802', 'time': '昨天00:32', 'nick': '負能量盆栽'}, '1': {'bsn': '60076', 'sn': '2511108', 'userid': 'ss311040', 'comment': ' [ZU00923740:負能量盆栽] 好喔  這樣下次去麥當勞就知道要點什麼了', 'gp': '0', 'bp': '0', 'wtime': '2020-02-16 00:06:53', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': ' [ZU00923740:負能量盆栽] 好喔  這樣下次去麥當勞就知道要點什麼了', 'snB': '63852802', 'time': '昨天00:06', 'nick': 'Bobson'}, '2': {'bsn': '60076', 'sn': '2511081', 'userid': 'ZU00923740', 'comment': '[ss311040:Bobson] 麥香雞的醬多提供潤滑，加倍量冰冷的蔬菜能調節漢堡內部溫度達到舒適，受潮的肉有如實物般的皺褶，且較薄的肉片能彎曲達到貼合和包覆性', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 23:18:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ss311040:Bobson] 麥香雞的醬多提供潤滑，加倍量冰冷的蔬菜能調節漢堡內部溫度達到舒適，受潮的肉有如實物般的皺褶，且較薄的肉片能彎曲達到貼合和包覆性', 'snB': '63852802', 'time': '前天23:18', 'nick': '負能量盆栽'}, '3': {'bsn': '60076', 'sn': '2511075', 'userid': 'ZU00923740', 'comment': '[ss311040:Bobson] 而且雖然取名勁辣雞腿堡，但辣度來源不是醬汁而是肉，所以也不能提供你額外的刺激', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 23:11:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ss311040:Bobson] 而且雖然取名勁辣雞腿堡，但辣度來源不是醬汁而是肉，所以也不能提供你額外的刺激', 'snB': '63852802', 'time': '前天23:11', 'nick': '負能量盆栽'}, '4': {'bsn': '60076', 'sn': '2511074', 'userid': 'ZU00923740', 'comment': '[ss311040:Bobson] 身為前麥當勞員工，勁辣雞腿堡的生菜和醬比較少，潤滑度不足，加上肉是一般炸雞的那種皮也很粗糙', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 23:10:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ss311040:Bobson] 身為前麥當勞員工，勁辣雞腿堡的生菜和醬比較少，潤滑度不足，加上肉是一般炸雞的那種皮也很粗糙', 'snB': '63852802', 'time': '前天23:10', 'nick': '負能量盆栽'}, '5': {'bsn': '60076', 'sn': '2510988', 'userid': 'ss311040', 'comment': ' [ZU00923740:負能量盆栽] 麥香雞跟勁辣雞腿堡那個幹起來比較爽啊？', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 20:47:07', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': ' [ZU00923740:負能量盆栽] 麥香雞跟勁辣雞腿堡那個幹起來比較爽啊？', 'snB': '63852802', 'time': '前天20:47', 'nick': 'Bobson'}, '6': {'bsn': '60076', 'sn': '2510971', 'userid': 'ZU00923740', 'comment': '[ss311040:Bobson] 把麵包上皮蓋上去抽插整個漢堡，之前好像也有人幹麥香雞', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 20:15:50', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ss311040:Bobson] 把麵包上皮蓋上去抽插整個漢堡，之前好像也有人幹麥香雞', 'snB': '63852802', 'time': '前天20:15', 'nick': '負能量盆栽'}, '7': {'bsn': '60076', 'sn': '2510919', 'userid': 'ck1069007', 'comment': '癌症的味道', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:45:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '癌症的味道', 'snB': '63852802', 'time': '前天18:45', 'nick': '母湯姆貓與傑利鼠來寶'}, '8': {'bsn': '60076', 'sn': '2510891', 'userid': 'wl02589303', 'comment': '[Oboro:雪風] 度 burger o’clock', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 18:13:46', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[Oboro:雪風] 度 burger o’clock', 'snB': '63852802', 'time': '前天18:13', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '9': {'bsn': '60076', 'sn': '2510884', 'userid': 'Oboro', 'comment': '中山北路七段？', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:11:11', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '中山北路七段？', 'snB': '63852802', 'time': '前天18:11', 'nick': '雪風'}, '10': {'bsn': '60076', 'sn': '2510880', 'userid': 'ss311040', 'comment': ' [jacket2r3:欠羈押？] 那很明顯不是中出   是顏射吧', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:09:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': ' [jacket2r3:欠羈押？] 那很明顯不是中出   是顏射吧', 'snB': '63852802', 'time': '前天18:09', 'nick': 'Bobson'}, '11': {'bsn': '60076', 'sn': '2510879', 'userid': 'azoo40001', 'comment': '中出培根 甲', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:09:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '中出培根 甲', 'snB': '63852802', 'time': '前天18:09', 'nick': '夏凪Lynn'}, '12': {'bsn': '60076', 'sn': '2510878', 'userid': 'hy901001', 'comment': '[ww28070145:甲賽啦]', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:08:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ww28070145:甲賽啦]', 'snB': '63852802', 'time': '前天18:08', 'nick': '鳳梨'}, '13': {'bsn': '60076', 'sn': '2510873', 'userid': 'zx333555', 'comment': '洨？', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:02:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '洨？', 'snB': '63852802', 'time': '前天18:02', 'nick': '來個新名子吧'}, '14': {'bsn': '60076', 'sn': '2510871', 'userid': 'kent00216', 'comment': '懂喔！', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:02:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '懂喔！', 'snB': '63852802', 'time': '前天18:02', 'nick': '衝動的笨蛋'}, '15': {'bsn': '60076', 'sn': '2510870', 'userid': 'anor2048', 'comment': '白濁', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:58:10', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '白濁', 'snB': '63852802', 'time': '前天17:58', 'nick': 'A22222'}, '16': {'bsn': '60076', 'sn': '2510869', 'userid': 'wl02589303', 'comment': '[jacket2r3:欠羈押？] 那是起司啦！', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:57:49', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[jacket2r3:欠羈押？] 那是起司啦！', 'snB': '63852802', 'time': '前天17:57', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '17': {'bsn': '60076', 'sn': '2510867', 'userid': 'jacket2r3', 'comment': '你請店員中出你的培根？？', 'gp': '7', 'bp': '0', 'wtime': '2020-02-15 17:57:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你請店員中出你的培根？？', 'snB': '63852802', 'time': '前天17:57', 'nick': '欠羈押？'}, 'next_snC': 0}}, {'postId': '63852824', 'userId': 'ty461823', 'userLv': '31', 'userGp': '727', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '2', 'postip': '223.139.173.xxx', 'postTime': '2020-02-15 17:53:52', 'getgp': '9', 'getbp': '0', 'content': '噁男吃東西都噁', 'comments': {'0': {'bsn': '60076', 'sn': '2507656', 'userid': 'qwe10611122', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車] 他煮的東西是我專用的', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:57:35', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車] 他煮的東西是我專用的', 'snB': '63852824', 'time': '前天17:57', 'nick': '發出理智的聲音'}, '1': {'bsn': '60076', 'sn': '2507653', 'userid': 'wl02589303', 'comment': '你只是個廚子 快做東西給我', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:54:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你只是個廚子 快做東西給我', 'snB': '63852824', 'time': '前天17:54', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '2': {'bsn': '60076', 'sn': '2507652', 'userid': 'wl02589303', 'comment': '我是美食家好ㄇ', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:54:19', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我是美食家好ㄇ', 'snB': '63852824', 'time': '前天17:54', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852857', 'userId': 'dundin10190', 'userLv': '11', 'userGp': '487', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '3', 'postip': '36.233.129.xxx', 'postTime': '2020-02-15 17:55:18', 'getgp': '4', 'getbp': '0', 'content': '那坨到底是三小', 'comments': {'0': {'bsn': '60076', 'sn': '2476430', 'userid': 'dundin10190', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車]geez 怕', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:58:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車]geez 怕', 'snB': '63852857', 'time': '前天17:58', 'nick': '荒神IN'}, '1': {'bsn': '60076', 'sn': '2476428', 'userid': 'wl02589303', 'comment': '起司在漢堡排上', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:56:03', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '起司在漢堡排上', 'snB': '63852857', 'time': '前天17:56', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852859', 'userId': 'bocheng0406', 'userLv': '17', 'userGp': '15', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '4', 'postip': '111.252.35.xxx', 'postTime': '2020-02-15 17:55:21', 'getgp': '8', 'getbp': '0', 'content': '培根焦是度的但是上面那坨洨真d噁==', 'comments': {'0': {'bsn': '60076', 'sn': '2469455', 'userid': 'bocheng0406', 'comment': '[Oboro:雪風] 讚', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:13:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[Oboro:雪風] 讚', 'snB': '63852859', 'time': '前天18:13', 'nick': '=='}, '1': {'bsn': '60076', 'sn': '2469454', 'userid': 'bocheng0406', 'comment': '[hy901001:鳳梨] ㄅ是 他是我大哥', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:13:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[hy901001:鳳梨] ㄅ是 他是我大哥', 'snB': '63852859', 'time': '前天18:13', 'nick': '=='}, '2': {'bsn': '60076', 'sn': '2469453', 'userid': 'Oboro', 'comment': '[hy901001:鳳梨] 透色門送了一堆勇造 現在笑笑貓頭大量增殖中', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 18:12:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[hy901001:鳳梨] 透色門送了一堆勇造 現在笑笑貓頭大量增殖中', 'snB': '63852859', 'time': '前天18:12', 'nick': '雪風'}, '3': {'bsn': '60076', 'sn': '2469446', 'userid': 'hy901001', 'comment': '[bocheng0406:==]你是透色門嗎?', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 18:09:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[bocheng0406:==]你是透色門嗎?', 'snB': '63852859', 'time': '前天18:09', 'nick': '鳳梨'}, '4': {'bsn': '60076', 'sn': '2469443', 'userid': 'bocheng0406', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車] 我說洨就是洨(・`ω´・)', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 17:59:39', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車] 我說洨就是洨(・`ω´・)', 'snB': '63852859', 'time': '前天17:59', 'nick': '=='}, '5': {'bsn': '60076', 'sn': '2469438', 'userid': 'wl02589303', 'comment': '那是起司==', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 17:56:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '那是起司==', 'snB': '63852859', 'time': '前天17:56', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852877', 'userId': 'aa0894695695', 'userLv': '26', 'userGp': '2660', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '5', 'postip': '1.160.207.xxx', 'postTime': '2020-02-15 17:56:05', 'getgp': '3', 'getbp': '0', 'content': '嘔嘔嘔脫糞漢堡', 'comments': {'0': {'bsn': '60076', 'sn': '2500717', 'userid': 'seanlau708', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車]homo都是騙子', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:05:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車]homo都是騙子', 'snB': '63852877', 'time': '前天18:05', 'nick': '粉君'}, '1': {'bsn': '60076', 'sn': '2500709', 'userid': 'aa0894695695', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車]  https://truth.bahamut.com.tw/s01/202002/31e3d5fbf2020af6ead8fc0712aa1ae3.JPG', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:57:49', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車]  https://truth.bahamut.com.tw/s01/202002/31e3d5fbf2020af6ead8fc0712aa1ae3.JPG', 'snB': '63852877', 'time': '前天17:57', 'nick': '投稿者 專情糞金魚水'}, '2': {'bsn': '60076', 'sn': '2500707', 'userid': 'wl02589303', 'comment': ' https://truth.bahamut.com.tw/s01/201912/cc8ce25481c5d261e482434539ee17d3.JPG', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:56:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': ' https://truth.bahamut.com.tw/s01/201912/cc8ce25481c5d261e482434539ee17d3.JPG', 'snB': '63852877', 'time': '前天17:56', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '3': {'bsn': '60076', 'sn': '2500706', 'userid': 'wl02589303', 'comment': '我絕對不會用淫夢圖回你的', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:56:39', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我絕對不會用淫夢圖回你的', 'snB': '63852877', 'time': '前天17:56', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852880', 'userId': 'loyeu8787', 'userLv': '8', 'userGp': '113', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '6', 'postip': '39.8.130.xxx', 'postTime': '2020-02-15 17:56:15', 'getgp': '4', 'getbp': '0', 'content': '香噴噴培根', 'comments': {'0': {'bsn': '60076', 'sn': '2473601', 'userid': 'wl02589303', 'comment': '那些不吃焦培根的都是媽媽雜摳的媽寶', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:57:23', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '那些不吃焦培根的都是媽媽雜摳的媽寶', 'snB': '63852880', 'time': '前天17:57', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '1': {'bsn': '60076', 'sn': '2473600', 'userid': 'wl02589303', 'comment': '度 這才是正宗培根吃法', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:57:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '度 這才是正宗培根吃法', 'snB': '63852880', 'time': '前天17:57', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852891', 'userId': 'jkl776543', 'userLv': '18', 'userGp': '2', 'usercareer': '商人', 'userrace': '妖精', 'userfloor': '7', 'postip': '61.223.65.xxx', 'postTime': '2020-02-15 17:56:46', 'getgp': '1', 'getbp': '0', 'content': '脆&gt;&gt;焦', 'comments': {'0': {'bsn': '60076', 'sn': '2487160', 'userid': 'wl02589303', 'comment': '焦香味：', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:58:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '焦香味：', 'snB': '63852891', 'time': '前天17:58', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852904', 'userId': 'a75257525', 'userLv': '40', 'userGp': '3737', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '8', 'postip': '36.231.228.xxx', 'postTime': '2020-02-15 17:57:11', 'getgp': '2', 'getbp': '0', 'content': '根本大腸癌套餐', 'comments': {'0': {'bsn': '60076', 'sn': '2489527', 'userid': 'wl02589303', 'comment': '不享受又肥宅人生有沒有這麼可憐', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:59:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不享受又肥宅人生有沒有這麼可憐', 'snB': '63852904', 'time': '前天17:59', 'nick': 'ε=(｡･｀ω´･｡)上車'}, '1': {'bsn': '60076', 'sn': '2489524', 'userid': 'wl02589303', 'comment': '享受人生好嗎', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:58:41', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '享受人生好嗎', 'snB': '63852904', 'time': '前天17:58', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852916', 'userId': 'JOESICK', 'userLv': '19', 'userGp': '581', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '9', 'postip': '123.192.228.xxx', 'postTime': '2020-02-15 17:57:29', 'getgp': '2', 'getbp': '0', 'content': '滿滿的致癌物', 'comments': {'0': {'bsn': '60076', 'sn': '2505215', 'userid': 'wl02589303', 'comment': '享受人生', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 17:59:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '享受人生', 'snB': '63852916', 'time': '前天17:59', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852945', 'userId': 'qwe10611122', 'userLv': '10', 'userGp': '0', 'usercareer': '劍士', 'userrace': '妖精', 'userfloor': '10', 'postip': '114.137.109.xxx', 'postTime': '2020-02-15 17:58:33', 'getgp': '2', 'getbp': '0', 'content': '白白的4三小==', 'comments': {'0': {'bsn': '60076', 'sn': '2470933', 'userid': 'qwe10611122', 'comment': '[wl02589303:ε=(｡･｀ω´･｡)上車] 讚讚(σ≧∀≦)σ', 'gp': '0', 'bp': '0', 'wtime': '2020-02-15 18:01:20', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[wl02589303:ε=(｡･｀ω´･｡)上車] 讚讚(σ≧∀≦)σ', 'snB': '63852945', 'time': '前天18:01', 'nick': '發出理智的聲音'}, '1': {'bsn': '60076', 'sn': '2470928', 'userid': 'wl02589303', 'comment': '起司啦', 'gp': '1', 'bp': '0', 'wtime': '2020-02-15 17:59:22', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '起司啦', 'snB': '63852945', 'time': '前天17:59', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63852966', 'userId': 's454545a', 'userLv': '18', 'userGp': '56', 'usercareer': '法師', 'userrace': '矮人', 'userfloor': '11', 'postip': '49.216.63.xxx', 'postTime': '2020-02-15 17:59:42', 'getgp': '0', 'getbp': '0', 'content': '廚餘加洨 有夠噁', 'comments': {'next_snC': 0}}, {'postId': '63852996', 'userId': 'shih6922', 'userLv': '23', 'userGp': '289', 'usercareer': '商人', 'userrace': '獸人', 'userfloor': '12', 'postip': '42.74.69.xxx', 'postTime': '2020-02-15 18:01:06', 'getgp': '0', 'getbp': '0', 'content': '好噁喔', 'comments': {'next_snC': 0}}, {'postId': '63853136', 'userId': 'a721129b', 'userLv': '28', 'userGp': '17', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '13', 'postip': '223.138.204.xxx', 'postTime': '2020-02-15 18:08:10', 'getgp': '0', 'getbp': '0', 'content': '培根焦過頭', 'comments': {'next_snC': 0}}, {'postId': '63853861', 'userId': 'tresdfg000', 'userLv': '8', 'userGp': '11', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '15', 'postip': '39.12.136.xxx', 'postTime': '2020-02-15 18:40:42', 'getgp': '0', 'getbp': '0', 'content': '我喜歡脆脆的，再灑上黑胡椒', 'comments': {'next_snC': 0}}, {'postId': '63854046', 'userId': 'xza60107', 'userLv': '34', 'userGp': '7863', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '16', 'postip': '36.225.36.xxx', 'postTime': '2020-02-15 18:49:18', 'getgp': '0', 'getbp': '0', 'content': '雖然沒法忽視你射精在漢堡上= =但培根焦脆是可以ㄉ', 'comments': {'next_snC': 0}}, {'postId': '63854063', 'userId': 'dwerg23', 'userLv': '19', 'userGp': '112', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '17', 'postip': '39.10.194.xxx', 'postTime': '2020-02-15 18:50:13', 'getgp': '0', 'getbp': '0', 'content': '上面那白白的是洨嗎==', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -526,10 +524,8 @@
           <t>第一次在場外發料理文，這是一個拿絞肉做煙燻的概念。 1.材料 ：牛2豬1的新鮮絞肉 起司片 咖啡渣 木屑 黑糖 胡椒鹽 2.工具： 可有洞的鐵架放煎鍋 鋁箔紙 3：步驟 先把咖啡渣稍微…</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -557,7 +553,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'postId': '63821296', 'userId': 'jk825312006', 'userLv': '23', 'userGp': '370', 'usercareer': '盜賊', 'userrace': '妖精', 'userfloor': '1', 'postip': '36.232.29.xxx', 'postTime': '2020-02-14 07:16:59', 'getgp': '0', 'getbp': '0', 'content': '第一次在場外發料理文，這是一個拿絞肉做煙燻的概念。1.材料 ：牛2豬1的新鮮絞肉起司片咖啡渣木屑黑糖胡椒鹽2.工具：可有洞的鐵架放煎鍋鋁箔紙3：步驟先把咖啡渣稍微炒乾煎鍋放上鋁箔紙，紙上放咖啡渣木屑黑糖，放上鐵架，小火，鐵架上放牛豬絞肉。（要怎麼捏跟加料都看個人）主要是分享讓漢堡排變成培根排的方法要翻面然後要蒸到咖啡渣冒黃煙一段時間煙燻完可以用保鮮膜包起來冷藏，隔天拿起來煎，之後放烤箱上面放起司片就行。有人喜歡洋蔥，麵包粉也可以', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '63821296', 'userId': 'jk825312006', 'userLv': '23', 'userGp': '370', 'usercareer': '盜賊', 'userrace': '妖精', 'userfloor': '1', 'postip': '36.232.29.xxx', 'postTime': '2020-02-14 07:16:59', 'getgp': '0', 'getbp': '0', 'content': '第一次在場外發料理文，這是一個拿絞肉做煙燻的概念。1.材料 ：牛2豬1的新鮮絞肉起司片咖啡渣木屑黑糖胡椒鹽2.工具：可有洞的鐵架放煎鍋鋁箔紙3：步驟先把咖啡渣稍微炒乾煎鍋放上鋁箔紙，紙上放咖啡渣木屑黑糖，放上鐵架，小火，鐵架上放牛豬絞肉。（要怎麼捏跟加料都看個人）主要是分享讓漢堡排變成培根排的方法要翻面然後要蒸到咖啡渣冒黃煙一段時間煙燻完可以用保鮮膜包起來冷藏，隔天拿起來煎，之後放烤箱上面放起司片就行。有人喜歡洋蔥，麵包粉也可以', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -590,10 +586,8 @@
           <t>材料： 緞帶麵 １１０ｇ （可用寬扁麵或直麵代替） 整塊培根 ６０ｇ （真的沒有就用一般切好的代替） 蒜頭 １顆 蛋黃 一顆ｏｒ二顆 起司 想吃多濃就刨多少 我自己是用１２ｇ （…</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="G4" t="n">
+        <v>51</v>
       </c>
       <c r="H4" t="n">
         <v>30</v>
@@ -621,7 +615,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'postId': '63771141', 'userId': 'angel9061500', 'userLv': '17', 'userGp': '47', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '19', 'postip': '115.82.165.xxx', 'postTime': '2020-02-11 22:34:15', 'getgp': '0', 'getbp': '0', 'content': '蛋殼好吃嗎', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '63747620', 'userId': 'ty461823', 'userLv': '31', 'userGp': '599', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '42.74.128.xxx', 'postTime': '2020-02-10 21:29:53', 'getgp': '30', 'getbp': '0', 'content': '材料：緞帶麵\u3000\u3000\u3000１１０ｇ\u3000（可用寬扁麵或直麵代替）整塊培根\u3000\u3000６０ｇ\u3000（真的沒有就用一般切好的代替）蒜頭\u3000\u3000\u3000\u3000１顆蛋黃\u3000\u3000\u3000\u3000一顆ｏｒ二顆\u3000起司\u3000\u3000\u3000\u3000想吃多濃就刨多少\u3000我自己是用１２ｇ\u3000（沒有硬起司就用起司粉）鹽\u3000\u3000\u3000\u3000\u3000１ｇ黑胡椒粉\u3000\u3000１ｇ鮮奶油\u3000\u3000\u3000５０ｇ橄欖油\u3000\u3000\u3000１０ｇ做法：先煮一鍋沸水備用培根切小丁塊把其他材料都放到一起攪拌均勻冷鍋放橄欖油和培根、壓碎的整顆蒜頭小火加熱同時煮麵在沸水放一大搓鹽丟入麵條\u3000緞帶麵煮８～１０分鐘\u3000直麵煮７分鐘培根煎到金黃色後拿掉蒜頭等麵好了直接夾到鍋中並倒入一些煮麵水翻炒關火或者轉最小火，邊倒入蛋黃液邊攪拌，然後再加入一勺煮麵水使其乳化後即可盛盤後再放一些黑胡椒和起司絲緞帶麵容易吸附醬汁大塊培根的鹹香氣又很足夠這樣吃絕對過癮路人Ａ：本來只想來吃一口的\u3000但吃了一塊培根後又忍不住繼續吃下去了ヾ(●゜▽゜●)♡ －－－－－－－－－－－－我剛看到真的路人Ａ', 'comments': {'0': {'bsn': '60076', 'sn': '2484013', 'userid': 'ty461823', 'comment': '那四點再吃一個', 'gp': '0', 'bp': '0', 'wtime': '2020-02-12 03:53:17', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '那四點再吃一個', 'snB': '63747620', 'time': '02-12 03:53', 'nick': '零零人'}, '1': {'bsn': '60076', 'sn': '2484010', 'userid': 'f1688def', 'comment': '看起來超好吃 我肚子快餓死了 我三點才剛吃完美味蟹堡欸', 'gp': '1', 'bp': '0', 'wtime': '2020-02-12 03:48:07', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看起來超好吃 我肚子快餓死了 我三點才剛吃完美味蟹堡欸', 'snB': '63747620', 'time': '02-12 03:48', 'nick': '我忘了我只是隻貓'}, '2': {'bsn': '60076', 'sn': '2483617', 'userid': 'ms0734753', 'comment': '不會', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 17:55:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不會', 'snB': '63747620', 'time': '02-11 17:55', 'nick': 'color'}, '3': {'bsn': '60076', 'sn': '2483616', 'userid': 'ty461823', 'comment': '原來如此\u3000感謝', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 17:54:34', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '原來如此\u3000感謝', 'snB': '63747620', 'time': '02-11 17:54', 'nick': '零零人'}, '4': {'bsn': '60076', 'sn': '2483615', 'userid': 'ms0734753', 'comment': '食譜類的文章 建議可以PO在食趣旅遊喔!', 'gp': '1', 'bp': '0', 'wtime': '2020-02-11 17:53:29', 'mtime': '2020-02-11 17:53:44', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '食譜類的文章 建議可以PO在食趣旅遊喔!', 'snB': '63747620', 'time': '02-11 17:53', 'nick': 'color'}, '5': {'bsn': '60076', 'sn': '2483210', 'userid': 'ty461823', 'comment': '好的\u3000你的那份我不會放蛋殼[JP59061129:貝卡斯]\u3000ＸＤＤＤ', 'gp': '1', 'bp': '0', 'wtime': '2020-02-11 02:42:22', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好的\u3000你的那份我不會放蛋殼[JP59061129:貝卡斯]\u3000ＸＤＤＤ', 'snB': '63747620', 'time': '02-11 02:42', 'nick': '零零人'}, '6': {'bsn': '60076', 'sn': '2483206', 'userid': 'JP59061129', 'comment': '雖然只是個人主觀感受，料理看起來真的很好吃的樣子，只是蛋殼有點不能接受，麵的擺成捲起來的感覺，正中央直接可以穩固蛋黃，吃的時候與麵攪拌，想到就流口水了XD', 'gp': '1', 'bp': '0', 'wtime': '2020-02-11 02:35:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '雖然只是個人主觀感受，料理看起來真的很好吃的樣子，只是蛋殼有點不能接受，麵的擺成捲起來的感覺，正中央直接可以穩固蛋黃，吃的時候與麵攪拌，想到就流口水了XD', 'snB': '63747620', 'time': '02-11 02:35', 'nick': '貝卡斯'}, '7': {'bsn': '60076', 'sn': '2483116', 'userid': 'lender3756', 'comment': '介紹路人A給我', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 22:36:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '介紹路人A給我', 'snB': '63747620', 'time': '02-10 22:36', 'nick': '老司機'}, '8': {'bsn': '60076', 'sn': '2483108', 'userid': 'qazer', 'comment': '是大佬', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 22:27:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '是大佬', 'snB': '63747620', 'time': '02-10 22:27', 'nick': 'qazer'}, '9': {'bsn': '60076', 'sn': '2483099', 'userid': 'serlGHKfa', 'comment': '可以吃路人A嗎', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 22:20:35', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可以吃路人A嗎', 'snB': '63747620', 'time': '02-10 22:20', 'nick': '你這樣不太行'}, '10': {'bsn': '60076', 'sn': '2483082', 'userid': 'ty461823', 'comment': '你不是', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 21:54:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你不是', 'snB': '63747620', 'time': '02-10 21:54', 'nick': '零零人'}, '11': {'bsn': '60076', 'sn': '2483081', 'userid': 'wl02589303', 'comment': '大家好 我是路人A', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 21:51:06', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '大家好 我是路人A', 'snB': '63747620', 'time': '02-10 21:51', 'nick': 'ε=(｡･｀ω´･｡)上車'}, 'next_snC': 0}}, {'postId': '63747748', 'userId': 'jaanyuan1', 'userLv': '12', 'userGp': '22', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '2', 'postip': '180.217.152.xxx', 'postTime': '2020-02-10 21:35:48', 'getgp': '1', 'getbp': '0', 'content': '先承認路人A就是你還有私正面照', 'comments': {'0': {'bsn': '60076', 'sn': '2487610', 'userid': 'ty461823', 'comment': '路人Ａ在一樓\u3000＞＜', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:13:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '路人Ａ在一樓\u3000＞＜', 'snB': '63747748', 'time': '02-10 22:13', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748045', 'userId': 'poiu9149', 'userLv': '9', 'userGp': '0', 'usercareer': '初心者', 'userrace': '獸人', 'userfloor': '3', 'postip': '114.41.121.xxx', 'postTime': '2020-02-10 21:49:15', 'getgp': '2', 'getbp': '0', 'content': '路人B：本來只想來吃一口的\u3000但吃了一塊蛋殼後又忍不住繼續吃下去了ヾ(●゜▽゜●)♡', 'comments': {'0': {'bsn': '60076', 'sn': '2466821', 'userid': 'ty461823', 'comment': '蛋殼太好吃了吧ヾ(●゜▽゜●)♡', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 21:54:42', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '蛋殼太好吃了吧ヾ(●゜▽゜●)♡', 'snB': '63748045', 'time': '02-10 21:54', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748211', 'userId': 'q1461220248', 'userLv': '12', 'userGp': '133', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '4', 'postip': '14.0.236.xxx', 'postTime': '2020-02-10 21:56:20', 'getgp': '1', 'getbp': '0', 'content': '怎麼感覺你家有點亂...卡你跟路人A的下文', 'comments': {'0': {'bsn': '60076', 'sn': '2478036', 'userid': 'ty461823', 'comment': '沒有了\u3000以下禁止撥放', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:13:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '沒有了\u3000以下禁止撥放', 'snB': '63748211', 'time': '02-10 22:13', 'nick': '零零人'}, '1': {'bsn': '60076', 'sn': '2478024', 'userid': 'q1461220248', 'comment': '[ty461823:零零人] 私過程!', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 21:59:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ty461823:零零人] 私過程!', 'snB': '63748211', 'time': '02-10 21:59', 'nick': 'Killer Queen'}, '2': {'bsn': '60076', 'sn': '2478023', 'userid': 'q1461220248', 'comment': '[ty461823:零零人] 你知道吃完燭光晚餐的下一步是什麼嗎？', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 21:58:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ty461823:零零人] 你知道吃完燭光晚餐的下一步是什麼嗎？', 'snB': '63748211', 'time': '02-10 21:58', 'nick': 'Killer Queen'}, '3': {'bsn': '60076', 'sn': '2478022', 'userid': 'ty461823', 'comment': '房間小東西太多了\u3000難過', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 21:57:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '房間小東西太多了\u3000難過', 'snB': '63748211', 'time': '02-10 21:57', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748272', 'userId': 'lynn1030367', 'userLv': '12', 'userGp': '849', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '5', 'postip': '123.205.188.xxx', 'postTime': '2020-02-10 21:59:06', 'getgp': '1', 'getbp': '0', 'content': '餓..........', 'comments': {'next_snC': 0}}, {'postId': '63748276', 'userId': 'baker23', 'userLv': '20', 'userGp': '140', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '110.26.33.xxx', 'postTime': '2020-02-10 21:59:16', 'getgp': '1', 'getbp': '0', 'content': '沒有培根可以用臘肉ㄇ', 'comments': {'0': {'bsn': '60076', 'sn': '2480534', 'userid': 'ty461823', 'comment': '食品物料行看有沒有\u3000沒有的話一些有擺起司專賣櫃的店應該也有但很貴', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:07:07', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '食品物料行看有沒有\u3000沒有的話一些有擺起司專賣櫃的店應該也有但很貴', 'snB': '63748276', 'time': '02-10 22:07', 'nick': '零零人'}, '1': {'bsn': '60076', 'sn': '2480532', 'userid': 'baker23', 'comment': '[ty461823:零零人] 瞭解，不過整塊培根是不是要去專賣的肉鋪才有啊，感覺一般賣場最厚就厚切培根而已', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:05:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ty461823:零零人] 瞭解，不過整塊培根是不是要去專賣的肉鋪才有啊，感覺一般賣場最厚就厚切培根而已', 'snB': '63748276', 'time': '02-10 22:05', 'nick': '無法克制的睡意'}, '2': {'bsn': '60076', 'sn': '2480531', 'userid': 'baker23', 'comment': '[q1461220248:Killer Queen] 好吧QQ', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:03:38', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[q1461220248:Killer Queen] 好吧QQ', 'snB': '63748276', 'time': '02-10 22:03', 'nick': '無法克制的睡意'}, '3': {'bsn': '60076', 'sn': '2480529', 'userid': 'ty461823', 'comment': '臘肉的話\u3000適合馬鈴薯麵疙瘩\u3000', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:03:18', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '臘肉的話\u3000適合馬鈴薯麵疙瘩\u3000', 'snB': '63748276', 'time': '02-10 22:03', 'nick': '零零人'}, '4': {'bsn': '60076', 'sn': '2480528', 'userid': 'q1461220248', 'comment': '[baker23:無法克制的睡意] 我的意思是臘肉跟培根味道完全不一樣', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:02:41', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[baker23:無法克制的睡意] 我的意思是臘肉跟培根味道完全不一樣', 'snB': '63748276', 'time': '02-10 22:02', 'nick': 'Killer Queen'}, '5': {'bsn': '60076', 'sn': '2480527', 'userid': 'q1461220248', 'comment': '[baker23:無法克制的睡意] 我知道，我是做中式料理的', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:02:20', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[baker23:無法克制的睡意] 我知道，我是做中式料理的', 'snB': '63748276', 'time': '02-10 22:02', 'nick': 'Killer Queen'}, '6': {'bsn': '60076', 'sn': '2480526', 'userid': 'baker23', 'comment': '[q1461220248:Killer Queen] 五花肉的那種臘肉啦，感覺鹹香配含鮮奶油的醬汁應該蠻搭的才對', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:01:24', 'mtime': '2020-02-10 22:02:54', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[q1461220248:Killer Queen] 五花肉的那種臘肉啦，感覺鹹香配含鮮奶油的醬汁應該蠻搭的才對', 'snB': '63748276', 'time': '02-10 22:01', 'nick': '無法克制的睡意'}, '7': {'bsn': '60076', 'sn': '2480525', 'userid': 'q1461220248', 'comment': '這道菜式的精髓主要是培根的油香', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:00:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這道菜式的精髓主要是培根的油香', 'snB': '63748276', 'time': '02-10 22:00', 'nick': 'Killer Queen'}, '8': {'bsn': '60076', 'sn': '2480523', 'userid': 'q1461220248', 'comment': '味道完全不一樣', 'gp': '1', 'bp': '0', 'wtime': '2020-02-10 22:00:03', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '味道完全不一樣', 'snB': '63748276', 'time': '02-10 22:00', 'nick': 'Killer Queen'}, '9': {'bsn': '60076', 'sn': '2480522', 'userid': 'q1461220248', 'comment': '拜託，不要！', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 21:59:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '拜託，不要！', 'snB': '63748276', 'time': '02-10 21:59', 'nick': 'Killer Queen'}, 'next_snC': 0}}, {'postId': '63748331', 'userId': 'S7247qit', 'userLv': '7', 'userGp': '0', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '7', 'postip': '115.82.228.xxx', 'postTime': '2020-02-10 22:01:32', 'getgp': '1', 'getbp': '0', 'content': '好好ㄘ的樣子我好想當路人Aㄛ', 'comments': {'next_snC': 0}}, {'postId': '63748535', 'userId': 'z77033680', 'userLv': '19', 'userGp': '128', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '8', 'postip': '211.75.180.xxx', 'postTime': '2020-02-10 22:11:08', 'getgp': '1', 'getbp': '0', 'content': '讚喔 知道傳統的是用整塊培根下去做的然後這道菜的培根一定要煎到乾讓汁下去的時候可以讓培根吸回去狗淦好吃……', 'comments': {'0': {'bsn': '60076', 'sn': '2483591', 'userid': 'ty461823', 'comment': '好香( • ̀ω•́ )', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:15:44', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好香( • ̀ω•́ )', 'snB': '63748535', 'time': '02-10 22:15', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748624', 'userId': 'a5843', 'userLv': '27', 'userGp': '92', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '9', 'postip': '223.136.0.xxx', 'postTime': '2020-02-10 22:14:45', 'getgp': '3', 'getbp': '0', 'content': '把蛋殼拌進麵裡那脆脆的口感啊 斯', 'comments': {'0': {'bsn': '60076', 'sn': '2504274', 'userid': 'ty461823', 'comment': '要先敲碎啦', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:16:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '要先敲碎啦', 'snB': '63748624', 'time': '02-10 22:16', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748640', 'userId': 'ChocoLogic', 'userLv': '17', 'userGp': '25', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '10', 'postip': '223.138.196.xxx', 'postTime': '2020-02-10 22:16:04', 'getgp': '1', 'getbp': '0', 'content': '原來這種食譜文就是尼發的', 'comments': {'0': {'bsn': '60076', 'sn': '2479047', 'userid': 'ty461823', 'comment': '就是我ヾ(●゜▽゜●)♡', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:18:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '就是我ヾ(●゜▽゜●)♡', 'snB': '63748640', 'time': '02-10 22:18', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63748659', 'userId': 'lee46130', 'userLv': '20', 'userGp': '5', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '11', 'postip': '111.249.132.xxx', 'postTime': '2020-02-10 22:17:20', 'getgp': '2', 'getbp': '0', 'content': '我想這美食的精華一定是蛋殼（誤', 'comments': {'0': {'bsn': '60076', 'sn': '2465658', 'userid': 'ty461823', 'comment': '我看你是很懂哦', 'gp': '0', 'bp': '0', 'wtime': '2020-02-10 22:18:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我看你是很懂哦', 'snB': '63748659', 'time': '02-10 22:18', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63749091', 'userId': 'lender3756', 'userLv': '12', 'userGp': '12', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '12', 'postip': '223.136.194.xxx', 'postTime': '2020-02-10 22:37:41', 'getgp': '1', 'getbp': '0', 'content': '有在應徵試吃員嗎？', 'comments': {'0': {'bsn': '60076', 'sn': '2482136', 'userid': 'ty461823', 'comment': '有試看員\u3000ヾ(●゜▽゜●)♡', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 02:39:20', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '有試看員\u3000ヾ(●゜▽゜●)♡', 'snB': '63749091', 'time': '02-11 02:39', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63753020', 'userId': 'abc5562880', 'userLv': '20', 'userGp': '3', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '13', 'postip': '1.174.159.xxx', 'postTime': '2020-02-11 02:11:18', 'getgp': '1', 'getbp': '0', 'content': '各位巴友好，我就是路人A', 'comments': {'0': {'bsn': '60076', 'sn': '2483211', 'userid': 'abc5562880', 'comment': '[ty461823:零零人] 那是鈣質', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 02:42:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ty461823:零零人] 那是鈣質', 'snB': '63753020', 'time': '02-11 02:42', 'nick': '天堂溜溜球'}, '1': {'bsn': '60076', 'sn': '2483208', 'userid': 'ty461823', 'comment': '你剛怎麼把蛋殼給吃掉了', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 02:39:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你剛怎麼把蛋殼給吃掉了', 'snB': '63753020', 'time': '02-11 02:39', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63753159', 'userId': 'Vincenthung', 'userLv': '18', 'userGp': '552', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '14', 'postip': '220.137.44.xxx', 'postTime': '2020-02-11 02:25:21', 'getgp': '1', 'getbp': '0', 'content': '我媽以前做過直麵的', 'comments': {'0': {'bsn': '60076', 'sn': '2465867', 'userid': 'ty461823', 'comment': '真幸福\u3000ヾ(●゜▽゜●)♡', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 02:41:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '真幸福\u3000ヾ(●゜▽゜●)♡', 'snB': '63753159', 'time': '02-11 02:41', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63758123', 'userId': 'kk24822467', 'userLv': '23', 'userGp': '324', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '15', 'postip': '110.28.45.xxx', 'postTime': '2020-02-11 12:05:39', 'getgp': '1', 'getbp': '0', 'content': '餓', 'comments': {'next_snC': 0}}, {'postId': '63758293', 'userId': 'xm500024', 'userLv': '20', 'userGp': '18', 'usercareer': '武鬥家', 'userrace': '人類', 'userfloor': '16', 'postip': '111.83.212.xxx', 'postTime': '2020-02-11 12:13:37', 'getgp': '1', 'getbp': '0', 'content': '樓主怎麼那麼婆', 'comments': {'next_snC': 0}}, {'postId': '63758635', 'userId': 'qwevbn12', 'userLv': '25', 'userGp': '123', 'usercareer': '僧侶', 'userrace': '獸人', 'userfloor': '17', 'postip': '101.11.34.xxx', 'postTime': '2020-02-11 12:28:39', 'getgp': '1', 'getbp': '0', 'content': '你當我老婆我一定很胖', 'comments': {'0': {'bsn': '60076', 'sn': '2484075', 'userid': 'ty461823', 'comment': '我有很多老公&amp;gt;&amp;lt;', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 14:44:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我有很多老公&amp;gt;&amp;lt;', 'snB': '63758635', 'time': '02-11 14:44', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63770925', 'userId': 'a72558301', 'userLv': '44', 'userGp': '3142', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '18', 'postip': '1.173.50.xxx', 'postTime': '2020-02-11 22:21:55', 'getgp': '1', 'getbp': '0', 'content': '有低油版的嗎?減肥中', 'comments': {'0': {'bsn': '60076', 'sn': '2468837', 'userid': 'ty461823', 'comment': '不要放鮮奶油\u3000用瘦肉培根', 'gp': '0', 'bp': '0', 'wtime': '2020-02-11 22:24:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不要放鮮奶油\u3000用瘦肉培根', 'snB': '63770925', 'time': '02-11 22:24', 'nick': '零零人'}, 'next_snC': 0}}, {'postId': '63771141', 'userId': 'angel9061500', 'userLv': '17', 'userGp': '47', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '19', 'postip': '115.82.165.xxx', 'postTime': '2020-02-11 22:34:15', 'getgp': '0', 'getbp': '0', 'content': '蛋殼好吃嗎', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -654,10 +648,8 @@
           <t>Rt 還不錯吃欸，起司油膩的包覆蛋餅，那個麵皮也不會太乾然後吃得到歐姆蛋的口感 但是一個42而且還很小塊培根也很小片不適合肥宅吃==</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -685,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'postId': '63311107', 'userId': 'applepopo123', 'userLv': '19', 'userGp': '39', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '1', 'postip': '42.77.147.xxx', 'postTime': '2020-01-19 23:07:46', 'getgp': '0', 'getbp': '0', 'content': 'Rt 還不錯吃欸，起司油膩的包覆蛋餅，那個麵皮也不會太乾然後吃得到歐姆蛋的口感但是一個42而且還很小塊培根也很小片不適合肥宅吃==', 'comments': {'0': {'bsn': '60076', 'sn': '2481105', 'userid': 'applepopo123', 'comment': '[ff136709310:柏柏ʕ•ﻌ•ʔ] 吃不飽，當點心或嚐鮮而已，除非之後打折或我又吃膩其他東西我才會再買吧', 'gp': '1', 'bp': '0', 'wtime': '2020-01-19 23:12:43', 'mtime': '2020-01-19 23:13:06', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ff136709310:柏柏ʕ•ﻌ•ʔ] 吃不飽，當點心或嚐鮮而已，除非之後打折或我又吃膩其他東西我才會再買吧', 'snB': '63311107', 'time': '01-19 23:12', 'nick': '快來折疊我不管在哪裡'}, '1': {'bsn': '60076', 'sn': '2481104', 'userid': 'ff136709310', 'comment': '感覺吃不飽耶', 'gp': '0', 'bp': '0', 'wtime': '2020-01-19 23:09:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '感覺吃不飽耶', 'snB': '63311107', 'time': '01-19 23:09', 'nick': '柏柏ʕ•ﻌ•ʔ'}, 'next_snC': 0}}</t>
+          <t>[{'postId': '63311107', 'userId': 'applepopo123', 'userLv': '19', 'userGp': '39', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '1', 'postip': '42.77.147.xxx', 'postTime': '2020-01-19 23:07:46', 'getgp': '0', 'getbp': '0', 'content': 'Rt 還不錯吃欸，起司油膩的包覆蛋餅，那個麵皮也不會太乾然後吃得到歐姆蛋的口感但是一個42而且還很小塊培根也很小片不適合肥宅吃==', 'comments': {'0': {'bsn': '60076', 'sn': '2481105', 'userid': 'applepopo123', 'comment': '[ff136709310:柏柏ʕ•ﻌ•ʔ] 吃不飽，當點心或嚐鮮而已，除非之後打折或我又吃膩其他東西我才會再買吧', 'gp': '1', 'bp': '0', 'wtime': '2020-01-19 23:12:43', 'mtime': '2020-01-19 23:13:06', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ff136709310:柏柏ʕ•ﻌ•ʔ] 吃不飽，當點心或嚐鮮而已，除非之後打折或我又吃膩其他東西我才會再買吧', 'snB': '63311107', 'time': '01-19 23:12', 'nick': '快來折疊我不管在哪裡'}, '1': {'bsn': '60076', 'sn': '2481104', 'userid': 'ff136709310', 'comment': '感覺吃不飽耶', 'gp': '0', 'bp': '0', 'wtime': '2020-01-19 23:09:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '感覺吃不飽耶', 'snB': '63311107', 'time': '01-19 23:09', 'nick': '柏柏ʕ•ﻌ•ʔ'}, 'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -718,10 +710,8 @@
           <t>我是盤子嗎剛剛去一件沒去過的早餐店 也太貴</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G6" t="n">
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -749,7 +739,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'postId': '63182798', 'userId': 'rosefinchman', 'userLv': '46', 'userGp': '6764', 'usercareer': '武鬥家', 'userrace': '矮人', 'userfloor': '2', 'postip': '114.44.75.xxx', 'postTime': '2020-01-13 10:36:07', 'getgp': '3', 'getbp': '0', 'content': '餐點148 ，水果茶150 再*1.05 = 313元', 'comments': {'0': {'bsn': '60076', 'sn': '2444763', 'userid': 'kklet112233', 'comment': '不錄了不錄了，我的脾氣都是你們惹出來的', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:56:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不錄了不錄了，我的脾氣都是你們惹出來的', 'snB': '63182798', 'time': '01-13 10:56', 'nick': '倫巴倫巴'}, '1': {'bsn': '60076', 'sn': '2444759', 'userid': 'rosefinchman', 'comment': '然後就換你在付錢了，一個月伙食費三萬', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:49:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '然後就換你在付錢了，一個月伙食費三萬', 'snB': '63182798', 'time': '01-13 10:49', 'nick': '夜汁可人兒'}, '2': {'bsn': '60076', 'sn': '2444757', 'userid': 'kklet112233', 'comment': '以後找老婆要找新竹人了', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:45:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '以後找老婆要找新竹人了', 'snB': '63182798', 'time': '01-13 10:45', 'nick': '倫巴倫巴'}, '3': {'bsn': '60076', 'sn': '2444756', 'userid': 'rosefinchman', 'comment': '新竹很多女生被記者採訪都說 價格可接受', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:44:26', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '新竹很多女生被記者採訪都說 價格可接受', 'snB': '63182798', 'time': '01-13 10:44', 'nick': '夜汁可人兒'}, '4': {'bsn': '60076', 'sn': '2444755', 'userid': 'kklet112233', 'comment': '中樂透??', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:39:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '中樂透??', 'snB': '63182798', 'time': '01-13 10:39', 'nick': '倫巴倫巴'}, '5': {'bsn': '60076', 'sn': '2444754', 'userid': 'bos0010218', 'comment': '台銘店?', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:37:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '台銘店?', 'snB': '63182798', 'time': '01-13 10:37', 'nick': '你這不是很懂嗎'}, '6': {'bsn': '60076', 'sn': '2444753', 'userid': 'draculux', 'comment': '郭台銘都吃不起', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:37:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '郭台銘都吃不起', 'snB': '63182798', 'time': '01-13 10:37', 'nick': '敏糖'}, 'next_snC': 0}}</t>
+          <t>[{'postId': '63182709', 'userId': 'kklet112233', 'userLv': '33', 'userGp': '1059', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '1', 'postip': '112.105.248.xxx', 'postTime': '2020-01-13 10:29:33', 'getgp': '0', 'getbp': '0', 'content': '我是盤子嗎剛剛去一件沒去過的早餐店也太貴', 'comments': {'next_snC': 0}}, {'postId': '63182798', 'userId': 'rosefinchman', 'userLv': '46', 'userGp': '6764', 'usercareer': '武鬥家', 'userrace': '矮人', 'userfloor': '2', 'postip': '114.44.75.xxx', 'postTime': '2020-01-13 10:36:07', 'getgp': '3', 'getbp': '0', 'content': '餐點148 ，水果茶150 再*1.05 = 313元', 'comments': {'0': {'bsn': '60076', 'sn': '2444763', 'userid': 'kklet112233', 'comment': '不錄了不錄了，我的脾氣都是你們惹出來的', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:56:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不錄了不錄了，我的脾氣都是你們惹出來的', 'snB': '63182798', 'time': '01-13 10:56', 'nick': '倫巴倫巴'}, '1': {'bsn': '60076', 'sn': '2444759', 'userid': 'rosefinchman', 'comment': '然後就換你在付錢了，一個月伙食費三萬', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:49:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '然後就換你在付錢了，一個月伙食費三萬', 'snB': '63182798', 'time': '01-13 10:49', 'nick': '夜汁可人兒'}, '2': {'bsn': '60076', 'sn': '2444757', 'userid': 'kklet112233', 'comment': '以後找老婆要找新竹人了', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:45:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '以後找老婆要找新竹人了', 'snB': '63182798', 'time': '01-13 10:45', 'nick': '倫巴倫巴'}, '3': {'bsn': '60076', 'sn': '2444756', 'userid': 'rosefinchman', 'comment': '新竹很多女生被記者採訪都說 價格可接受', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:44:26', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '新竹很多女生被記者採訪都說 價格可接受', 'snB': '63182798', 'time': '01-13 10:44', 'nick': '夜汁可人兒'}, '4': {'bsn': '60076', 'sn': '2444755', 'userid': 'kklet112233', 'comment': '中樂透??', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:39:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '中樂透??', 'snB': '63182798', 'time': '01-13 10:39', 'nick': '倫巴倫巴'}, '5': {'bsn': '60076', 'sn': '2444754', 'userid': 'bos0010218', 'comment': '台銘店?', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:37:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '台銘店?', 'snB': '63182798', 'time': '01-13 10:37', 'nick': '你這不是很懂嗎'}, '6': {'bsn': '60076', 'sn': '2444753', 'userid': 'draculux', 'comment': '郭台銘都吃不起', 'gp': '0', 'bp': '0', 'wtime': '2020-01-13 10:37:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '郭台銘都吃不起', 'snB': '63182798', 'time': '01-13 10:37', 'nick': '敏糖'}, 'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -782,10 +772,8 @@
           <t>很偶爾才看 雖然模仿中國有嘻哈後就覺得沒甚麼吸引自己的地方 孫生 酷炫起碼長的帥 交煩煩很正 乞丐哥有一些87的特色 最近一直捧的培根 梗不怎麼好笑 演技也很普通 外型也不出…</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="G7" t="n">
+        <v>12</v>
       </c>
       <c r="H7" t="n">
         <v>11</v>
@@ -813,7 +801,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'postId': '63052131', 'userId': 'Rurizuu', 'userLv': '13', 'userGp': '122', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '8', 'postip': '223.140.28.xxx', 'postTime': '2020-01-07 07:12:58', 'getgp': '0', 'getbp': '0', 'content': '因為他有灰指甲', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '62155454', 'userId': 'asawe42578', 'userLv': '37', 'userGp': '4440', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '1', 'postip': '220.132.71.xxx', 'postTime': '2019-11-19 01:01:40', 'getgp': '0', 'getbp': '0', 'content': '很偶爾才看 雖然模仿中國有嘻哈後就覺得沒甚麼吸引自己的地方孫生 酷炫起碼長的帥\xa0\xa0交煩煩很正 乞丐哥有一些87的特色最近一直捧的培根\xa0\xa0梗不怎麼好笑 演技也很普通\xa0\xa0外型也不出色\xa0\xa0唯一的優點就是敢演...\xa0\xa0\xa0為什麼這樣賠錢貨的角色反骨一直在捧?', 'comments': {'0': {'bsn': '60076', 'sn': '2452189', 'userid': 'vance7025', 'comment': '酷炫本身需要培根 的襯托', 'gp': '0', 'bp': '0', 'wtime': '2020-01-03 12:38:39', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '酷炫本身需要培根 的襯托', 'snB': '62155454', 'time': '01-03 12:38', 'nick': '凡斯~イカ給你洗了唷'}, '1': {'bsn': '60076', 'sn': '2419810', 'userid': 'abz093764953', 'comment': '就跟玫瑰需要有綠葉來襯托差不多意思', 'gp': '0', 'bp': '0', 'wtime': '2019-11-19 06:54:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '就跟玫瑰需要有綠葉來襯托差不多意思', 'snB': '62155454', 'time': '11-19 06:54', 'nick': 'Xiu 修'}, '2': {'bsn': '60076', 'sn': '2419790', 'userid': 'ccandgg11631', 'comment': '這是一種同（異）溫層的概念，當到一定程度的熱度，要嘛擴充異溫層的誘因，要嘛擴充其他地區人口，說穿了就只是反骨想吸引除了原先以外的觀眾', 'gp': '1', 'bp': '0', 'wtime': '2019-11-19 02:26:52', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這是一種同（異）溫層的概念，當到一定程度的熱度，要嘛擴充異溫層的誘因，要嘛擴充其他地區人口，說穿了就只是反骨想吸引除了原先以外的觀眾', 'snB': '62155454', 'time': '11-19 02:26', 'nick': 'Jacktoo'}, '3': {'bsn': '60076', 'sn': '2419765', 'userid': 'lsatan777', 'comment': '就是不同風格ㄚ== 很尷尬', 'gp': '0', 'bp': '0', 'wtime': '2019-11-19 01:05:19', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '就是不同風格ㄚ== 很尷尬', 'snB': '62155454', 'time': '11-19 01:05', 'nick': 'ก็ʕ•͡ᴥ•ʔ ก้'}, 'next_snC': 0}}, {'postId': '62155470', 'userId': 'wwwqq66356', 'userLv': '27', 'userGp': '185', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '2', 'postip': '110.26.171.xxx', 'postTime': '2019-11-19 01:03:26', 'getgp': '5', 'getbp': '0', 'content': '我們看起來像是反骨男孩嗎', 'comments': {'0': {'bsn': '60076', 'sn': '2452594', 'userid': 'zx135798', 'comment': '素質蠻像的', 'gp': '0', 'bp': '0', 'wtime': '2020-01-07 07:33:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '素質蠻像的', 'snB': '62155470', 'time': '01-07 07:33', 'nick': '壞米亞'}, 'next_snC': 0}}, {'postId': '62155471', 'userId': 'paulabxz123', 'userLv': '23', 'userGp': '60', 'usercareer': '武鬥家', 'userrace': '人類', 'userfloor': '3', 'postip': '111.71.213.xxx', 'postTime': '2019-11-19 01:03:27', 'getgp': '1', 'getbp': '0', 'content': '可能要讓宅男有帶入感ㄅ', 'comments': {'next_snC': 0}}, {'postId': '62156126', 'userId': 'nakisa611818', 'userLv': '20', 'userGp': '19', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '4', 'postip': '101.13.146.xxx', 'postTime': '2019-11-19 02:18:56', 'getgp': '1', 'getbp': '0', 'content': '尷尬到爆就是捧培根的賣點', 'comments': {'next_snC': 0}}, {'postId': '62156570', 'userId': 'apple540281', 'userLv': '21', 'userGp': '573', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '5', 'postip': '122.117.175.xxx', 'postTime': '2019-11-19 04:04:55', 'getgp': '4', 'getbp': '0', 'content': '因為他無表情吧然後不怕尷尬', 'comments': {'next_snC': 0}}, {'postId': '62156580', 'userId': 'hank7968', 'userLv': '44', 'userGp': '855', 'usercareer': '弓箭手', 'userrace': '人類', 'userfloor': '6', 'postip': '125.230.227.xxx', 'postTime': '2019-11-19 04:09:45', 'getgp': '0', 'getbp': '0', 'content': '根本不曉得反骨有他= = 本來以為乞丐哥 是最不OK的沒想到 還有一個更路人臉的XD反骨本來不認識 看娛百狼人殺\xa0\xa0跟 玩很大才知道他們男的好像只有酷炫 還OK\xa0\xa0其他都沒什麼好感艾瑞絲 跟 蕾菈 倒是還不錯!!', 'comments': {'0': {'bsn': '60076', 'sn': '2444945', 'userid': 'hy901001', 'comment': '你可以考慮看一下&amp;quot;我被開除了&amp;quot; 從第一集開始看', 'gp': '0', 'bp': '0', 'wtime': '2020-01-07 06:46:45', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你可以考慮看一下&amp;quot;我被開除了&amp;quot; 從第一集開始看', 'snB': '62156580', 'time': '01-07 06:46', 'nick': '鳳梨'}, 'next_snC': 0}}, {'postId': '63051946', 'userId': 'hy901001', 'userLv': '10', 'userGp': '410', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '7', 'postip': '114.36.106.xxx', 'postTime': '2020-01-07 06:40:34', 'getgp': '1', 'getbp': '0', 'content': '你可以考慮看一下"我被開除了" 這個單元每一集都很好看主角就是培根', 'comments': {'next_snC': 0}}, {'postId': '63052131', 'userId': 'Rurizuu', 'userLv': '13', 'userGp': '122', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '8', 'postip': '223.140.28.xxx', 'postTime': '2020-01-07 07:12:58', 'getgp': '0', 'getbp': '0', 'content': '因為他有灰指甲', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -846,10 +834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="G8" t="n">
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
@@ -877,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'postId': '62962498', 'userId': 'sysop', 'userLv': '1', 'userGp': '36610', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': 'BAHAMUT', 'postTime': '2020-01-02 00:48:06', 'getgp': '0', 'getbp': '0', 'content': '首篇已刪，此討論串鎖定。', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '62962055', 'userId': 'kevin3926659', 'userLv': '32', 'userGp': '563', 'usercareer': '弓箭手', 'userrace': '妖精', 'userfloor': '2', 'postip': '220.142.52.xxx', 'postTime': '2020-01-02 00:15:21', 'getgp': '2', 'getbp': '0', 'content': '爆油會噴到哀哀叫吧', 'comments': {'next_snC': 0}}, {'postId': '62962057', 'userId': 'rain44556', 'userLv': '42', 'userGp': '1141', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '3', 'postip': '39.9.192.xxx', 'postTime': '2020-01-02 00:15:35', 'getgp': '0', 'getbp': '0', 'content': '修臉修到不符合頭的比例然後後面那一根還變形', 'comments': {'0': {'bsn': '60076', 'sn': '2444876', 'userid': 'sam001229', 'comment': '後面那是水龍頭吧…', 'gp': '0', 'bp': '0', 'wtime': '2020-01-02 00:28:38', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '後面那是水龍頭吧…', 'snB': '62962057', 'time': '01-02 00:28', 'nick': '五塊錢'}, 'next_snC': 0}}, {'postId': '62962079', 'userId': 'leo57963', 'userLv': '31', 'userGp': '1606', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '4', 'postip': '218.161.35.xxx', 'postTime': '2020-01-02 00:16:54', 'getgp': '0', 'getbp': '0', 'content': '遠離火源，避免戴奧辛', 'comments': {'next_snC': 0}}, {'postId': '62962102', 'userId': 'draculux', 'userLv': '43', 'userGp': '2025', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '5', 'postip': '118.233.8.xxx', 'postTime': '2020-01-02 00:18:13', 'getgp': '0', 'getbp': '0', 'content': '這種手作出來的菜我不敢吃', 'comments': {'next_snC': 0}}, {'postId': '62962498', 'userId': 'sysop', 'userLv': '1', 'userGp': '36610', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': 'BAHAMUT', 'postTime': '2020-01-02 00:48:06', 'getgp': '0', 'getbp': '0', 'content': '首篇已刪，此討論串鎖定。', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -910,10 +896,8 @@
           <t>外面好冷</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -941,7 +925,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'postId': '62469556', 'userId': 'mike20001019', 'userLv': '20', 'userGp': '45', 'usercareer': '弓箭手', 'userrace': '人類', 'userfloor': '3', 'postip': '116.59.112.xxx', 'postTime': '2019-12-06 06:10:45', 'getgp': '0', 'getbp': '0', 'content': '薯餅漢堡', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '62469545', 'userId': 'asd43649412', 'userLv': '16', 'userGp': '12', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '1', 'postip': '27.242.224.xxx', 'postTime': '2019-12-06 06:03:27', 'getgp': '0', 'getbp': '0', 'content': '外面好冷', 'comments': {'0': {'bsn': '60076', 'sn': '2422134', 'userid': 's27010120', 'comment': '一次6條 有點多', 'gp': '0', 'bp': '0', 'wtime': '2019-12-06 06:10:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '一次6條 有點多', 'snB': '62469545', 'time': '12-06 06:10', 'nick': 'OB'}, 'next_snC': 0}}, {'postId': '62469550', 'userId': 'G901501014', 'userLv': '28', 'userGp': '2934', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '2', 'postip': '42.73.126.xxx', 'postTime': '2019-12-06 06:08:38', 'getgp': '0', 'getbp': '0', 'content': '玉米濃湯', 'comments': {'next_snC': 0}}, {'postId': '62469556', 'userId': 'mike20001019', 'userLv': '20', 'userGp': '45', 'usercareer': '弓箭手', 'userrace': '人類', 'userfloor': '3', 'postip': '116.59.112.xxx', 'postTime': '2019-12-06 06:10:45', 'getgp': '0', 'getbp': '0', 'content': '薯餅漢堡', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -974,10 +958,8 @@
           <t>我釘到手了 x 我釘到手了</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1005,7 +987,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'postId': '62151378', 'userId': 'asdfg2h', 'userLv': '30', 'userGp': '1090', 'usercareer': '商人', 'userrace': '矮人', 'userfloor': '1', 'postip': '1.170.25.xxx', 'postTime': '2019-11-18 21:08:30', 'getgp': '0', 'getbp': '0', 'content': '我釘到手了x我釘到手了', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '62151378', 'userId': 'asdfg2h', 'userLv': '30', 'userGp': '1090', 'usercareer': '商人', 'userrace': '矮人', 'userfloor': '1', 'postip': '1.170.25.xxx', 'postTime': '2019-11-18 21:08:30', 'getgp': '0', 'getbp': '0', 'content': '我釘到手了x我釘到手了', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1020,8 @@
           <t>從淡水回來好累OTZ 所以晚餐就隨便做一做解決 結果做完才發現這根本變成宵夜了..... 隨便的材料介紹 白飯 約２碗 培根 約３條 冷凍蔬菜 ５０ｇ 雞蛋 ２顆 醬油 １大匙 做法 一開始…</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="G11" t="n">
+        <v>84</v>
       </c>
       <c r="H11" t="n">
         <v>39</v>
@@ -1069,7 +1049,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'postId': '61360737', 'userId': 'ewgubs', 'userLv': '31', 'userGp': '64', 'usercareer': '弓箭手', 'userrace': '人類', 'userfloor': '11', 'postip': '114.40.189.xxx', 'postTime': '2019-10-08 22:49:03', 'getgp': '0', 'getbp': '0', 'content': '好香==', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '12247573', 'userId': 'b23122998', 'userLv': '22', 'userGp': '3430', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '218.170.59.xxx', 'postTime': '2011-06-27 22:15:39', 'getgp': '84', 'getbp': '0', 'content': '從淡水回來好累OTZ\xa0所以晚餐就隨便做一做解決\xa0結果做完才發現這根本變成宵夜了.....\xa0隨便的材料介紹\xa0白飯\u3000\u3000\u3000約２碗培根\u3000\u3000\u3000約３條冷凍蔬菜\u3000５０ｇ雞蛋\u3000\u3000\u3000２顆醬油\u3000\u3000\u3000１大匙\xa0做法\xa0一開始先將培根切段，之後丟到鍋子裡炒到油出來後拿起來跟白飯丟在一起然後利用鍋子內的油把蛋打進去快速攪拌請注意動作要快不然容易黏鍋等蛋呈現要熟不熟開始跟你裝熟的時後就可以把東西全都丟下去炒了最後把醬油用劃圓的倒進去轉大火快速翻炒幾下就可以了\xa0你看，很簡單吧阿，放錯圖了（&lt;ゝω・）請原諒我！\xa0這篇真的不能算是教學文ＯＴＺ\xa0因為他實在是太簡單了\xa0提供一個小技巧吧，在炒飯時如果不是用專業的炒匙而是用普通的平底炒菜匙的話\xa0請注意千萬不要用底部去壓飯\xa0這會讓炒飯容易黏鍋而且最後鬆散的感覺會無法出來\xa0炒的時後盡量由外往內翻炒\xa0這樣子你會發現它很容易就可以輕鬆翻炒而不用太浪費力氣\xa0就醬～\xa0入野宵夜文\u3000\u3000改天見\u3000掰\u3000\u3000\u3000＞＿０\xa0我發的其他文章，想做菜的可以參考看看(。A。)つ下午小點心，培根摩菇起司包～！入野減肥食譜!! 番茄燉雞肉～！ 補滿整天元氣!! 鮪魚活力丼～！你也可以輕鬆下廚!! 蝦仁米蛋起司餅～！ 用平底鍋做出馬鈴薯披薩～！  \xa0入野開始試著寫食記嚕，請大家多多澎場(。A。)つ入野晚餐食記，清水阿財米糕店 入野早餐食記，無名早餐店、蘇記大腸麵線入野老街食記，Windmill Plaza-淡水風車廣場 New~!!\xa0\xa0', 'comments': {'0': {'bsn': '60076', 'sn': '1929117', 'userid': 'transient1', 'comment': '我只會炒麵 怎麼辦。', 'gp': '0', 'bp': '0', 'wtime': '2018-02-26 23:02:04', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我只會炒麵 怎麼辦。', 'snB': '12247573', 'time': '02-26 23:02', 'nick': '三個月了'}, '1': {'bsn': '60076', 'sn': '1008330', 'userid': 'b5317563', 'comment': '太好ㄘㄌ', 'gp': '0', 'bp': '0', 'wtime': '2015-01-07 04:38:50', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '太好ㄘㄌ', 'snB': '12247573', 'time': '01-07 04:38', 'nick': '香橙泡芙'}, '2': {'bsn': '60076', 'sn': '872886', 'userid': 'a3683771', 'comment': '餓了 想ㄘ', 'gp': '0', 'bp': '0', 'wtime': '2014-06-29 20:29:46', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓了 想ㄘ', 'snB': '12247573', 'time': '06-29 20:29', 'nick': 'Way'}, '3': {'bsn': '60076', 'sn': '461963', 'userid': 'kykz0213', 'comment': '黑橋牌的培根吼', 'gp': '0', 'bp': '0', 'wtime': '2012-12-09 01:46:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '黑橋牌的培根吼', 'snB': '12247573', 'time': '12-09 01:46', 'nick': '一瓶藥丸'}, '4': {'bsn': '60076', 'sn': '461817', 'userid': 'ii13', 'comment': '給30分鐘學畫畫GP', 'gp': '0', 'bp': '0', 'wtime': '2012-12-08 20:17:19', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '給30分鐘學畫畫GP', 'snB': '12247573', 'time': '12-08 20:17', 'nick': 'Neeain'}, '5': {'bsn': '60076', 'sn': '126646', 'userid': 'b23122998', 'comment': '可以', 'gp': '0', 'bp': '0', 'wtime': '2011-07-08 17:33:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可以', 'snB': '12247573', 'time': '07-08 17:33', 'nick': '賣肝with入野'}, '6': {'bsn': '60076', 'sn': '126613', 'userid': 'HBK84908', 'comment': '請問不喜歡冷凍蔬菜的話可以不要放嗎?', 'gp': '0', 'bp': '0', 'wtime': '2011-07-08 15:24:18', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '請問不喜歡冷凍蔬菜的話可以不要放嗎?', 'snB': '12247573', 'time': '07-08 15:24', 'nick': 'yee心yee意'}, '7': {'bsn': '60076', 'sn': '122093', 'userid': 'bhbhbhbhbh12', 'comment': '未來 有沒有可能 超越阿基師?? 阿希師????', 'gp': '0', 'bp': '0', 'wtime': '2011-07-03 12:06:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '未來 有沒有可能 超越阿基師?? 阿希師????', 'snB': '12247573', 'time': '07-03 12:06', 'nick': '會窒息的痛'}, '8': {'bsn': '60076', 'sn': '119199', 'userid': 'abcde653022', 'comment': '喔一夕搜....怎麼感覺物品都好可愛.....糟糕.....', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 21:25:31', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '喔一夕搜....怎麼感覺物品都好可愛.....糟糕.....', 'snB': '12247573', 'time': '06-28 21:25', 'nick': '和平自由龍o隨性過'}, '9': {'bsn': '60076', 'sn': '119159', 'userid': 'yidiyaan', 'comment': '炒的很漂亮耶，想要咖哩飯 (?', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 20:24:49', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '炒的很漂亮耶，想要咖哩飯 (?', 'snB': '12247573', 'time': '06-28 20:24', 'nick': '老皮嫩肉'}, '10': {'bsn': '60076', 'sn': '119149', 'userid': 's910004', 'comment': '敝人對甜點比較有興趣呢！', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 20:11:10', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '敝人對甜點比較有興趣呢！', 'snB': '12247573', 'time': '06-28 20:11', 'nick': '月見螢'}, '11': {'bsn': '60076', 'sn': '119089', 'userid': 'ero2684', 'comment': '炒飯最討厭的就是帶套  ((  誤', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 19:00:17', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '炒飯最討厭的就是帶套  ((  誤', 'snB': '12247573', 'time': '06-28 19:00', 'nick': '藍染坊'}, '12': {'bsn': '60076', 'sn': '119081', 'userid': 'z7528375', 'comment': '那個油畫大叔畫油畫速度真的有夠快的，看他畫得很簡單似的(離題了...', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 18:43:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '那個油畫大叔畫油畫速度真的有夠快的，看他畫得很簡單似的(離題了...', 'snB': '12247573', 'time': '06-28 18:43', 'nick': '幻惑之風'}, '13': {'bsn': '60076', 'sn': '119061', 'userid': 'koeiojim', 'comment': '沒有用隔夜飯  0分', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 18:28:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '沒有用隔夜飯  0分', 'snB': '12247573', 'time': '06-28 18:28', 'nick': '妲咩優'}, '14': {'bsn': '60076', 'sn': '119057', 'userid': 'aaa2011', 'comment': '看起來好吃', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 18:08:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看起來好吃', 'snB': '12247573', 'time': '06-28 18:08', 'nick': '優雅南瓜'}, '15': {'bsn': '60076', 'sn': '119056', 'userid': 'Renee7328z', 'comment': '先放草莓那個....你的炒飯就顯得........', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 18:06:20', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '先放草莓那個....你的炒飯就顯得........', 'snB': '12247573', 'time': '06-28 18:06', 'nick': '傲嬌害羞的菇兒'}, '16': {'bsn': '60076', 'sn': '119055', 'userid': 'kenshin0620', 'comment': '油畫大叔那張我笑翻了.....', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 18:04:52', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '油畫大叔那張我笑翻了.....', 'snB': '12247573', 'time': '06-28 18:04', 'nick': '✿櫻花蝦仙貝武士✿'}, '17': {'bsn': '60076', 'sn': '119036', 'userid': 'full9box', 'comment': '甜食?銀魂梗?', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 17:19:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '甜食?銀魂梗?', 'snB': '12247573', 'time': '06-28 17:19', 'nick': '好芯情'}, '18': {'bsn': '60076', 'sn': '118974', 'userid': 'cgbx', 'comment': '我討厭冷凍蔬菜......', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 15:39:49', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我討厭冷凍蔬菜......', 'snB': '12247573', 'time': '06-28 15:39', 'nick': '獸耳控'}, '19': {'bsn': '60076', 'sn': '118960', 'userid': 'sbc22222', 'comment': '看到三色蔬菜就虛了', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 14:55:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看到三色蔬菜就虛了', 'snB': '12247573', 'time': '06-28 14:55', 'nick': '土御門宮止'}, '20': {'bsn': '60076', 'sn': '118937', 'userid': 'amyz9961', 'comment': '除了冷凍玉米以外 那紅蘿蔔+綠豆真的很糟糕=_=都有一種怪味-.-', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 14:22:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '除了冷凍玉米以外 那紅蘿蔔+綠豆真的很糟糕=_=都有一種怪味-.-', 'snB': '12247573', 'time': '06-28 14:22', 'nick': '麥哥萌藍教頭'}, '21': {'bsn': '60076', 'sn': '118925', 'userid': 'a61013a', 'comment': '記得要用隔夜飯', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 14:11:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '記得要用隔夜飯', 'snB': '12247573', 'time': '06-28 14:11', 'nick': 'Phoenix小飛'}, '22': {'bsn': '60076', 'sn': '118719', 'userid': 'jaonro', 'comment': '我最恨的冷凍蔬菜出現了～～～～～～', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 04:08:15', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我最恨的冷凍蔬菜出現了～～～～～～', 'snB': '12247573', 'time': '06-28 04:08', 'nick': '最高跋扈'}, '23': {'bsn': '60076', 'sn': '118670', 'userid': 's51745121', 'comment': '我也討厭三色蔬菜...被冰箱冰硬到不行', 'gp': '0', 'bp': '0', 'wtime': '2011-06-28 00:19:15', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我也討厭三色蔬菜...被冰箱冰硬到不行', 'snB': '12247573', 'time': '06-28 00:19', 'nick': 'R-BJ'}, '24': {'bsn': '60076', 'sn': '118573', 'userid': 'b23122998', 'comment': '沒有耶OTZ  之前的會習慣甩鍋所以沒遇過 現在的鍋子品質也還不錯', 'gp': '0', 'bp': '0', 'wtime': '2011-06-27 22:24:42', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '沒有耶OTZ  之前的會習慣甩鍋所以沒遇過 現在的鍋子品質也還不錯', 'snB': '12247573', 'time': '06-27 22:24', 'nick': '賣肝with入野'}, '25': {'bsn': '60076', 'sn': '118572', 'userid': 'be1dandy', 'comment': '我討厭三色蔬菜~~', 'gp': '0', 'bp': '0', 'wtime': '2011-06-27 22:24:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我討厭三色蔬菜~~', 'snB': '12247573', 'time': '06-27 22:24', 'nick': '閃閃'}, '26': {'bsn': '60076', 'sn': '118570', 'userid': 'e259305873', 'comment': '炒飯最麻煩的就是會黏在一起，不知樓主有沒有遇過這種情況', 'gp': '0', 'bp': '0', 'wtime': '2011-06-27 22:23:23', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '炒飯最麻煩的就是會黏在一起，不知樓主有沒有遇過這種情況', 'snB': '12247573', 'time': '06-27 22:23', 'nick': '永無止盡的昨天'}, '27': {'bsn': '60076', 'sn': '118559', 'userid': 'bruce00320', 'comment': '除了說你厲害 我沒有其他形容詞了', 'gp': '0', 'bp': '0', 'wtime': '2011-06-27 22:17:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '除了說你厲害 我沒有其他形容詞了', 'snB': '12247573', 'time': '06-27 22:17', 'nick': '木春'}, '28': {'bsn': '60076', 'sn': '118555', 'userid': 'CanWithYou7r', 'comment': '跟著你有飯吃 嗚', 'gp': '0', 'bp': '0', 'wtime': '2011-06-27 22:17:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '跟著你有飯吃 嗚', 'snB': '12247573', 'time': '06-27 22:17', 'nick': 'QT♥'}, 'next_snC': 0}}, {'postId': '28571026', 'userId': 'AWDRGYJILP55', 'userLv': '18', 'userGp': '19', 'usercareer': '僧侶', 'userrace': '人類', 'userfloor': '3', 'postip': '111.184.132.xxx', 'postTime': '2015-04-06 00:51:38', 'getgp': '0', 'getbp': '0', 'content': '卡哦 改天試試 ', 'comments': {'0': {'bsn': '60076', 'sn': '1828717', 'userid': 'andy23380073', 'comment': '試了ㄇ', 'gp': '0', 'bp': '0', 'wtime': '2017-10-31 01:40:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '試了ㄇ', 'snB': '28571026', 'time': '10-31 01:40', 'nick': '小小昌險家'}, 'next_snC': 0}}, {'postId': '35612419', 'userId': 'wii57485', 'userLv': '11', 'userGp': '60', 'usercareer': '盜賊', 'userrace': '獸人', 'userfloor': '4', 'postip': '39.13.146.xxx', 'postTime': '2016-04-19 00:21:19', 'getgp': '0', 'getbp': '0', 'content': '登登登登登', 'comments': {'0': {'bsn': '60076', 'sn': '1373461', 'userid': 'wii57485', 'comment': '不要', 'gp': '0', 'bp': '0', 'wtime': '2016-04-19 00:51:22', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不要', 'snB': '35612419', 'time': '04-19 00:51', 'nick': '哇~好羅曼蒂克喔'}, '1': {'bsn': '60076', 'sn': '1373456', 'userid': 'pingu870714', 'comment': '惡意考古，進桶吧', 'gp': '0', 'bp': '0', 'wtime': '2016-04-19 00:43:34', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '惡意考古，進桶吧', 'snB': '35612419', 'time': '04-19 00:43', 'nick': 'Kiwi奇異鳥控'}, 'next_snC': 0}}, {'postId': '41585217', 'userId': 'cmcmisgod', 'userLv': '36', 'userGp': '3401', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '5', 'postip': '111.251.166.xxx', 'postTime': '2017-01-25 04:17:06', 'getgp': '0', 'getbp': '0', 'content': '看到培根就想到之前看培根包起司一直很想試試看.......', 'comments': {'next_snC': 0}}, {'postId': '41585255', 'userId': 'erg29242477', 'userLv': '11', 'userGp': '82', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '36.231.126.xxx', 'postTime': '2017-01-25 04:32:38', 'getgp': '0', 'getbp': '0', 'content': '餓ㄌ', 'comments': {'next_snC': 0}}, {'postId': '45501546', 'userId': 'f29816160', 'userLv': '14', 'userGp': '23', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '7', 'postip': '36.231.94.xxx', 'postTime': '2017-08-17 16:00:56', 'getgp': '0', 'getbp': '0', 'content': '真ㄉㄇ', 'comments': {'next_snC': 0}}, {'postId': '47095405', 'userId': 'andy23380073', 'userLv': '4', 'userGp': '13', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '8', 'postip': '27.247.3.xxx', 'postTime': '2017-10-31 01:37:13', 'getgp': '0', 'getbp': '0', 'content': '好ㄘ', 'comments': {'next_snC': 0}}, {'postId': '49252231', 'userId': 'TEAR670103', 'userLv': '13', 'userGp': '8', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '10', 'postip': '114.137.63.xxx', 'postTime': '2018-02-26 23:05:02', 'getgp': '0', 'getbp': '0', 'content': '我覺得三色也還好啊沒有多難吃而且炒飯本來就是很好吃的東西沒胃口也會想吃', 'comments': {'next_snC': 0}}, {'postId': '61360737', 'userId': 'ewgubs', 'userLv': '31', 'userGp': '64', 'usercareer': '弓箭手', 'userrace': '人類', 'userfloor': '11', 'postip': '114.40.189.xxx', 'postTime': '2019-10-08 22:49:03', 'getgp': '0', 'getbp': '0', 'content': '好香==', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1102,10 +1082,8 @@
           <t>大家安安!! 小弟這次分享的是.炸蝦野菇培根意大利麵跟.咖哩麵包. 第一個先是.炸蝦野菇培根意大利麵 材料~培根.香菇.鴻喜菇.洋蔥.蒜頭.綠花野菜.草蝦4隻.低粉.脆酥粉. 義大利麵.雞…</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
+      <c r="G12" t="n">
+        <v>498</v>
       </c>
       <c r="H12" t="n">
         <v>118</v>
@@ -1133,7 +1111,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'postId': '32280802', 'userId': 'vast30002', 'userLv': '9', 'userGp': '49', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '20', 'postip': '1.171.193.xxx', 'postTime': '2015-10-23 01:42:53', 'getgp': '1', 'getbp': '0', 'content': '馬的 不能只有我餓到', 'comments': {'0': {'bsn': '60076', 'sn': '1243530', 'userid': 'karta544142', 'comment': '幹就是你.......害我也好餓', 'gp': '0', 'bp': '0', 'wtime': '2015-10-23 01:49:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹就是你.......害我也好餓', 'snB': '32280802', 'time': '10-23 01:49', 'nick': '憤怒毛毛蟲'}, 'next_snC': 0}}</t>
+          <t>[{'postId': '17365606', 'userId': 'RYUGAN', 'userLv': '22', 'userGp': '252', 'usercareer': '劍士', 'userrace': '妖精', 'userfloor': '1', 'postip': '118.161.46.xxx', 'postTime': '2013-01-24 23:22:47', 'getgp': '489', 'getbp': '0', 'content': '大家安安!!小弟這次分享的是.炸蝦野菇培根意大利麵跟.咖哩麵包.\xa0第一個先是.炸蝦野菇培根意大利麵\xa0材料~培根.香菇.鴻喜菇.洋蔥.蒜頭.綠花野菜.草蝦4隻.低粉.脆酥粉.義大利麵.雞高湯些許.蛋2個.\xa0 做法:培根切小段.香菇切片.鴻喜菇切丁.洋蔥切絲.蒜頭切碎.草蝦剝殼去頭(頭要留)去沙筋.\xa0花野菜切塊...低粉.跟脆酥粉加蛋黃2個.少許冰水.打成麵糊.\xa0義大利麵煮好備用.(義大利麵煮法我想就不用多說了.大家都知道了吧!!)\xa0\xa01.先將.培根.香菇.鴻喜菇.洋蔥.蒜頭.炒到逼出水份到點微焦. 2.加入蝦頭.一起炒.再加入高湯一起煮.煮到蝦膏出現香味再挑起來丟掉就可以.\xa0\xa0\xa0\xa0\xa03.加入義大利麵.花野菜一起煮.調味料加.黑胡椒.白胡椒.綜合香料.少許鹽.\xa0\xa0\xa0\xa0煮至縮汁出現些許濃稠就可以起鍋了!!\xa04.起油鍋.炸蝦.(蝦子.先沾些麵粉再沾麵糊)\xa0\xa0\xa0\xa05.蝦子炸好後擺上就好了喔!!\xa0 --------------------------------------------------------------------------------------------------------------------------------------------\xa0\xa0咖哩麵包~~~~~\xa0材料~咖哩肉醬(不知道的可進我的小屋找).\xa0\xa0法國麵包1/3條.起士片1~2片或絲.\xa0 做法:1先將麵包對開.再對開(不斷).\xa0\xa0\xa0\xa02.用烤箱烤熱.\xa0\xa0\xa03.加入咖哩肉醬.灑上起士片.\xa0\xa0\xa0\xa04.再入烤箱.烤至微焦.就可以啦!!\xa0\xa0\xa0\xa0\xa06.完成吃飯.\xa0\xa0\xa0以上分享完畢.謝謝大家. \xa0\xa0\xa0 ', 'comments': {'0': {'bsn': '60076', 'sn': '2220026', 'userid': 'z85822559', 'comment': '讚喔', 'gp': '0', 'bp': '0', 'wtime': '2019-03-04 13:41:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '讚喔', 'snB': '17365606', 'time': '03-04 13:41', 'nick': '震動魔法棒'}, '1': {'bsn': '60076', 'sn': '2219974', 'userid': 'a0106tony', 'comment': '吃那麼少 生病了嗎', 'gp': '0', 'bp': '0', 'wtime': '2019-03-04 12:06:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '吃那麼少 生病了嗎', 'snB': '17365606', 'time': '03-04 12:06', 'nick': '橘貓'}, '2': {'bsn': '60076', 'sn': '2219938', 'userid': 'z1419612345', 'comment': '害我好餓', 'gp': '0', 'bp': '0', 'wtime': '2019-03-04 10:22:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '害我好餓', 'snB': '17365606', 'time': '03-04 10:22', 'nick': '梓沂(刀子嘴豆腐心)'}, '3': {'bsn': '60076', 'sn': '1342931', 'userid': 'ljy1996', 'comment': '標題騙我', 'gp': '0', 'bp': '0', 'wtime': '2016-03-09 18:20:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '標題騙我', 'snB': '17365606', 'time': '03-09 18:20', 'nick': '很跳！上車！'}, '4': {'bsn': '60076', 'sn': '1342851', 'userid': 'ww861201', 'comment': 'oMG', 'gp': '0', 'bp': '0', 'wtime': '2016-03-09 16:40:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'oMG', 'snB': '17365606', 'time': '03-09 16:40', 'nick': '帕爾菲斯特'}, '5': {'bsn': '60076', 'sn': '1237142', 'userid': 'heaton524', 'comment': '猛', 'gp': '0', 'bp': '0', 'wtime': '2015-10-23 04:14:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '猛', 'snB': '17365606', 'time': '10-23 04:14', 'nick': '只是個ID'}, '6': {'bsn': '60076', 'sn': '808994', 'userid': 'moon52032', 'comment': '嗚嗚嗚嗚 為什麼要這時候看到這個', 'gp': '0', 'bp': '0', 'wtime': '2014-03-27 23:55:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '嗚嗚嗚嗚 為什麼要這時候看到這個', 'snB': '17365606', 'time': '03-27 23:55', 'nick': '釦子'}, '7': {'bsn': '60076', 'sn': '808990', 'userid': 'chenling', 'comment': '問ㄍ問題 雞高湯是用雞湯粉調的ㄇ', 'gp': '0', 'bp': '0', 'wtime': '2014-03-27 23:52:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '問ㄍ問題 雞高湯是用雞湯粉調的ㄇ', 'snB': '17365606', 'time': '03-27 23:52', 'nick': '巴幣ㄐ'}, '8': {'bsn': '60076', 'sn': '665840', 'userid': 'visa220033', 'comment': '0.0', 'gp': '0', 'bp': '0', 'wtime': '2013-09-01 23:08:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '0.0', 'snB': '17365606', 'time': '09-01 23:08', 'nick': 'Change'}, '9': {'bsn': '60076', 'sn': '538628', 'userid': 'zobta9636', 'comment': 'ㄇㄉ 美食...', 'gp': '0', 'bp': '0', 'wtime': '2013-03-25 21:07:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'ㄇㄉ 美食...', 'snB': '17365606', 'time': '03-25 21:07', 'nick': 'ReD'}, '10': {'bsn': '60076', 'sn': '536526', 'userid': 'RYUGAN', 'comment': '可能油溫吧!不對吧.', 'gp': '0', 'bp': '0', 'wtime': '2013-03-23 02:46:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可能油溫吧!不對吧.', 'snB': '17365606', 'time': '03-23 02:46', 'nick': '蠍龍'}, '11': {'bsn': '60076', 'sn': '536521', 'userid': 'awp123', 'comment': '請問一下為什麼我炸蝦的時候一下就焦了,不然就是粉掉光了= =', 'gp': '0', 'bp': '0', 'wtime': '2013-03-23 02:17:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '請問一下為什麼我炸蝦的時候一下就焦了,不然就是粉掉光了= =', 'snB': '17365606', 'time': '03-23 02:17', 'nick': '星兒'}, '12': {'bsn': '60076', 'sn': '509012', 'userid': 'e933429e', 'comment': '餓惹', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 04:26:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓惹', 'snB': '17365606', 'time': '02-11 04:26', 'nick': '藍星宇智波'}, '13': {'bsn': '60076', 'sn': '509010', 'userid': 'weishome', 'comment': '好ㄘ', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 04:16:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好ㄘ', 'snB': '17365606', 'time': '02-11 04:16', 'nick': '偷拍大隊隊長'}, '14': {'bsn': '60076', 'sn': '509009', 'userid': 'BAHAMUT000', 'comment': '餓死了 哭哭', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 04:12:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓死了 哭哭', 'snB': '17365606', 'time': '02-11 04:12', 'nick': '薯條控'}, '15': {'bsn': '60076', 'sn': '509006', 'userid': 'b23710671234', 'comment': '哪個死沒公德心半夜挖古文啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 03:49:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個死沒公德心半夜挖古文啦', 'snB': '17365606', 'time': '02-11 03:49', 'nick': '\uf6ed雨★淚☆'}, '16': {'bsn': '60076', 'sn': '509005', 'userid': 'yoga4222', 'comment': 'ㄇㄉ 窩好餓ˊˋ', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 03:45:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'ㄇㄉ 窩好餓ˊˋ', 'snB': '17365606', 'time': '02-11 03:45', 'nick': '希羅'}, '17': {'bsn': '60076', 'sn': '509001', 'userid': 'y5jjo3', 'comment': '哪個死沒公德心半夜挖古文啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 03:30:04', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個死沒公德心半夜挖古文啦', 'snB': '17365606', 'time': '02-11 03:30', 'nick': '根本中肯'}, '18': {'bsn': '60076', 'sn': '509000', 'userid': 'zxc7760855', 'comment': '幹要哭了啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 03:29:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹要哭了啦', 'snB': '17365606', 'time': '02-11 03:29', 'nick': '不曉得怎麼會有人想'}, '19': {'bsn': '60076', 'sn': '508995', 'userid': 'pershch5', 'comment': '哪個死沒公德心半夜挖古文啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:37:04', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個死沒公德心半夜挖古文啦', 'snB': '17365606', 'time': '02-11 02:37', 'nick': '說好不鬧的'}, '20': {'bsn': '60076', 'sn': '508994', 'userid': 'intin1252', 'comment': '哭餓了啦&amp;gt;&amp;lt;', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:35:39', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哭餓了啦&amp;gt;&amp;lt;', 'snB': '17365606', 'time': '02-11 02:35', 'nick': 'ʕ•͡ᴥ•ʔ'}, '21': {'bsn': '60076', 'sn': '508993', 'userid': 'rongchingl', 'comment': '混帳  半夜誰挖宵夜古文啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:35:18', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '混帳  半夜誰挖宵夜古文啦', 'snB': '17365606', 'time': '02-11 02:35', 'nick': '閒者'}, '22': {'bsn': '60076', 'sn': '508990', 'userid': 'bcd6t123', 'comment': '你害我家裡少了20塊雞塊', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:30:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你害我家裡少了20塊雞塊', 'snB': '17365606', 'time': '02-11 02:30', 'nick': '名稱我不會打'}, '23': {'bsn': '60076', 'sn': '508986', 'userid': 'm208404404', 'comment': '哪個死沒公德心半夜挖古文啦', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:27:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個死沒公德心半夜挖古文啦', 'snB': '17365606', 'time': '02-11 02:27', 'nick': '杯墊'}, '24': {'bsn': '60076', 'sn': '508981', 'userid': 'a8591good', 'comment': '太餓了 已噓', 'gp': '0', 'bp': '0', 'wtime': '2013-02-11 02:19:15', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '太餓了 已噓', 'snB': '17365606', 'time': '02-11 02:19', 'nick': '腦獅'}, '25': {'bsn': '60076', 'sn': '505408', 'userid': 'allen0216', 'comment': '你害我少了一碗泡麵', 'gp': '0', 'bp': '0', 'wtime': '2013-02-06 02:08:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你害我少了一碗泡麵', 'snB': '17365606', 'time': '02-06 02:08', 'nick': 'Evlkuo'}, '26': {'bsn': '60076', 'sn': '505282', 'userid': 'RYUGAN', 'comment': '快去吃消夜吧!!我也餓了..', 'gp': '0', 'bp': '0', 'wtime': '2013-02-05 23:55:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '快去吃消夜吧!!我也餓了..', 'snB': '17365606', 'time': '02-05 23:55', 'nick': '蠍龍'}, '27': {'bsn': '60076', 'sn': '505210', 'userid': 'gf789', 'comment': '肚子又餓了你要怎麼負責opo', 'gp': '0', 'bp': '0', 'wtime': '2013-02-05 22:14:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '肚子又餓了你要怎麼負責opo', 'snB': '17365606', 'time': '02-05 22:14', 'nick': '鋼鐵的孤狼-亞雷夫'}, '28': {'bsn': '60076', 'sn': '503357', 'userid': 'RYUGAN', 'comment': '上上樓那傢伙!!說什麼東東.看沒....', 'gp': '0', 'bp': '0', 'wtime': '2013-02-03 22:45:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '上上樓那傢伙!!說什麼東東.看沒....', 'snB': '17365606', 'time': '02-03 22:45', 'nick': '蠍龍'}, '29': {'bsn': '60076', 'sn': '502136', 'userid': 'smile092452', 'comment': '幹 餓死了', 'gp': '0', 'bp': '0', 'wtime': '2013-02-02 03:52:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹 餓死了', 'snB': '17365606', 'time': '02-02 03:52', 'nick': '睏櫃桃'}, '30': {'bsn': '60076', 'sn': '502130', 'userid': 'a24604789', 'comment': '當窩葛葛/賊賊 拜託', 'gp': '0', 'bp': '0', 'wtime': '2013-02-02 03:30:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '當窩葛葛/賊賊 拜託', 'snB': '17365606', 'time': '02-02 03:30', 'nick': '杰哥'}, '31': {'bsn': '60076', 'sn': '498990', 'userid': 'rogerlee1993', 'comment': '花野菜', 'gp': '0', 'bp': '0', 'wtime': '2013-01-28 22:29:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '花野菜', 'snB': '17365606', 'time': '01-28 22:29', 'nick': '歪歪人'}, '32': {'bsn': '60076', 'sn': '497799', 'userid': 'qerasd494900', 'comment': '餓惹', 'gp': '0', 'bp': '0', 'wtime': '2013-01-27 00:44:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓惹', 'snB': '17365606', 'time': '01-27 00:44', 'nick': 'O_O'}, '33': {'bsn': '60076', 'sn': '497778', 'userid': 'mustang71704', 'comment': '槓 好餓', 'gp': '0', 'bp': '0', 'wtime': '2013-01-27 00:14:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '槓 好餓', 'snB': '17365606', 'time': '01-27 00:14', 'nick': '毛屁屁兒'}, '34': {'bsn': '60076', 'sn': '497757', 'userid': 's5848442', 'comment': '好ㄘ', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:53:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好ㄘ', 'snB': '17365606', 'time': '01-26 23:53', 'nick': '咪咪咪'}, '35': {'bsn': '60076', 'sn': '497753', 'userid': 'r12457897', 'comment': '好ㄘ', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:44:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好ㄘ', 'snB': '17365606', 'time': '01-26 23:44', 'nick': '桃園陳小春'}, '36': {'bsn': '60076', 'sn': '497727', 'userid': 's12358972', 'comment': '幹!!!!!!!!!!!!!!!!!!!!!!!!!!!!!', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:10:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹!!!!!!!!!!!!!!!!!!!!!!!!!!!!!', 'snB': '17365606', 'time': '01-26 23:10', 'nick': '喔~?是嗎'}, '37': {'bsn': '60076', 'sn': '497725', 'userid': 'RYUGAN', 'comment': '安ㄋ......', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:10:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '安ㄋ......', 'snB': '17365606', 'time': '01-26 23:10', 'nick': '蠍龍'}, '38': {'bsn': '60076', 'sn': '497720', 'userid': 'asdms159357', 'comment': '把蝦頭看成小強-.-', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:07:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '把蝦頭看成小強-.-', 'snB': '17365606', 'time': '01-26 23:07', 'nick': 'RanMS'}, '39': {'bsn': '60076', 'sn': '497716', 'userid': 'a22631588', 'comment': '餓ㄌ 亙', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 23:06:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓ㄌ 亙', 'snB': '17365606', 'time': '01-26 23:06', 'nick': '雙子'}, '40': {'bsn': '60076', 'sn': '497708', 'userid': 'RYUGAN', 'comment': '謝謝!!', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 22:58:26', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '謝謝!!', 'snB': '17365606', 'time': '01-26 22:58', 'nick': '蠍龍'}, '41': {'bsn': '60076', 'sn': '497267', 'userid': 'sss19451450', 'comment': '已收藏過', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 07:42:06', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '已收藏過', 'snB': '17365606', 'time': '01-26 07:42', 'nick': 'Glycine'}, '42': {'bsn': '60076', 'sn': '497264', 'userid': 'gint1908', 'comment': '已餓', 'gp': '0', 'bp': '0', 'wtime': '2013-01-26 07:27:50', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '已餓', 'snB': '17365606', 'time': '01-26 07:27', 'nick': 'KINA奇奈'}, '43': {'bsn': '60076', 'sn': '497140', 'userid': 'f11332233', 'comment': '已餓(•̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩́ ˑ̫ •̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̀)', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 23:29:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '已餓(•̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩́ ˑ̫ •̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̩̀)', 'snB': '17365606', 'time': '01-25 23:29', 'nick': '射後不理™'}, '44': {'bsn': '60076', 'sn': '497116', 'userid': 'kent87041', 'comment': '幹 萬惡文', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 22:47:18', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹 萬惡文', 'snB': '17365606', 'time': '01-25 22:47', 'nick': '貓貓ㄛ'}, '45': {'bsn': '60076', 'sn': '497115', 'userid': 'tso2054852', 'comment': '炸蝦~~~ 想ㄘ', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 22:42:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '炸蝦~~~ 想ㄘ', 'snB': '17365606', 'time': '01-25 22:42', 'nick': '╓ＳｈｏｃΚ╖'}, '46': {'bsn': '60076', 'sn': '497112', 'userid': 'lf23333kkkkk', 'comment': '已餓', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 22:40:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '已餓', 'snB': '17365606', 'time': '01-25 22:40', 'nick': 'Mr.認真桑'}, '47': {'bsn': '60076', 'sn': '497111', 'userid': 'z3655423', 'comment': '餓惹', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 22:39:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓惹', 'snB': '17365606', 'time': '01-25 22:39', 'nick': '愉悅熊'}, '48': {'bsn': '60076', 'sn': '497102', 'userid': 'RYUGAN', 'comment': '別這樣啦!!', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 22:19:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '別這樣啦!!', 'snB': '17365606', 'time': '01-25 22:19', 'nick': '蠍龍'}, '49': {'bsn': '60076', 'sn': '496911', 'userid': 'a7986123', 'comment': '可惡.. 想吃', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 19:02:04', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可惡.. 想吃', 'snB': '17365606', 'time': '01-25 19:02', 'nick': '鯊魚'}, '50': {'bsn': '60076', 'sn': '496390', 'userid': 'fly78909', 'comment': '乾 不該手賤點進來', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 01:45:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '乾 不該手賤點進來', 'snB': '17365606', 'time': '01-25 01:45', 'nick': '一只小鳥'}, '51': {'bsn': '60076', 'sn': '496355', 'userid': 'RYUGAN', 'comment': '.....你想咬哪個!!', 'gp': '0', 'bp': '0', 'wtime': '2013-01-25 00:33:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '.....你想咬哪個!!', 'snB': '17365606', 'time': '01-25 00:33', 'nick': '蠍龍'}, '52': {'bsn': '60076', 'sn': '496305', 'userid': 'to685579', 'comment': '可惡，想咬', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:33:52', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可惡，想咬', 'snB': '17365606', 'time': '01-24 23:33', 'nick': '非洲線'}, '53': {'bsn': '60076', 'sn': '496304', 'userid': 'x0988115114', 'comment': '草尼馬的... 這時間點  嗚嗚  變胖都泥害ㄉ', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:33:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '草尼馬的... 這時間點  嗚嗚  變胖都泥害ㄉ', 'snB': '17365606', 'time': '01-24 23:33', 'nick': '鐵口直斷'}, '54': {'bsn': '60076', 'sn': '496299', 'userid': 'g52146', 'comment': '可惡，已餓', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:31:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可惡，已餓', 'snB': '17365606', 'time': '01-24 23:31', 'nick': '右上角小目'}, '55': {'bsn': '60076', 'sn': '496297', 'userid': 'Gaga1112', 'comment': '熱量很高...', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:30:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '熱量很高...', 'snB': '17365606', 'time': '01-24 23:30', 'nick': '聖都の良心アデル'}, '56': {'bsn': '60076', 'sn': '496296', 'userid': 'as4506453', 'comment': '希望ㄋ噎死', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:29:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '希望ㄋ噎死', 'snB': '17365606', 'time': '01-24 23:29', 'nick': '小蘇丶'}, '57': {'bsn': '60076', 'sn': '496295', 'userid': 'spadee72069', 'comment': '可惡，想吃', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:29:05', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可惡，想吃', 'snB': '17365606', 'time': '01-24 23:29', 'nick': '終究是一個宅宅'}, '58': {'bsn': '60076', 'sn': '496294', 'userid': 'favorite520', 'comment': '對起司沒抵抗力......SHIT', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:28:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '對起司沒抵抗力......SHIT', 'snB': '17365606', 'time': '01-24 23:28', 'nick': 'chi'}, '59': {'bsn': '60076', 'sn': '496292', 'userid': 'jackdeng4', 'comment': '咖哩麵包太犯規了啦！！ 餓死了', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:26:46', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '咖哩麵包太犯規了啦！！ 餓死了', 'snB': '17365606', 'time': '01-24 23:26', 'nick': '烏龍菁茶-半糖少冰'}, '60': {'bsn': '60076', 'sn': '496290', 'userid': 'q0928041998', 'comment': '....為什麼要刺激我', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:25:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '....為什麼要刺激我', 'snB': '17365606', 'time': '01-24 23:25', 'nick': 'UX'}, '61': {'bsn': '60076', 'sn': '496288', 'userid': 'gy0927860737', 'comment': '餓了', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:25:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓了', 'snB': '17365606', 'time': '01-24 23:25', 'nick': '梗在哪 ?'}, '62': {'bsn': '60076', 'sn': '496284', 'userid': 's20026806', 'comment': '看起來很好吃的感覺~   真幸福', 'gp': '0', 'bp': '0', 'wtime': '2013-01-24 23:23:34', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看起來很好吃的感覺~   真幸福', 'snB': '17365606', 'time': '01-24 23:23', 'nick': '賴'}, 'next_snC': 0}}, {'postId': '20317160', 'userId': 'corm6y75354', 'userLv': '14', 'userGp': '23', 'usercareer': '武鬥家', 'userrace': '人類', 'userfloor': '2', 'postip': '114.27.232.xxx', 'postTime': '2013-09-01 22:43:07', 'getgp': '0', 'getbp': '0', 'content': '董 ', 'comments': {'next_snC': 0}}, {'postId': '20317479', 'userId': 'a507gary', 'userLv': '5', 'userGp': '0', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '3', 'postip': '123.192.0.xxx', 'postTime': '2013-09-01 23:04:03', 'getgp': '1', 'getbp': '0', 'content': '乾餓惹，我bmi都破30了還點近來 ', 'comments': {'0': {'bsn': '60076', 'sn': '668023', 'userid': 'istoo1028', 'comment': '破30要注意身體了ㄅ', 'gp': '0', 'bp': '0', 'wtime': '2013-09-01 23:35:50', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '破30要注意身體了ㄅ', 'snB': '20317479', 'time': '09-01 23:35', 'nick': '法洛娘娘'}, 'next_snC': 0}}, {'postId': '20317503', 'userId': 'Thedeity', 'userLv': '20', 'userGp': '298', 'usercareer': '商人', 'userrace': '人類', 'userfloor': '4', 'postip': '123.195.183.xxx', 'postTime': '2013-09-01 23:05:31', 'getgp': '0', 'getbp': '0', 'content': '量好少 ', 'comments': {'next_snC': 0}}, {'postId': '20317556', 'userId': 'leaf1121', 'userLv': '7', 'userGp': '1', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '5', 'postip': '27.242.16.xxx', 'postTime': '2013-09-01 23:07:57', 'getgp': '0', 'getbp': '0', 'content': '我剛吃晚完宵夜又餓了/\xa0\xa0\\ ', 'comments': {'next_snC': 0}}, {'postId': '22631911', 'userId': 'i689tw', 'userLv': '6', 'userGp': '70', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '118.168.96.xxx', 'postTime': '2014-03-27 23:47:03', 'getgp': '0', 'getbp': '0', 'content': '好ㄘ ', 'comments': {'next_snC': 0}}, {'postId': '24627462', 'userId': 'kkk41071', 'userLv': '14', 'userGp': '34', 'usercareer': '弓箭手', 'userrace': '妖精', 'userfloor': '7', 'postip': '1.168.34.xxx', 'postTime': '2014-08-07 00:43:16', 'getgp': '0', 'getbp': '0', 'content': '好ㄘ ', 'comments': {'next_snC': 0}}, {'postId': '26181852', 'userId': 'd2466', 'userLv': '14', 'userGp': '134', 'usercareer': '弓箭手', 'userrace': '妖精', 'userfloor': '8', 'postip': '140.127.41.xxx', 'postTime': '2014-11-03 13:21:54', 'getgp': '0', 'getbp': '0', 'content': '？ ', 'comments': {'next_snC': 0}}, {'postId': '26181998', 'userId': 'loveyou60162', 'userLv': '16', 'userGp': '94', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '9', 'postip': '112.105.52.xxx', 'postTime': '2014-11-03 13:39:43', 'getgp': '0', 'getbp': '0', 'content': '蝦子超大 ', 'comments': {'next_snC': 0}}, {'postId': '26182116', 'userId': 'supergg', 'userLv': '32', 'userGp': '1187', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '10', 'postip': '1.160.45.xxx', 'postTime': '2014-11-03 13:51:22', 'getgp': '0', 'getbp': '0', 'content': '麵粉是精緻類食品同樣的份量比顆粒的米飯熱量高出3倍最近去掛腸胃科醫師叫我要少吃一點麵類食品才能讓長出的肚子跟稍微的脂肪肝變小勾芡類和油炸類也要忌口所以引不起我的食慾 ', 'comments': {'next_snC': 0}}, {'postId': '26182153', 'userId': 'lovepurin221', 'userLv': '13', 'userGp': '57', 'usercareer': '武鬥家', 'userrace': '妖精', 'userfloor': '11', 'postip': '120.124.84.xxx', 'postTime': '2014-11-03 13:54:42', 'getgp': '0', 'getbp': '0', 'content': '看起來好像很好吃喔 ', 'comments': {'next_snC': 0}}, {'postId': '26182358', 'userId': 'aaa81810', 'userLv': '32', 'userGp': '818', 'usercareer': '盜賊', 'userrace': '矮人', 'userfloor': '12', 'postip': '49.214.38.xxx', 'postTime': '2014-11-03 14:16:19', 'getgp': '0', 'getbp': '0', 'content': '卡位 ', 'comments': {'next_snC': 0}}, {'postId': '26182456', 'userId': 'akqaz63', 'userLv': '19', 'userGp': '964', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '13', 'postip': '27.246.146.xxx', 'postTime': '2014-11-03 14:28:29', 'getgp': '0', 'getbp': '0', 'content': '可惡\xa0\xa0我餓餓了 ', 'comments': {'next_snC': 0}}, {'postId': '30988545', 'userId': 'q25098250', 'userLv': '12', 'userGp': '539', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '14', 'postip': '111.185.181.xxx', 'postTime': '2015-08-19 08:53:46', 'getgp': '0', 'getbp': '0', 'content': '餓了 ', 'comments': {'0': {'bsn': '60076', 'sn': '1184750', 'userid': 'loveuu114', 'comment': '推屁', 'gp': '0', 'bp': '0', 'wtime': '2015-08-19 09:26:11', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '推屁', 'snB': '30988545', 'time': '08-19 09:26', 'nick': '小昱'}, 'next_snC': 0}}, {'postId': '30995207', 'userId': 'ji3g4tp687', 'userLv': '33', 'userGp': '618', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '15', 'postip': '36.239.4.xxx', 'postTime': '2015-08-19 16:11:29', 'getgp': '0', 'getbp': '0', 'content': '可以不要洋蔥蒜頭嗎', 'comments': {'next_snC': 0}}, {'postId': '31018601', 'userId': 'qazc3829', 'userLv': '10', 'userGp': '20', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '16', 'postip': '1.164.254.xxx', 'postTime': '2015-08-20 16:37:02', 'getgp': '0', 'getbp': '0', 'content': '... ', 'comments': {'next_snC': 0}}, {'postId': '31028184', 'userId': 'asdfg1868', 'userLv': '10', 'userGp': '285', 'usercareer': '商人', 'userrace': '妖精', 'userfloor': '17', 'postip': '223.142.59.xxx', 'postTime': '2015-08-20 23:47:32', 'getgp': '0', 'getbp': '0', 'content': '餓 ', 'comments': {'next_snC': 0}}, {'postId': '31050182', 'userId': 'wu20010213', 'userLv': '12', 'userGp': '55', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '18', 'postip': '49.214.43.xxx', 'postTime': '2015-08-21 22:32:42', 'getgp': '0', 'getbp': '0', 'content': '怒推 ', 'comments': {'next_snC': 0}}, {'postId': '32280654', 'userId': 'leo220544', 'userLv': '27', 'userGp': '288', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '19', 'postip': '111.251.208.xxx', 'postTime': '2015-10-23 01:27:31', 'getgp': '0', 'getbp': '0', 'content': '想ㄘ', 'comments': {'next_snC': 0}}, {'postId': '32280802', 'userId': 'vast30002', 'userLv': '9', 'userGp': '49', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '20', 'postip': '1.171.193.xxx', 'postTime': '2015-10-23 01:42:53', 'getgp': '1', 'getbp': '0', 'content': '馬的 不能只有我餓到', 'comments': {'0': {'bsn': '60076', 'sn': '1243530', 'userid': 'karta544142', 'comment': '幹就是你.......害我也好餓', 'gp': '0', 'bp': '0', 'wtime': '2015-10-23 01:49:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹就是你.......害我也好餓', 'snB': '32280802', 'time': '10-23 01:49', 'nick': '憤怒毛毛蟲'}, 'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1166,10 +1144,8 @@
           <t>今天是暑假的第一天~ 跑去買了新的泳裝(開心~ 然後就在亂翻網路上的食譜 想說下午吃個點心好了~就決定要做這個哩~ 下面是材料介紹~(*ﾟ∇ﾟ) 培根 ２條 蘑菇 ３－４個 蛋餅皮 ２…</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="G13" t="n">
+        <v>75</v>
       </c>
       <c r="H13" t="n">
         <v>33</v>
@@ -1197,7 +1173,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'postId': '54450604', 'userId': 'kiwi7777', 'userLv': '17', 'userGp': '172', 'usercareer': '弓箭手', 'userrace': '獸人', 'userfloor': '19', 'postip': '42.72.34.xxx', 'postTime': '2018-11-11 20:49:12', 'getgp': '0', 'getbp': '0', 'content': '..', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '12224567', 'userId': 'b23122998', 'userLv': '22', 'userGp': '3336', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '218.170.58.xxx', 'postTime': '2011-06-25 20:12:51', 'getgp': '75', 'getbp': '0', 'content': '\xa0今天是暑假的第一天~跑去買了新的泳裝(開心~\xa0然後就在亂翻網路上的食譜想說下午吃個點心好了~就決定要做這個哩~\xa0下面是材料介紹~(*ﾟ∇ﾟ)\xa0培根\u3000\u3000\u3000\u3000\u3000\u3000２條蘑菇\u3000\u3000\u3000\u3000\u3000\u3000３－４個蛋餅皮\u3000\u3000\u3000\u3000\u3000２片莫札瑞拉起司\u3000\u3000少許\xa0做法介紹～\xa0一開始當然是把東西都切成自己喜歡的大小\xa0然後熱鍋～先丟培根下去炒一下再丟蘑菇因為培根會出油所以不用放油如果鍋子不好怕黏鍋可以滴幾滴就好(*ﾟーﾟ)\xa0大約炒到摩菇開始出水就可以起鍋了這時後蘑菇會有種金黃金黃的顏色\xa0之後放一些在蛋餅皮中間上面灑上一小搓起司當然你喜歡吃多一點就可以放多一點不要太難包就行（ ﾟ∀ﾟ)ノ\xa0然後把它包成一包喜歡怎麼包隨便你(・ω・)不要破掉就可以了\xa0包好後在鍋子裡抹點油當然鍋子好的話不用油更健康ＯＷＯ我知道左邊的破了（艸）我太愛玩了一直玩它（//艸///）\xa0後面只要用小火煎到兩面呈現微焦的顏色就可以起鍋了\xa0完成圖：起司近照(｡◕∀◕｡)\xa0\xa0嗚嗚嗚～這次買的起司不太會牽絲下次要換一牌了有誰能推薦我哪一牌的莫札瑞拉會牽絲又好吃的～等我這包吃完就去買～\xa0好啦～入野牌文章，我們改天見\xa0揪咪，\u3000\u3000\u3000＞＿０\xa0\xa0話說現在的板規好像不能宣傳小屋了那我就把那段字拿掉了小版主辛苦了～❤\xa0我發的其他文章，想做菜的可以參考看看(。A。)つ入野減肥食譜!! 番茄燉雞肉～！ 補滿整天元氣!! 鮪魚活力丼～！你也可以輕鬆下廚!! 蝦仁米蛋起司餅～！ 用平底鍋做出馬鈴薯披薩～！ 簡單風茄汁鯖魚義大利麵～！ \xa0入野開始試著寫食記嚕，請大家多多澎場(。A。)つ入野晚餐食記，清水阿財米糕店 入野早餐食記，無名早餐店、蘇記大腸麵線 \xa0', 'comments': {'0': {'bsn': '60076', 'sn': '868480', 'userid': 'howard416', 'comment': '換帕瑪森有差嗎?', 'gp': '0', 'bp': '0', 'wtime': '2014-06-17 22:15:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '換帕瑪森有差嗎?', 'snB': '12224567', 'time': '06-17 22:15', 'nick': '哎呀 真不小心'}, '1': {'bsn': '60076', 'sn': '523294', 'userid': 'z26825487', 'comment': '簽名檔懷念...好GA', 'gp': '0', 'bp': '0', 'wtime': '2013-02-27 23:58:37', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '簽名檔懷念...好GA', 'snB': '12224567', 'time': '02-27 23:58', 'nick': '麥香魚堡好吃不服來辯'}, '2': {'bsn': '60076', 'sn': '522858', 'userid': 'msoz951753', 'comment': '看到肚子餓了...', 'gp': '0', 'bp': '0', 'wtime': '2013-02-27 14:56:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看到肚子餓了...', 'snB': '12224567', 'time': '02-27 14:56', 'nick': 'リンシャオ'}, '3': {'bsn': '60076', 'sn': '129810', 'userid': 'zxcv00963', 'comment': '好吃!', 'gp': '0', 'bp': '0', 'wtime': '2011-07-09 15:52:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好吃!', 'snB': '12224567', 'time': '07-09 15:52', 'nick': '登稜登稜登'}, '4': {'bsn': '60076', 'sn': '119740', 'userid': 'a660166', 'comment': '以前做過～可是好懶的把蛋餅皮退冰阿……', 'gp': '0', 'bp': '0', 'wtime': '2011-06-26 23:17:03', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '以前做過～可是好懶的把蛋餅皮退冰阿……', 'snB': '12224567', 'time': '06-26 23:17', 'nick': '無名'}, '5': {'bsn': '60076', 'sn': '119122', 'userid': 'herman1012', 'comment': '下午小心點XD', 'gp': '0', 'bp': '0', 'wtime': '2011-06-26 05:02:53', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '下午小心點XD', 'snB': '12224567', 'time': '06-26 05:02', 'nick': '麥克阿色'}, '6': {'bsn': '60076', 'sn': '118979', 'userid': 'Wolfdeath', 'comment': '嗚嗚嗚\u3000\u3000\u3000可以煮給我吃ㄇ？', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 22:35:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '嗚嗚嗚\u3000\u3000\u3000可以煮給我吃ㄇ？', 'snB': '12224567', 'time': '06-25 22:35', 'nick': '趴趴狼'}, '7': {'bsn': '60076', 'sn': '118938', 'userid': 'ws22861555', 'comment': '焦了', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 21:28:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '焦了', 'snB': '12224567', 'time': '06-25 21:28', 'nick': '墮天使_厭禁'}, '8': {'bsn': '60076', 'sn': '118937', 'userid': 'asd41400', 'comment': '惡靈古堡的USB電鋸隨身碟', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 21:27:05', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '惡靈古堡的USB電鋸隨身碟', 'snB': '12224567', 'time': '06-25 21:27', 'nick': '爽球'}, '9': {'bsn': '60076', 'sn': '118910', 'userid': 'b23122998', 'comment': '後面有起司的鹹味 培根也有調位過 蘑菇靠鮮味', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:30:23', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '後面有起司的鹹味 培根也有調位過 蘑菇靠鮮味', 'snB': '12224567', 'time': '06-25 20:30', 'nick': '賣肝with入野'}, '10': {'bsn': '60076', 'sn': '118905', 'userid': 'adpe8591', 'comment': '炒的時候不用調味嗎？', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:28:07', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '炒的時候不用調味嗎？', 'snB': '12224567', 'time': '06-25 20:28', 'nick': '羽化落楓燕雙飛'}, '11': {'bsn': '60076', 'sn': '118899', 'userid': 's106034', 'comment': '跑去買了新的泳裝(開心~  泳裝捏 要穿好的喔', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:19:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '跑去買了新的泳裝(開心~  泳裝捏 要穿好的喔', 'snB': '12224567', 'time': '06-25 20:19', 'nick': '對不起原諒我女王'}, '12': {'bsn': '60076', 'sn': '118898', 'userid': 'abc523692006', 'comment': '泳裝呢\u3000(喂', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:18:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '泳裝呢\u3000(喂', 'snB': '12224567', 'time': '06-25 20:18', 'nick': '今晚%秋琴'}, '13': {'bsn': '60076', 'sn': '118893', 'userid': 'b23122998', 'comment': '你才給我小心點(打', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:14:37', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你才給我小心點(打', 'snB': '12224567', 'time': '06-25 20:14', 'nick': '賣肝with入野'}, '14': {'bsn': '60076', 'sn': '118892', 'userid': 'windy1023', 'comment': '我看成下午小心點.....', 'gp': '0', 'bp': '0', 'wtime': '2011-06-25 20:13:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我看成下午小心點.....', 'snB': '12224567', 'time': '06-25 20:13', 'nick': '礦山大石頭'}, 'next_snC': 0}}, {'postId': '23715293', 'userId': 'i689tw', 'userLv': '8', 'userGp': '75', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '2', 'postip': '114.45.55.xxx', 'postTime': '2014-06-17 22:01:57', 'getgp': '0', 'getbp': '0', 'content': '提魔蘑菇包 ', 'comments': {'next_snC': 0}}, {'postId': '23715481', 'userId': 'ah851108', 'userLv': '9', 'userGp': '14', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '3', 'postip': '61.57.79.xxx', 'postTime': '2014-06-17 22:11:25', 'getgp': '0', 'getbp': '0', 'content': '培根起司燒餅 ', 'comments': {'next_snC': 0}}, {'postId': '23715539', 'userId': 'ji3g4tp687', 'userLv': '31', 'userGp': '555', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '4', 'postip': '220.142.146.xxx', 'postTime': '2014-06-17 22:14:09', 'getgp': '0', 'getbp': '0', 'content': '這道我喜歡剛好材料沒一樣是我厭惡的', 'comments': {'next_snC': 0}}, {'postId': '28625246', 'userId': 'ab91516', 'userLv': '25', 'userGp': '141', 'usercareer': '盜賊', 'userrace': '獸人', 'userfloor': '5', 'postip': '223.138.110.xxx', 'postTime': '2015-04-09 00:19:51', 'getgp': '0', 'getbp': '0', 'content': '起司讚la ', 'comments': {'next_snC': 0}}, {'postId': '28625262', 'userId': 'd70628', 'userLv': '19', 'userGp': '6', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '1.169.183.xxx', 'postTime': '2015-04-09 00:20:57', 'getgp': '0', 'getbp': '0', 'content': '入格牌！！大大你的美食攻略真的比寶拉還誘人 ', 'comments': {'next_snC': 0}}, {'postId': '28625267', 'userId': 'cutemeatball', 'userLv': '20', 'userGp': '315', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '7', 'postip': '220.134.57.xxx', 'postTime': '2015-04-09 00:21:24', 'getgp': '0', 'getbp': '0', 'content': '入炸牌 ', 'comments': {'next_snC': 0}}, {'postId': '28625274', 'userId': 'stu60514', 'userLv': '13', 'userGp': '198', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '8', 'postip': '27.246.180.xxx', 'postTime': '2015-04-09 00:22:01', 'getgp': '0', 'getbp': '0', 'content': '入彈牌 ', 'comments': {'next_snC': 0}}, {'postId': '29471944', 'userId': 'q2325025', 'userLv': '22', 'userGp': '1295', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '9', 'postip': '101.8.186.xxx', 'postTime': '2015-06-04 20:00:29', 'getgp': '0', 'getbp': '0', 'content': '入我牌希希我也要吃', 'comments': {'next_snC': 0}}, {'postId': '29472314', 'userId': 'love19970113', 'userLv': '6', 'userGp': '4', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '10', 'postip': '101.14.82.xxx', 'postTime': '2015-06-04 20:25:19', 'getgp': '0', 'getbp': '0', 'content': '入的牌改天做做看', 'comments': {'next_snC': 0}}, {'postId': '29477948', 'userId': 'ajing0000', 'userLv': '16', 'userGp': '1303', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '11', 'postip': '219.85.229.xxx', 'postTime': '2015-06-05 04:17:06', 'getgp': '0', 'getbp': '0', 'content': '我比較在意泳裝照... ', 'comments': {'next_snC': 0}}, {'postId': '31545431', 'userId': 'nhpss92113', 'userLv': '11', 'userGp': '7', 'usercareer': '武鬥家', 'userrace': '妖精', 'userfloor': '12', 'postip': '120.118.2.xxx', 'postTime': '2015-09-15 12:00:43', 'getgp': '0', 'getbp': '0', 'content': '好吃ㄝ ', 'comments': {'next_snC': 0}}, {'postId': '31910044', 'userId': 'a26220342', 'userLv': '16', 'userGp': '118', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '13', 'postip': '49.216.82.xxx', 'postTime': '2015-10-03 17:13:05', 'getgp': '0', 'getbp': '0', 'content': '餓 ', 'comments': {'next_snC': 0}}, {'postId': '32362057', 'userId': 'k1989923', 'userLv': '24', 'userGp': '222', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '14', 'postip': '111.251.162.xxx', 'postTime': '2015-10-27 15:42:46', 'getgp': '0', 'getbp': '0', 'content': '入愛牌Yee起來考古', 'comments': {'next_snC': 0}}, {'postId': '39621875', 'userId': 'ppp9', 'userLv': '24', 'userGp': '35', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '15', 'postip': '140.118.234.xxx', 'postTime': '2016-10-04 01:15:14', 'getgp': '0', 'getbp': '0', 'content': '起司', 'comments': {'next_snC': 0}}, {'postId': '43188696', 'userId': 'scarletcoco', 'userLv': '2', 'userGp': '7', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '16', 'postip': '180.217.170.xxx', 'postTime': '2017-04-26 12:19:52', 'getgp': '0', 'getbp': '0', 'content': '起司比起司氣死蛋糕', 'comments': {'next_snC': 0}}, {'postId': '48856881', 'userId': 'kyle911101', 'userLv': '11', 'userGp': '0', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '18', 'postip': '220.134.208.xxx', 'postTime': '2018-02-07 04:13:14', 'getgp': '0', 'getbp': '0', 'content': '凌晨挖 餓', 'comments': {'0': {'bsn': '60076', 'sn': '1897021', 'userid': 'transient1', 'comment': '我欣賞你。', 'gp': '0', 'bp': '0', 'wtime': '2018-02-07 04:18:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我欣賞你。', 'snB': '48856881', 'time': '02-07 04:18', 'nick': '三個月了'}, '1': {'bsn': '60076', 'sn': '1897020', 'userid': 'transient1', 'comment': '你很壞。', 'gp': '0', 'bp': '0', 'wtime': '2018-02-07 04:17:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你很壞。', 'snB': '48856881', 'time': '02-07 04:17', 'nick': '三個月了'}, 'next_snC': 0}}, {'postId': '54450604', 'userId': 'kiwi7777', 'userLv': '17', 'userGp': '172', 'usercareer': '弓箭手', 'userrace': '獸人', 'userfloor': '19', 'postip': '42.72.34.xxx', 'postTime': '2018-11-11 20:49:12', 'getgp': '0', 'getbp': '0', 'content': '..', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1230,10 +1206,8 @@
           <t>代po原主人權限不夠XDD 發完文之後 一切由原主人回應:) 哈囉大家好我是Fanny 不知道大家有沒有吃過7-11的香蒜培根義大利麵 （圖片取至7-11官網） 這次打算自己在家做看看，有沒有比…</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="G14" t="n">
+        <v>82</v>
       </c>
       <c r="H14" t="n">
         <v>30</v>
@@ -1261,7 +1235,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'postId': '52911449', 'userId': 'loveuu114', 'userLv': '16', 'userGp': '115', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '18', 'postip': '58.114.230.xxx', 'postTime': '2018-08-26 12:31:01', 'getgp': '1', 'getbp': '0', 'content': '幫推', 'comments': {'0': {'bsn': '60076', 'sn': '2080617', 'userid': 'Fannny1130', 'comment': '有推有讚(ゝ∀･)b', 'gp': '1', 'bp': '0', 'wtime': '2018-08-26 16:32:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '有推有讚(ゝ∀･)b', 'snB': '52911449', 'time': '08-26 16:32', 'nick': 'STG_Fanny'}, 'next_snC': 0}}</t>
+          <t>[{'postId': '52726124', 'userId': 'B73667366', 'userLv': '20', 'userGp': '69', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '118.165.57.xxx', 'postTime': '2018-08-17 18:33:20', 'getgp': '53', 'getbp': '0', 'content': '代po原主人權限不夠XDD發完文之後 一切由原主人回應:)哈囉大家好我是Fanny不知道大家有沒有吃過7-11的香蒜培根義大利麵（圖片取至7-11官網）這次打算自己在家做看看，有沒有比超商的更好吃今天要來做的料理是香蒜辣椒培根義大利麵❒ 材料：（3人份）義大利麵 300克大蒜 6瓣切末朝天椒 3根切碎(喜歡吃辣的人可以再加多一點)黑胡椒 適量鹽 適量煮麵水 適量❒ 做法：⑴ 將鍋子裝半鍋水，等水滾後加進兩三匙鹽，將麵整束放入鍋中央將手放開，讓麵呈放射狀，煮15分鐘⑵ 當麵在煮時，在平底鍋中倒入沙拉油，再倒入蒜末、辣椒、培根，用中小火慢慢炒出香味(˶‾᷄ ⁻̫ ‾᷅˵)⑶ 倒入煮麵水，轉成中火煮到滾後，加入鹽、黑胡椒調味⑷ 水滾後放入麵條，攪拌均勻，麵條吸收湯汁後，就可以上菜囉٩(๑ᵒ̴̶̷͈᷄ᗨᵒ̴̶̷͈᷅)و❒ 成品：最後附上詳細影片⁽⁽٩( ´͈ ᗨ `͈ )۶⁾⁾如果喜歡我的影片，記得按個喜歡或留言唷想持續看更多食譜的話，也歡迎訂閱我的頻道ゝ∀･)第一次發文，希望大家還喜歡❤➢ Facebook：https://goo.gl/bx59xb➢ Instagram：https://goo.gl/4WPYk1', 'comments': {'0': {'bsn': '60076', 'sn': '2112423', 'userid': 'love117644', 'comment': '看到義大利麵想到那張燒起來的圖==', 'gp': '1', 'bp': '0', 'wtime': '2018-09-05 12:25:20', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看到義大利麵想到那張燒起來的圖==', 'snB': '52726124', 'time': '09-05 12:25', 'nick': '莫尼卡肉肉'}, '1': {'bsn': '60076', 'sn': '2100438', 'userid': 'Fannny1130', 'comment': '[zntozteent:百香綠加椰果] 有空可以試試看喔~好吃又簡單(ﾉ&amp;gt;ω&amp;lt;)ﾉ', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:39:53', 'mtime': '2018-08-23 15:43:08', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[zntozteent:百香綠加椰果] 有空可以試試看喔~好吃又簡單(ﾉ&amp;gt;ω&amp;lt;)ﾉ', 'snB': '52726124', 'time': '08-23 15:39', 'nick': 'STG_Fanny'}, '2': {'bsn': '60076', 'sn': '2100436', 'userid': 'Fannny1130', 'comment': '[j27823116:Aniel] [astin001:乞求黑暗中的曙光] 真的要很久，都可以玩一場第五人格了( ˘･з･)', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:39:08', 'mtime': '2018-08-23 15:42:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[j27823116:Aniel] [astin001:乞求黑暗中的曙光] 真的要很久，都可以玩一場第五人格了( ˘･з･)', 'snB': '52726124', 'time': '08-23 15:39', 'nick': 'STG_Fanny'}, '3': {'bsn': '60076', 'sn': '2095808', 'userid': 'zntozteent', 'comment': '好想吃喔...', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 16:53:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好想吃喔...', 'snB': '52726124', 'time': '08-18 16:53', 'nick': '百香綠加椰果'}, '4': {'bsn': '60076', 'sn': '2095495', 'userid': 'astin001', 'comment': '[j27823116:Aniel]真的', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 09:56:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[j27823116:Aniel]真的', 'snB': '52726124', 'time': '08-18 09:56', 'nick': '乞求黑暗中的曙光'}, '5': {'bsn': '60076', 'sn': '2095375', 'userid': 'j27823116', 'comment': '義大利麵煮軟要好久Q', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:26:38', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '義大利麵煮軟要好久Q', 'snB': '52726124', 'time': '08-18 01:26', 'nick': 'Aniel'}, '6': {'bsn': '60076', 'sn': '2095368', 'userid': 'B73667366', 'comment': '[aston123:正在潛水中..請稍後]有空可以在家試試看，真的很簡單❤', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:07:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[aston123:正在潛水中..請稍後]有空可以在家試試看，真的很簡單❤', 'snB': '52726124', 'time': '08-18 01:07', 'nick': 'STG_熊老大'}, '7': {'bsn': '60076', 'sn': '2095046', 'userid': 'aston123', 'comment': '簡單 看起來好ㄘ。不過最大的問題是 我懶得煮好麻煩', 'gp': '2', 'bp': '0', 'wtime': '2018-08-17 18:35:22', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '簡單 看起來好ㄘ。不過最大的問題是 我懶得煮好麻煩', 'snB': '52726124', 'time': '08-17 18:35', 'nick': '逆流而上不淹死'}, 'next_snC': 0}}, {'postId': '52726180', 'userId': 'asd2315521', 'userLv': '32', 'userGp': '1668', 'usercareer': '僧侶', 'userrace': '人類', 'userfloor': '2', 'postip': '101.11.17.xxx', 'postTime': '2018-08-17 18:35:51', 'getgp': '2', 'getbp': '0', 'content': '看成香蕉', 'comments': {'0': {'bsn': '60076', 'sn': '2060807', 'userid': 'B73667366', 'comment': '香蕉義大利麵嗎哈哈哈', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:08:27', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '香蕉義大利麵嗎哈哈哈', 'snB': '52726180', 'time': '08-18 01:08', 'nick': 'STG_熊老大'}, 'next_snC': 0}}, {'postId': '52726317', 'userId': 'xo5566183', 'userLv': '38', 'userGp': '866', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '3', 'postip': '36.229.37.xxx', 'postTime': '2018-08-17 18:41:06', 'getgp': '2', 'getbp': '0', 'content': '這個看起來真的滿簡單的不過小7的義大利麵我比較愛冷凍的\xa0\xa0青醬那個', 'comments': {'0': {'bsn': '60076', 'sn': '2068213', 'userid': 'B73667366', 'comment': '下次我也來試試看青醬怎麼做(✪ω✪)', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:09:14', 'mtime': '2018-08-18 01:14:43', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '下次我也來試試看青醬怎麼做(✪ω✪)', 'snB': '52726317', 'time': '08-18 01:09', 'nick': 'STG_熊老大'}, 'next_snC': 0}}, {'postId': '52726632', 'userId': 'asd23693728', 'userLv': '19', 'userGp': '73', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '4', 'postip': '180.217.210.xxx', 'postTime': '2018-08-17 18:54:42', 'getgp': '3', 'getbp': '0', 'content': '怎麼沒有橄欖油= =', 'comments': {'0': {'bsn': '60076', 'sn': '2072668', 'userid': 'B73667366', 'comment': '因為主要是利用家裡現有的材料，這樣就不用為了做義大利麵，特地去買橄欖油(ゝ∀･)', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:11:42', 'mtime': '2018-08-18 01:15:12', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '因為主要是利用家裡現有的材料，這樣就不用為了做義大利麵，特地去買橄欖油(ゝ∀･)', 'snB': '52726632', 'time': '08-18 01:11', 'nick': 'STG_熊老大'}, 'next_snC': 0}}, {'postId': '52726739', 'userId': 'gash5355', 'userLv': '15', 'userGp': '7', 'usercareer': '初心者', 'userrace': '獸人', 'userfloor': '5', 'postip': '223.139.183.xxx', 'postTime': '2018-08-17 18:59:16', 'getgp': '2', 'getbp': '0', 'content': '沒奶油不行', 'comments': {'0': {'bsn': '60076', 'sn': '2077552', 'userid': 'B73667366', 'comment': '你也可以自己另外加奶油，會比較香⁽⁽٩( ´͈ ᗨ `͈ )۶⁾⁾', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 01:13:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你也可以自己另外加奶油，會比較香⁽⁽٩( ´͈ ᗨ `͈ )۶⁾⁾', 'snB': '52726739', 'time': '08-18 01:13', 'nick': 'STG_熊老大'}, 'next_snC': 0}}, {'postId': '52738008', 'userId': 'we1996tw', 'userLv': '24', 'userGp': '152', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '123.204.199.xxx', 'postTime': '2018-08-18 09:12:04', 'getgp': '1', 'getbp': '0', 'content': '我上次煮培根奶油義大利麵結果成品超像乾麵.....請問鮮奶油是不是要加很多R?', 'comments': {'0': {'bsn': '60076', 'sn': '2075051', 'userid': 'alex3256874', 'comment': '義大利當地做法是不會放鮮奶油，而是靠乳化的橄欖油、奶油跟蛋液達到那種效果', 'gp': '1', 'bp': '0', 'wtime': '2018-08-23 19:48:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '義大利當地做法是不會放鮮奶油，而是靠乳化的橄欖油、奶油跟蛋液達到那種效果', 'snB': '52738008', 'time': '08-23 19:48', 'nick': '離職隊少尉'}, '1': {'bsn': '60076', 'sn': '2074753', 'userid': 'Fannny1130', 'comment': '[ggkk1122:玩具箱][we1996tw:腦皮虎]我是沒有加鮮奶油啦，我測試完，下次弄個教學(♡˙︶˙♡)', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 14:13:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[ggkk1122:玩具箱][we1996tw:腦皮虎]我是沒有加鮮奶油啦，我測試完，下次弄個教學(♡˙︶˙♡)', 'snB': '52738008', 'time': '08-23 14:13', 'nick': 'STG_Fanny'}, '2': {'bsn': '60076', 'sn': '2070655', 'userid': 'we1996tw', 'comment': '但我不想變乾麵', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 21:14:42', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '但我不想變乾麵', 'snB': '52738008', 'time': '08-18 21:14', 'nick': '皮虎僧-清廉法師'}, '3': {'bsn': '60076', 'sn': '2070639', 'userid': 'ggkk1122', 'comment': '就是加多才會變乾麵', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 20:51:19', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '就是加多才會變乾麵', 'snB': '52738008', 'time': '08-18 20:51', 'nick': '玩具箱'}, 'next_snC': 0}}, {'postId': '52738091', 'userId': 'avul31l4', 'userLv': '25', 'userGp': '85', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '7', 'postip': '115.82.178.xxx', 'postTime': '2018-08-18 09:20:07', 'getgp': '1', 'getbp': '0', 'content': '如果想要白醬風味要什麼時候+白醬 ----對惹辣椒味會重ㄇ晚上試試看', 'comments': {'0': {'bsn': '60076', 'sn': '2073432', 'userid': 'Fannny1130', 'comment': '[avul31l4:煎鮭魚♥][we1996tw:腦皮虎]ヾ(●゜▽゜●)♡', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:30:10', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[avul31l4:煎鮭魚♥][we1996tw:腦皮虎]ヾ(●゜▽゜●)♡', 'snB': '52738091', 'time': '08-23 15:30', 'nick': 'STG_Fanny'}, '1': {'bsn': '60076', 'sn': '2068968', 'userid': 'we1996tw', 'comment': '我自己是這樣', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 11:25:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我自己是這樣', 'snB': '52738091', 'time': '08-18 11:25', 'nick': '皮虎僧-清廉法師'}, '2': {'bsn': '60076', 'sn': '2068967', 'userid': 'we1996tw', 'comment': '把備料都煮熟之後，最後在把麵條加進去，一起煮個幾秒之後白醬就可以下了', 'gp': '1', 'bp': '0', 'wtime': '2018-08-18 11:25:15', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '把備料都煮熟之後，最後在把麵條加進去，一起煮個幾秒之後白醬就可以下了', 'snB': '52738091', 'time': '08-18 11:25', 'nick': '皮虎僧-清廉法師'}, 'next_snC': 0}}, {'postId': '52738476', 'userId': 'Wuchiu2112', 'userLv': '13', 'userGp': '36', 'usercareer': '商人', 'userrace': '人類', 'userfloor': '8', 'postip': '117.19.4.xxx', 'postTime': '2018-08-18 09:53:20', 'getgp': '1', 'getbp': '0', 'content': '看起來很好ㄘ', 'comments': {'0': {'bsn': '60076', 'sn': '2070046', 'userid': 'Fannny1130', 'comment': '[Wuchiu2112:城牆的另一頭]有空要試試看喔(๑•̀ㅂ•́)و✧', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:30:31', 'mtime': '2018-08-23 15:43:30', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[Wuchiu2112:城牆的另一頭]有空要試試看喔(๑•̀ㅂ•́)و✧', 'snB': '52738476', 'time': '08-23 15:30', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52744707', 'userId': 'robert6308', 'userLv': '19', 'userGp': '45', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '9', 'postip': '114.136.233.xxx', 'postTime': '2018-08-18 16:43:30', 'getgp': '1', 'getbp': '0', 'content': '桐人都ㄘ這個', 'comments': {'0': {'bsn': '60076', 'sn': '2089782', 'userid': 'Fannny1130', 'comment': '[robert6308:叉叉]幫我撐10秒，麵快煮好了٩(๑•̀ω•́๑)۶', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:34:39', 'mtime': '2018-08-23 15:50:14', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[robert6308:叉叉]幫我撐10秒，麵快煮好了٩(๑•̀ω•́๑)۶', 'snB': '52744707', 'time': '08-23 15:34', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52748557', 'userId': 'sd312', 'userLv': '24', 'userGp': '523', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '10', 'postip': '114.40.200.xxx', 'postTime': '2018-08-18 20:13:28', 'getgp': '1', 'getbp': '0', 'content': '你是女生嗎!可以做我女朋友嗎!', 'comments': {'0': {'bsn': '60076', 'sn': '2060551', 'userid': 'Fannny1130', 'comment': '(´⊙ω⊙`)', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:35:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '(´⊙ω⊙`)', 'snB': '52748557', 'time': '08-23 15:35', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52748621', 'userId': 'f32472165', 'userLv': '17', 'userGp': '80', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '11', 'postip': '111.83.156.xxx', 'postTime': '2018-08-18 20:16:47', 'getgp': '1', 'getbp': '0', 'content': '推個', 'comments': {'0': {'bsn': '60076', 'sn': '2152988', 'userid': 'Fannny1130', 'comment': '[f32472165:七樓]有推有讚(ゝ∀･)b', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:36:05', 'mtime': '2018-08-23 16:01:02', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[f32472165:七樓]有推有讚(ゝ∀･)b', 'snB': '52748621', 'time': '08-23 15:36', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52751601', 'userId': 'B73667366', 'userLv': '20', 'userGp': '69', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '12', 'postip': '118.165.57.xxx', 'postTime': '2018-08-18 22:44:36', 'getgp': '2', 'getbp': '0', 'content': '謝謝大家留言Fanny的帳號要到23號才滿三個月到時候她再回來回覆大家', 'comments': {'next_snC': 0}}, {'postId': '52848118', 'userId': 'Fannny1130', 'userLv': '1', 'userGp': '0', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '13', 'postip': '118.166.122.xxx', 'postTime': '2018-08-23 15:37:03', 'getgp': '2', 'getbp': '0', 'content': '謝謝大家 我終於可以發言了⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾', 'comments': {'0': {'bsn': '60076', 'sn': '2066371', 'userid': 'a47872615aa', 'comment': '⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾', 'gp': '1', 'bp': '0', 'wtime': '2018-08-23 22:49:15', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾⁽⁽٩(๑˃̶͈̀ ᗨ ˂̶͈́)۶⁾⁾', 'snB': '52848118', 'time': '08-23 22:49', 'nick': '勇造是西行寺幽幽子'}, 'next_snC': 0}}, {'postId': '52848174', 'userId': 'qgpjvyytt', 'userLv': '42', 'userGp': '3270', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '14', 'postip': '36.229.47.xxx', 'postTime': '2018-08-23 15:40:27', 'getgp': '1', 'getbp': '0', 'content': '可以當我女朋友嗎', 'comments': {'0': {'bsn': '60076', 'sn': '2066980', 'userid': 'Fannny1130', 'comment': '[qgpjvyytt:亞拉岡]可以一起玩啊─=≡Σ((( つ•̀ω•́)つ', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 16:08:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[qgpjvyytt:亞拉岡]可以一起玩啊─=≡Σ((( つ•̀ω•́)つ', 'snB': '52848174', 'time': '08-23 16:08', 'nick': 'STG_Fanny'}, '1': {'bsn': '60076', 'sn': '2066972', 'userid': 'qgpjvyytt', 'comment': '[Fannny1130:STG_Fanny]我有玩第五人格喔，是不是很吸引人', 'gp': '1', 'bp': '0', 'wtime': '2018-08-23 16:02:31', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '[Fannny1130:STG_Fanny]我有玩第五人格喔，是不是很吸引人', 'snB': '52848174', 'time': '08-23 16:02', 'nick': '亞拉岡'}, '2': {'bsn': '60076', 'sn': '2066964', 'userid': 'Fannny1130', 'comment': '麻煩先生請排隊領號碼牌ヽ(́◕◞౪◟◕‵)ﾉ', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 15:51:08', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '麻煩先生請排隊領號碼牌ヽ(́◕◞౪◟◕‵)ﾉ', 'snB': '52848174', 'time': '08-23 15:51', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52854247', 'userId': 'john5566529', 'userLv': '17', 'userGp': '56', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '15', 'postip': '42.76.251.xxx', 'postTime': '2018-08-23 20:01:35', 'getgp': '1', 'getbp': '0', 'content': '如果不喜歡吃辣辣椒可以別放嗎?還是有什麼可以代替嗎?', 'comments': {'0': {'bsn': '60076', 'sn': '2080371', 'userid': 'john5566529', 'comment': '好喔', 'gp': '1', 'bp': '0', 'wtime': '2018-08-23 22:35:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好喔', 'snB': '52854247', 'time': '08-23 22:35', 'nick': '無名君'}, '1': {'bsn': '60076', 'sn': '2080370', 'userid': 'Fannny1130', 'comment': '完全不加應該也可以，可能黑胡椒再放多一點點(*´∀`)~♥', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 22:34:33', 'mtime': '2018-08-23 22:34:55', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '完全不加應該也可以，可能黑胡椒再放多一點點(*´∀`)~♥', 'snB': '52854247', 'time': '08-23 22:34', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52854295', 'userId': 'op6206', 'userLv': '18', 'userGp': '49', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '16', 'postip': '106.1.147.xxx', 'postTime': '2018-08-23 20:03:58', 'getgp': '1', 'getbp': '0', 'content': '感覺頻道會有一堆做食物的影片，訂閱', 'comments': {'0': {'bsn': '60076', 'sn': '2072466', 'userid': 'Fannny1130', 'comment': '感謝訂閱，我會繼續努力做更多好吃的ε٩(๑&amp;gt; ₃ &amp;lt;)۶з', 'gp': '0', 'bp': '0', 'wtime': '2018-08-23 22:35:45', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '感謝訂閱，我會繼續努力做更多好吃的ε٩(๑&amp;gt; ₃ &amp;lt;)۶з', 'snB': '52854295', 'time': '08-23 22:35', 'nick': 'STG_Fanny'}, 'next_snC': 0}}, {'postId': '52911449', 'userId': 'loveuu114', 'userLv': '16', 'userGp': '115', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '18', 'postip': '58.114.230.xxx', 'postTime': '2018-08-26 12:31:01', 'getgp': '1', 'getbp': '0', 'content': '幫推', 'comments': {'0': {'bsn': '60076', 'sn': '2080617', 'userid': 'Fannny1130', 'comment': '有推有讚(ゝ∀･)b', 'gp': '1', 'bp': '0', 'wtime': '2018-08-26 16:32:14', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '有推有讚(ゝ∀･)b', 'snB': '52911449', 'time': '08-26 16:32', 'nick': 'STG_Fanny'}, 'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1294,10 +1268,8 @@
           <t>今天家裡剩沒多少材料了 所以只打算隨便煮一煮 （ˊー`) 翻一翻冰箱有昨天剩下的一些材料，就打算做這道了 材料介紹 鮪魚罐頭 １個 洋蔥 半個 奶油 ２０ｇ 培根 約一條 白飯 ２－…</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="G15" t="n">
+        <v>210</v>
       </c>
       <c r="H15" t="n">
         <v>70</v>
@@ -1325,7 +1297,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'postId': '48912418', 'userId': 'cavalier116', 'userLv': '25', 'userGp': '1293', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '20', 'postip': '14.198.97.xxx', 'postTime': '2018-02-10 02:48:43', 'getgp': '0', 'getbp': '0', 'content': '..', 'comments': {'0': {'bsn': '60076', 'sn': '1906710', 'userid': 'transient1', 'comment': '。。', 'gp': '0', 'bp': '0', 'wtime': '2018-02-10 03:01:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '。。', 'snB': '48912418', 'time': '02-10 03:01', 'nick': '三個月了'}, 'next_snC': 0}}</t>
+          <t>[{'postId': '12572423', 'userId': 'b23122998', 'userLv': '23', 'userGp': '4589', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '218.170.48.xxx', 'postTime': '2011-07-25 18:36:45', 'getgp': '209', 'getbp': '0', 'content': '\xa0今天家裡剩沒多少材料了\xa0所以只打算隨便煮一煮\u3000（ˊー`)\xa0翻一翻冰箱有昨天剩下的一些材料，就打算做這道了\xa0材料介紹\xa0鮪魚罐頭\u3000\u3000\u3000１個洋蔥\u3000\u3000\u3000\u3000\u3000半個奶油\u3000\u3000\u3000\u3000\u3000２０ｇ培根\u3000\u3000\u3000\u3000\u3000約一條白飯\u3000\u3000\u3000\u3000\u3000２－３小碗雞蛋\u3000\u3000\u3000\u3000\u3000３個起司\u3000\u3000\u3000\u3000\u3000２０－３０ｇ鹽、胡椒粉\u3000\u3000少許麥當勞Ａ來的番茄醬四包\xa0製作過程\xa0洋蔥培根切末，平底鍋遇熱丟奶油然後丟進去用中火炒到洋蔥發出香味\xa0然後把白飯跟鮪魚罐頭丟進去炒把飯炒開後即可\xa0最後加入番茄醬、胡椒、鹽之後翻炒一下之後就可以裝盤了\xa0最後放到盤子上整一下形狀\xa0\xa0然後平底鍋中火丟奶油，把起司粉跟雞蛋攪拌均勻後倒進去用木匙從旁邊輕輕刮進去，整成一個蛋包狀後關火翻面起鍋最後放到炒飯上就完成了\xa0\xa0完成圖很高興的吃了幾口才想道要拍照ＸＤ\xa0順便給個近照吧\xa0我承認我不敢吃太生的ＸＤ.......\xa0這次番茄醬放太少\xa0恩，下次要多A幾包(茶\xa0\xa0好勒，其實我有拍全圖\xa0星形的可愛蛋包\xa0怎麼可能不拍勒~\xa0\xa0好了，這幾天要去看電影應該比較少發文\xa0入野牌美食文\xa0我們改天見唷～\xa0( ﾟДﾟ)&lt;料理戦略ぅーーー！\xa0阿不對\xa0( ﾟДﾟ)&lt;生存戦略ぅーーー！\xa0 我發的其他文章，想做菜的可以參考看看(。A。)つ入野特製!! 奶油培根鮪魚義大利麵～！ 鹹香下飯!! 台式醃蜆仔～！ 濃郁滑順簡單做!! 奶汁雞肉蘑菇燉飯～！ 聚會宴客超簡單!! 焗烤奶汁馬鈴薯泥～！ 配飯下酒!! 辣炒味噌時蔬雞丁～！    入野開始試著寫食記嚕，請大家多多澎場(。A。)つ入野早餐食記，無名手工包子店 入野晚餐食記，美村路向上水餃 \u3000New~!!入野早餐食記，"台北"中式早餐店  入野早餐食記，無名早餐店、蘇記大腸麵線入野老街食記，Windmill Plaza-淡水風車廣場 \xa0\xa0', 'comments': {'0': {'bsn': '60076', 'sn': '2072916', 'userid': 'st6969469', 'comment': '餓...', 'gp': '0', 'bp': '0', 'wtime': '2018-08-07 00:43:03', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓...', 'snB': '12572423', 'time': '08-07 00:43', 'nick': '天真一去不復返'}, '1': {'bsn': '60076', 'sn': '1947585', 'userid': 'iMsADOuO', 'comment': '卡', 'gp': '0', 'bp': '0', 'wtime': '2018-03-14 00:13:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '卡', 'snB': '12572423', 'time': '03-14 00:13', 'nick': '默默(´◉㉨◉)'}, '2': {'bsn': '60076', 'sn': '1947584', 'userid': 'iMsADOuO', 'comment': '卡', 'gp': '0', 'bp': '0', 'wtime': '2018-03-14 00:13:50', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '卡', 'snB': '12572423', 'time': '03-14 00:13', 'nick': '默默(´◉㉨◉)'}, '3': {'bsn': '60076', 'sn': '1884446', 'userid': 'jk12123456', 'comment': '卡', 'gp': '0', 'bp': '0', 'wtime': '2017-12-26 01:18:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '卡', 'snB': '12572423', 'time': '12-26 01:18', 'nick': '虎千代'}, '4': {'bsn': '60076', 'sn': '1678485', 'userid': 'hao123freddy', 'comment': '卡', 'gp': '0', 'bp': '0', 'wtime': '2017-04-12 17:06:41', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '卡', 'snB': '12572423', 'time': '04-12 17:06', 'nick': '羊頭'}, '5': {'bsn': '60076', 'sn': '1446573', 'userid': 'd26749', 'comment': '入格牌', 'gp': '0', 'bp': '0', 'wtime': '2016-06-25 03:34:25', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '入格牌', 'snB': '12572423', 'time': '06-25 03:34', 'nick': '葡萄乃'}, '6': {'bsn': '60076', 'sn': '1446279', 'userid': 'detonator', 'comment': '夏天太熱吃不下燙的食物...', 'gp': '0', 'bp': '0', 'wtime': '2016-06-24 22:28:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '夏天太熱吃不下燙的食物...', 'snB': '12572423', 'time': '06-24 22:28', 'nick': '自由鋼彈'}, '7': {'bsn': '60076', 'sn': '1446179', 'userid': 'ez40605', 'comment': '這不是蛋包飯 是蛋蓋飯  ( ﾟДﾟ)&amp;lt;生存戦略ぅーーー！', 'gp': '0', 'bp': '0', 'wtime': '2016-06-24 20:38:09', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這不是蛋包飯 是蛋蓋飯  ( ﾟДﾟ)&amp;lt;生存戦略ぅーーー！', 'snB': '12572423', 'time': '06-24 20:38', 'nick': '偶大廚&amp;amp;BGD廚'}, '8': {'bsn': '60076', 'sn': '987531', 'userid': 'as742835691', 'comment': '我聽說一人一天一顆蛋剛好 一次吃三顆膽固醇會過高吧', 'gp': '0', 'bp': '0', 'wtime': '2014-11-29 03:04:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我聽說一人一天一顆蛋剛好 一次吃三顆膽固醇會過高吧', 'snB': '12572423', 'time': '11-29 03:04', 'nick': 'ミドリのヨル'}, '9': {'bsn': '60076', 'sn': '653194', 'userid': 'zxcv0225j', 'comment': '請給我機會', 'gp': '0', 'bp': '0', 'wtime': '2013-08-19 12:39:10', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '請給我機會', 'snB': '12572423', 'time': '08-19 12:39', 'nick': '矮人王'}, '10': {'bsn': '60076', 'sn': '579086', 'userid': 'z19930708sp', 'comment': '可口~', 'gp': '0', 'bp': '0', 'wtime': '2013-05-19 19:45:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可口~', 'snB': '12572423', 'time': '05-19 19:45', 'nick': '小鬼'}, '11': {'bsn': '60076', 'sn': '437563', 'userid': 'wuken0325', 'comment': '請和我結婚', 'gp': '0', 'bp': '0', 'wtime': '2012-10-22 18:29:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '請和我結婚', 'snB': '12572423', 'time': '10-22 18:29', 'nick': '呆皮的同學'}, '12': {'bsn': '60076', 'sn': '437399', 'userid': 'qwe32781', 'comment': '肚子好餓', 'gp': '0', 'bp': '0', 'wtime': '2012-10-22 11:19:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '肚子好餓', 'snB': '12572423', 'time': '10-22 11:19', 'nick': '紙假面'}, '13': {'bsn': '60076', 'sn': '432131', 'userid': 'pepper12307', 'comment': '不知道怎麼的 傳來一陣食物香味 可能這個時候隔壁煮菜吧...', 'gp': '0', 'bp': '0', 'wtime': '2012-10-13 17:41:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '不知道怎麼的 傳來一陣食物香味 可能這個時候隔壁煮菜吧...', 'snB': '12572423', 'time': '10-13 17:41', 'nick': 'Pepper'}, '14': {'bsn': '60076', 'sn': '365094', 'userid': 'AIDS6119', 'comment': '請和我交往', 'gp': '0', 'bp': '0', 'wtime': '2012-07-17 21:25:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '請和我交往', 'snB': '12572423', 'time': '07-17 21:25', 'nick': '西米鹿'}, '15': {'bsn': '60076', 'sn': '273957', 'userid': 'franges47', 'comment': '哪個考古學家挖上來的古文?', 'gp': '0', 'bp': '0', 'wtime': '2012-02-29 01:14:35', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個考古學家挖上來的古文?', 'snB': '12572423', 'time': '02-29 01:14', 'nick': '公威阿Ⓐ告'}, '16': {'bsn': '60076', 'sn': '273591', 'userid': 'ZXM40100', 'comment': '這篇多久了 (茶', 'gp': '0', 'bp': '0', 'wtime': '2012-02-28 16:01:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這篇多久了 (茶', 'snB': '12572423', 'time': '02-28 16:01', 'nick': '°‧Yuan〃'}, '17': {'bsn': '60076', 'sn': '273588', 'userid': 'a7823937', 'comment': '哪個考古學家挖上來的古文?', 'gp': '0', 'bp': '0', 'wtime': '2012-02-28 15:56:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '哪個考古學家挖上來的古文?', 'snB': '12572423', 'time': '02-28 15:56', 'nick': '嘗莖鹿'}, '18': {'bsn': '60076', 'sn': '273582', 'userid': 'a199234', 'comment': '超讚的', 'gp': '0', 'bp': '0', 'wtime': '2012-02-28 15:49:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '超讚的', 'snB': '12572423', 'time': '02-28 15:49', 'nick': '獅子頭'}, '19': {'bsn': '60076', 'sn': '216421', 'userid': 'as25136595', 'comment': '可以做給我吃嗎....', 'gp': '0', 'bp': '0', 'wtime': '2011-11-15 22:15:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可以做給我吃嗎....', 'snB': '12572423', 'time': '11-15 22:15', 'nick': '蘋果暗殺者'}, '20': {'bsn': '60076', 'sn': '142974', 'userid': 'paulgenius', 'comment': '餓了', 'gp': '0', 'bp': '0', 'wtime': '2011-07-26 22:55:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓了', 'snB': '12572423', 'time': '07-26 22:55', 'nick': '你只是個好人'}, '21': {'bsn': '60076', 'sn': '142654', 'userid': 'ohyababyfish', 'comment': '切丁吧 跟末差好多的QQ', 'gp': '0', 'bp': '0', 'wtime': '2011-07-26 16:59:45', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '切丁吧 跟末差好多的QQ', 'snB': '12572423', 'time': '07-26 16:59', 'nick': '腿毛女'}, '22': {'bsn': '60076', 'sn': '142642', 'userid': 'aluto0715', 'comment': '大姐弄給我吃啦', 'gp': '0', 'bp': '0', 'wtime': '2011-07-26 16:33:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '大姐弄給我吃啦', 'snB': '12572423', 'time': '07-26 16:33', 'nick': 'Valuto'}, '23': {'bsn': '60076', 'sn': '142247', 'userid': 'abcd021343', 'comment': '生存戦略ぅーーー！', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 23:01:33', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '生存戦略ぅーーー！', 'snB': '12572423', 'time': '07-25 23:01', 'nick': '加藤恵'}, '24': {'bsn': '60076', 'sn': '142095', 'userid': 'taurus111', 'comment': '賣噹噹番茄醬做炒飯味道很棒啊  我都會多拿   可是有些竟然要收我錢ˊˋ', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 20:05:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '賣噹噹番茄醬做炒飯味道很棒啊  我都會多拿   可是有些竟然要收我錢ˊˋ', 'snB': '12572423', 'time': '07-25 20:05', 'nick': '純情豆花控'}, '25': {'bsn': '60076', 'sn': '142008', 'userid': 'jaonro', 'comment': '麥當當番茄醬超酸的...還是可果美的好吃～～～', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 19:06:49', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '麥當當番茄醬超酸的...還是可果美的好吃～～～', 'snB': '12572423', 'time': '07-25 19:06', 'nick': '最高跋扈'}, '26': {'bsn': '60076', 'sn': '141982', 'userid': 'asakick', 'comment': '蛋蓋飯還是蛋包飯', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:44:53', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '蛋蓋飯還是蛋包飯', 'snB': '12572423', 'time': '07-25 18:44', 'nick': '安安你好'}, '27': {'bsn': '60076', 'sn': '141981', 'userid': 'ss22265939', 'comment': '想吃卻吃不到阿~~~~~~~~~~~~~~~~~~~~~~~~~~', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:43:42', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '想吃卻吃不到阿~~~~~~~~~~~~~~~~~~~~~~~~~~', 'snB': '12572423', 'time': '07-25 18:43', 'nick': '大杯可樂 ◔ ౪◔'}, '28': {'bsn': '60076', 'sn': '141978', 'userid': 'b23122998', 'comment': '蛋包有兩種 一種是&amp;quot;蛋包&amp;quot;飯 另一種是蛋&amp;quot;包飯&amp;quot;', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:42:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '蛋包有兩種 一種是&amp;quot;蛋包&amp;quot;飯 另一種是蛋&amp;quot;包飯&amp;quot;', 'snB': '12572423', 'time': '07-25 18:42', 'nick': '賣肝with入野'}, '29': {'bsn': '60076', 'sn': '141975', 'userid': 'skylinggod', 'comment': '自己弄過幾次 真的很難弄', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:39:18', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '自己弄過幾次 真的很難弄', 'snB': '12572423', 'time': '07-25 18:39', 'nick': '鳳凰艾焰'}, '30': {'bsn': '60076', 'sn': '141974', 'userid': 'skylinggod', 'comment': '最想學的蛋包部分 竟然是用蓋的 ...囧', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:39:07', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '最想學的蛋包部分 竟然是用蓋的 ...囧', 'snB': '12572423', 'time': '07-25 18:39', 'nick': '鳳凰艾焰'}, '31': {'bsn': '60076', 'sn': '141972', 'userid': 'show90501', 'comment': '我餓了...', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:38:30', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我餓了...', 'snB': '12572423', 'time': '07-25 18:38', 'nick': 'Wen'}, '32': {'bsn': '60076', 'sn': '141971', 'userid': 'ya200244', 'comment': '餓了&amp;gt;&amp;lt;', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 18:38:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓了&amp;gt;&amp;lt;', 'snB': '12572423', 'time': '07-25 18:38', 'nick': '殺人貓'}, 'next_snC': 0}}, {'postId': '24001977', 'userId': 'sun4148', 'userLv': '30', 'userGp': '1496', 'usercareer': '武鬥家', 'userrace': '矮人', 'userfloor': '2', 'postip': '114.38.152.xxx', 'postTime': '2014-07-04 19:48:13', 'getgp': '0', 'getbp': '0', 'content': '去7-11 A醬料比較方便 ', 'comments': {'next_snC': 0}}, {'postId': '24006287', 'userId': 'nam1210', 'userLv': '8', 'userGp': '321', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '3', 'postip': '61.10.50.xxx', 'postTime': '2014-07-04 23:32:40', 'getgp': '0', 'getbp': '0', 'content': '入格牌 ', 'comments': {'next_snC': 0}}, {'postId': '24006371', 'userId': 'borihg777', 'userLv': '17', 'userGp': '39', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '4', 'postip': '118.169.58.xxx', 'postTime': '2014-07-04 23:37:01', 'getgp': '0', 'getbp': '0', 'content': '入炸牌 ', 'comments': {'next_snC': 0}}, {'postId': '24006405', 'userId': 'supper951963', 'userLv': '13', 'userGp': '217', 'usercareer': '盜賊', 'userrace': '妖精', 'userfloor': '5', 'postip': '115.80.170.xxx', 'postTime': '2014-07-04 23:38:50', 'getgp': '0', 'getbp': '0', 'content': '肚子餓ㄌ ', 'comments': {'next_snC': 0}}, {'postId': '24006442', 'userId': 't0921022929', 'userLv': '21', 'userGp': '1020', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '6', 'postip': '180.177.39.xxx', 'postTime': '2014-07-04 23:40:31', 'getgp': '0', 'getbp': '0', 'content': '可惡....餓了 想吃! ', 'comments': {'next_snC': 0}}, {'postId': '25590352', 'userId': 'vampire90218', 'userLv': '8', 'userGp': '685', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '7', 'postip': '36.224.82.xxx', 'postTime': '2014-09-26 00:23:26', 'getgp': '0', 'getbp': '0', 'content': '我比較喜歡吃蛋包半熟的蛋包飯 ', 'comments': {'next_snC': 0}}, {'postId': '26543273', 'userId': 'cs563085', 'userLv': '1', 'userGp': '99', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '8', 'postip': '59.125.201.xxx', 'postTime': '2014-11-29 03:04:53', 'getgp': '0', 'getbp': '0', 'content': '好ㄔ ', 'comments': {'next_snC': 0}}, {'postId': '26543313', 'userId': 'pop3153', 'userLv': '16', 'userGp': '77', 'usercareer': '武鬥家', 'userrace': '妖精', 'userfloor': '9', 'postip': '1.165.9.xxx', 'postTime': '2014-11-29 03:14:08', 'getgp': '0', 'getbp': '0', 'content': '是當初都沒人回覆嗎作者一定很囧 ', 'comments': {'0': {'bsn': '60076', 'sn': '993409', 'userid': 'b23122998', 'comment': '超過三個月會清回應 誰叫你挖古文', 'gp': '0', 'bp': '0', 'wtime': '2014-11-29 10:16:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '超過三個月會清回應 誰叫你挖古文', 'snB': '26543313', 'time': '11-29 10:16', 'nick': '賣肝with入野'}, 'next_snC': 0}}, {'postId': '28500983', 'userId': 'opopkl852', 'userLv': '36', 'userGp': '888', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '10', 'postip': '39.13.26.xxx', 'postTime': '2015-04-02 13:56:32', 'getgp': '0', 'getbp': '0', 'content': '好ㄘ ', 'comments': {'next_snC': 0}}, {'postId': '28501011', 'userId': 'ts861129', 'userLv': '18', 'userGp': '125', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '11', 'postip': '42.71.195.xxx', 'postTime': '2015-04-02 13:58:51', 'getgp': '0', 'getbp': '0', 'content': '0.0 ', 'comments': {'next_snC': 0}}, {'postId': '28501079', 'userId': 'zoneki', 'userLv': '43', 'userGp': '1598', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '12', 'postip': '36.238.142.xxx', 'postTime': '2015-04-02 14:05:49', 'getgp': '0', 'getbp': '0', 'content': '基本上 鮪魚罐頭直接拌飯 就很好吃了阿或者炒蛋 配飯吃 GJ ', 'comments': {'next_snC': 0}}, {'postId': '34070528', 'userId': 'hh600700', 'userLv': '16', 'userGp': '33', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '13', 'postip': '36.226.104.xxx', 'postTime': '2016-01-31 03:52:23', 'getgp': '0', 'getbp': '0', 'content': '挖', 'comments': {'next_snC': 0}}, {'postId': '34070670', 'userId': 'erg29242477', 'userLv': '10', 'userGp': '36', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '14', 'postip': '36.231.96.xxx', 'postTime': '2016-01-31 04:26:42', 'getgp': '0', 'getbp': '0', 'content': '餓樓主嫁給我吧！', 'comments': {'next_snC': 0}}, {'postId': '39724608', 'userId': 'bigfatbee', 'userLv': '24', 'userGp': '164', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '15', 'postip': '1.169.36.xxx', 'postTime': '2016-10-09 05:48:05', 'getgp': '0', 'getbp': '0', 'content': '好餓', 'comments': {'next_snC': 0}}, {'postId': '39743224', 'userId': 'qarc2012', 'userLv': '15', 'userGp': '35', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '16', 'postip': '59.126.249.xxx', 'postTime': '2016-10-10 00:05:22', 'getgp': '0', 'getbp': '0', 'content': '挖到寶拉', 'comments': {'next_snC': 0}}, {'postId': '42931545', 'userId': 'scarletcoco', 'userLv': '1', 'userGp': '0', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '17', 'postip': '203.64.161.xxx', 'postTime': '2017-04-12 17:06:58', 'getgp': '0', 'getbp': '0', 'content': '五個月了', 'comments': {'next_snC': 0}}, {'postId': '45815093', 'userId': 'A22163267', 'userLv': '13', 'userGp': '978', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '18', 'postip': '111.242.155.xxx', 'postTime': '2017-08-29 19:54:30', 'getgp': '0', 'getbp': '0', 'content': '2011的耶', 'comments': {'next_snC': 0}}, {'postId': '48912418', 'userId': 'cavalier116', 'userLv': '25', 'userGp': '1293', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '20', 'postip': '14.198.97.xxx', 'postTime': '2018-02-10 02:48:43', 'getgp': '0', 'getbp': '0', 'content': '..', 'comments': {'0': {'bsn': '60076', 'sn': '1906710', 'userid': 'transient1', 'comment': '。。', 'gp': '0', 'bp': '0', 'wtime': '2018-02-10 03:01:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '。。', 'snB': '48912418', 'time': '02-10 03:01', 'nick': '三個月了'}, 'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1358,10 +1330,8 @@
           <t>明天阿爹要上台北準備就職了 剛好又趁著台灣楓康八八折，所以來做這道給阿爹吃 材料準備很方便，做法又很簡單 最近場歪的人都給做義大利麵 所以我要做不一樣的０３０ 下面是…</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
+      <c r="G16" t="n">
+        <v>236</v>
       </c>
       <c r="H16" t="n">
         <v>75</v>
@@ -1389,7 +1359,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'postId': '45040951', 'userId': 'momojjman123', 'userLv': '16', 'userGp': '107', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '20', 'postip': '124.244.192.xxx', 'postTime': '2017-07-28 23:14:43', 'getgp': '0', 'getbp': '0', 'content': 'car', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '12560051', 'userId': 'b23122998', 'userLv': '23', 'userGp': '4527', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': '218.170.48.xxx', 'postTime': '2011-07-24 18:39:29', 'getgp': '236', 'getbp': '0', 'content': '\xa0明天阿爹要上台北準備就職了\xa0剛好又趁著台灣楓康八八折，所以來做這道給阿爹吃\xa0材料準備很方便，做法又很簡單\xa0最近場歪的人都給做義大利麵\xa0所以我要做不一樣的０３０\xa0下面是材料介紹~\xa0奶油\u3000\u3000\u3000\u3000\u3000\u3000１５－２０ｇ洋蔥\u3000\u3000\u3000\u3000\u3000\u3000半顆培根\u3000\u3000\u3000\u3000\u3000\u3000三片義大利麵\u3000\u3000\u3000\u3000２５０ｇ水煮鮪魚罐頭\u3000\u3000１個水、鹽\u3000\u3000\u3000\u3000\u3000適量鮮奶\u3000\u3000\u3000\u3000\u3000\u3000１５０ｇ\xa0\xa0製作過程\xa0洋蔥切碎，培根切段，平底鍋丟下奶油遇熱然後開始煮義大利麵，煮法請參考\u3000這一篇\u3000開始炒洋蔥培根，炒到洋蔥泛金黃色\xa0然後加入牛奶之後轉成小火慢慢攪拌這時後麵也快好了，\xa0然後加入鮪魚罐頭均勻混合後醬料就完成了（如果是同時製作的話這時後大約離麵煮好還有一分鐘，分開煮則不在此限）\xa0之後把麵丟進去拌煮約１分鐘即可鹽分面跟培根還有罐頭本身就有了所以不用加\xa0想吃重一點口味的可以加一點粗黑胡椒\xa0\xa0完成圖近一點照。。。。\xa0\xa0嗚嗚，上次做的馬鈴薯泥是老妹跟我搶\xa0這次阿爹吃一口之後把我一整鍋都搶走Ｏ＿Ｑ\xa0嗚嗚，改天要趁他們都不在我再做其他的\xa0\xa0好拉就醬，\xa0入野牌美食文，我們改天見嘞\xa0揪咪\u3000，＞＿０\xa0 我發的其他文章，想做菜的可以參考看看(。A。)つ鹹香下飯!! 台式醃蜆仔～！ 濃郁滑順簡單做!! 奶汁雞肉蘑菇燉飯～！ 聚會宴客超簡單!! 焗烤奶汁馬鈴薯泥～！ 配飯下酒!! 辣炒味噌時蔬雞丁～！ 吮指回味!! 日式照燒煮雞翅～！    入野開始試著寫食記嚕，請大家多多澎場(。A。)つ入野早餐食記，無名手工包子店 入野晚餐食記，美村路向上水餃 \u3000New~!!入野早餐食記，"台北"中式早餐店  入野早餐食記，無名早餐店、蘇記大腸麵線入野老街食記，Windmill Plaza-淡水風車廣場 \xa0\xa0', 'comments': {'0': {'bsn': '60076', 'sn': '1485102', 'userid': 'borderland10', 'comment': 'ㄇㄉ半夜看到這個', 'gp': '0', 'bp': '0', 'wtime': '2016-08-02 03:30:44', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'ㄇㄉ半夜看到這個', 'snB': '12560051', 'time': '08-02 03:30', 'nick': '連發煙火'}, '1': {'bsn': '60076', 'sn': '1485101', 'userid': 'pkqqggyy', 'comment': '幹= =', 'gp': '0', 'bp': '0', 'wtime': '2016-08-02 03:24:00', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '幹= =', 'snB': '12560051', 'time': '08-02 03:24', 'nick': '【弱気】超❤凹大根♪'}, '2': {'bsn': '60076', 'sn': '659730', 'userid': 'as20909', 'comment': '我給尼巴幣 來我家當廚師豪嗎', 'gp': '0', 'bp': '0', 'wtime': '2013-08-12 12:04:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我給尼巴幣 來我家當廚師豪嗎', 'snB': '12560051', 'time': '08-12 12:04', 'nick': 'Show小龍'}, '3': {'bsn': '60076', 'sn': '649646', 'userid': 'tg2006452991', 'comment': '偶家沒牛奶 可以弄我的尻意嗎?', 'gp': '0', 'bp': '0', 'wtime': '2013-07-31 16:21:35', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '偶家沒牛奶 可以弄我的尻意嗎?', 'snB': '12560051', 'time': '07-31 16:21', 'nick': '吹潮蛙'}, '4': {'bsn': '60076', 'sn': '564412', 'userid': 'q2325025', 'comment': '可以變成半鮮奶半鮮奶油嗎?', 'gp': '0', 'bp': '0', 'wtime': '2013-04-06 21:46:35', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '可以變成半鮮奶半鮮奶油嗎?', 'snB': '12560051', 'time': '04-06 21:46', 'nick': '奧塞莉絲'}, '5': {'bsn': '60076', 'sn': '412680', 'userid': 'hlpss957739', 'comment': '有人叫我嗎  我討厭洋蔥', 'gp': '0', 'bp': '0', 'wtime': '2012-08-20 23:19:27', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '有人叫我嗎  我討厭洋蔥', 'snB': '12560051', 'time': '08-20 23:19', 'nick': '鮪魚罐頭'}, '6': {'bsn': '60076', 'sn': '391160', 'userid': 'kkkk880602', 'comment': '看起來豪豪吃阿', 'gp': '0', 'bp': '0', 'wtime': '2012-07-26 16:41:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '看起來豪豪吃阿', 'snB': '12560051', 'time': '07-26 16:41', 'nick': 'GGJean'}, '7': {'bsn': '60076', 'sn': '291890', 'userid': 'bsimbimb1193', 'comment': '這好猛,可以來我家煮嗎?', 'gp': '0', 'bp': '0', 'wtime': '2012-02-28 12:29:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這好猛,可以來我家煮嗎?', 'snB': '12560051', 'time': '02-28 12:29', 'nick': 'TianShadow.R'}, '8': {'bsn': '60076', 'sn': '291767', 'userid': 's9311741111', 'comment': '我想殺人', 'gp': '0', 'bp': '0', 'wtime': '2012-02-28 04:22:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '我想殺人', 'snB': '12560051', 'time': '02-28 04:22', 'nick': '白詰草'}, '9': {'bsn': '60076', 'sn': '290727', 'userid': 'mark0641', 'comment': '比我的青醬麵好吃的多耶~哭了', 'gp': '0', 'bp': '0', 'wtime': '2012-02-26 17:01:13', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '比我的青醬麵好吃的多耶~哭了', 'snB': '12560051', 'time': '02-26 17:01', 'nick': '安安安安'}, '10': {'bsn': '60076', 'sn': '290718', 'userid': 'moon52032', 'comment': '淦勒  好餓', 'gp': '0', 'bp': '0', 'wtime': '2012-02-26 16:45:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '淦勒  好餓', 'snB': '12560051', 'time': '02-26 16:45', 'nick': '釦子'}, '11': {'bsn': '60076', 'sn': '290717', 'userid': 'lovenaruto', 'comment': '原來這麼簡單...不過鮪魚罐頭太貴下不了手', 'gp': '0', 'bp': '0', 'wtime': '2012-02-26 16:44:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '原來這麼簡單...不過鮪魚罐頭太貴下不了手', 'snB': '12560051', 'time': '02-26 16:44', 'nick': '小鼬鼠'}, '12': {'bsn': '60076', 'sn': '290716', 'userid': 'mark0641', 'comment': '這份不錯耶', 'gp': '0', 'bp': '0', 'wtime': '2012-02-26 16:44:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這份不錯耶', 'snB': '12560051', 'time': '02-26 16:44', 'nick': '安安安安'}, '13': {'bsn': '60076', 'sn': '251480', 'userid': 'iamjimhaha', 'comment': '一定要加洋蔥嗎~&amp;quot;~ 不能忍受洋蔥的味道..', 'gp': '0', 'bp': '0', 'wtime': '2011-12-15 23:15:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '一定要加洋蔥嗎~&amp;quot;~ 不能忍受洋蔥的味道..', 'snB': '12560051', 'time': '12-15 23:15', 'nick': '天天上線，天天送草'}, '14': {'bsn': '60076', 'sn': '156765', 'userid': 'a12854', 'comment': '今天午餐  就去買義大利麵吧...', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 11:55:21', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '今天午餐  就去買義大利麵吧...', 'snB': '12560051', 'time': '07-25 11:55', 'nick': '隱士榮光'}, '15': {'bsn': '60076', 'sn': '156627', 'userid': 'JERRY7798', 'comment': '奶油與醬汁建議可以多一點', 'gp': '0', 'bp': '0', 'wtime': '2011-07-25 03:42:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '奶油與醬汁建議可以多一點', 'snB': '12560051', 'time': '07-25 03:42', 'nick': '清醒的旁觀者'}, '16': {'bsn': '60076', 'sn': '156422', 'userid': 'aszx81824', 'comment': '謝', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 22:07:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '謝', 'snB': '12560051', 'time': '07-24 22:07', 'nick': '哇哈哈'}, '17': {'bsn': '60076', 'sn': '156421', 'userid': 'aszx81824', 'comment': '如果有私信', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 22:07:52', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '如果有私信', 'snB': '12560051', 'time': '07-24 22:07', 'nick': '哇哈哈'}, '18': {'bsn': '60076', 'sn': '156420', 'userid': 'aszx81824', 'comment': '有沒有日式料理的', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 22:07:40', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '有沒有日式料理的', 'snB': '12560051', 'time': '07-24 22:07', 'nick': '哇哈哈'}, '19': {'bsn': '60076', 'sn': '156356', 'userid': 'jh57c192', 'comment': '（口水流滿地', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 21:12:17', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '（口水流滿地', 'snB': '12560051', 'time': '07-24 21:12', 'nick': '黑夜星風'}, '20': {'bsn': '60076', 'sn': '156268', 'userid': 'p0963239932', 'comment': '讚', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:52:32', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '讚', 'snB': '12560051', 'time': '07-24 19:52', 'nick': '柴特．布里貓'}, '21': {'bsn': '60076', 'sn': '156254', 'userid': 'c1302w894us3', 'comment': '靠我肚子餓了', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:28:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '靠我肚子餓了', 'snB': '12560051', 'time': '07-24 19:28', 'nick': 'Ian'}, '22': {'bsn': '60076', 'sn': '156244', 'userid': 'moon430', 'comment': '樓主都是這樣賺gp的......', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:13:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '樓主都是這樣賺gp的......', 'snB': '12560051', 'time': '07-24 19:13', 'nick': '8989++'}, '23': {'bsn': '60076', 'sn': '156239', 'userid': 'SD987546', 'comment': '明天我也來煮煮看= =+', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:08:52', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '明天我也來煮煮看= =+', 'snB': '12560051', 'time': '07-24 19:08', 'nick': '再騙'}, '24': {'bsn': '60076', 'sn': '156238', 'userid': 'ts2468', 'comment': '餓了=&amp;quot;&amp;quot;&amp;quot;&amp;quot;&amp;quot;=', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:07:06', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '餓了=&amp;quot;&amp;quot;&amp;quot;&amp;quot;&amp;quot;=', 'snB': '12560051', 'time': '07-24 19:07', 'nick': '獨眼熊'}, '25': {'bsn': '60076', 'sn': '156236', 'userid': 's51745121', 'comment': '鮪魚罐頭真好用', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:04:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '鮪魚罐頭真好用', 'snB': '12560051', 'time': '07-24 19:04', 'nick': 'R-BJ'}, '26': {'bsn': '60076', 'sn': '156235', 'userid': 'fgh922', 'comment': '好讚!!!', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 19:03:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好讚!!!', 'snB': '12560051', 'time': '07-24 19:03', 'nick': '卡卡吸先生'}, '27': {'bsn': '60076', 'sn': '156225', 'userid': 'zxcv00852', 'comment': '你好狠 我餓了 雖然我討厭洋蔥', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:49:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你好狠 我餓了 雖然我討厭洋蔥', 'snB': '12560051', 'time': '07-24 18:49', 'nick': '寶傑好，大家好'}, '28': {'bsn': '60076', 'sn': '156224', 'userid': 'd66176820', 'comment': '收藏', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:47:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '收藏', 'snB': '12560051', 'time': '07-24 18:47', 'nick': '帥哥下麵超好吃'}, '29': {'bsn': '60076', 'sn': '156223', 'userid': 'faithbit', 'comment': '很讚 :)', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:46:36', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '很讚 :)', 'snB': '12560051', 'time': '07-24 18:46', 'nick': '啊布'}, '30': {'bsn': '60076', 'sn': '156220', 'userid': 'b23122998', 'comment': '兩個人吃而已', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:43:57', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '兩個人吃而已', 'snB': '12560051', 'time': '07-24 18:43', 'nick': '賣肝with入野'}, '31': {'bsn': '60076', 'sn': '156216', 'userid': 'cow084pig', 'comment': '先GP再來看內文.....', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:41:24', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '先GP再來看內文.....', 'snB': '12560051', 'time': '07-24 18:41', 'nick': '禁戒輻射'}, '32': {'bsn': '60076', 'sn': '156214', 'userid': 'asd41400', 'comment': '料有點少0.0', 'gp': '0', 'bp': '0', 'wtime': '2011-07-24 18:40:44', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '料有點少0.0', 'snB': '12560051', 'time': '07-24 18:40', 'nick': '爽球'}, 'next_snC': 0}}, {'postId': '26482170', 'userId': 'i689tw2', 'userLv': '8', 'userGp': '55', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '2', 'postip': '111.250.57.xxx', 'postTime': '2014-11-24 21:24:37', 'getgp': '0', 'getbp': '0', 'content': 'Yo ', 'comments': {'next_snC': 0}}, {'postId': '26482284', 'userId': 'kij123440', 'userLv': '16', 'userGp': '280', 'usercareer': '僧侶', 'userrace': '人類', 'userfloor': '3', 'postip': '61.60.209.xxx', 'postTime': '2014-11-24 21:30:31', 'getgp': '0', 'getbp': '0', 'content': '報復社會 ', 'comments': {'next_snC': 0}}, {'postId': '30105641', 'userId': 'ianjoegj94', 'userLv': '14', 'userGp': '22', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '4', 'postip': '1.160.23.xxx', 'postTime': '2015-07-09 02:47:50', 'getgp': '0', 'getbp': '0', 'content': '睡不著推一下 ', 'comments': {'next_snC': 0}}, {'postId': '30105649', 'userId': 'ks820108', 'userLv': '37', 'userGp': '927', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '5', 'postip': '114.32.62.xxx', 'postTime': '2015-07-09 02:48:27', 'getgp': '0', 'getbp': '0', 'content': '餓了 ', 'comments': {'next_snC': 0}}, {'postId': '30105654', 'userId': 'robby860728', 'userLv': '17', 'userGp': '350', 'usercareer': '僧侶', 'userrace': '妖精', 'userfloor': '6', 'postip': '49.218.99.xxx', 'postTime': '2015-07-09 02:49:13', 'getgp': '0', 'getbp': '0', 'content': '餓了==', 'comments': {'next_snC': 0}}, {'postId': '30105698', 'userId': 'Night52077', 'userLv': '24', 'userGp': '251', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '7', 'postip': '39.9.216.xxx', 'postTime': '2015-07-09 02:53:21', 'getgp': '0', 'getbp': '0', 'content': '半夜又推這篇上來幹嘛啦生氣欸', 'comments': {'next_snC': 0}}, {'postId': '30105936', 'userId': 'wexs9541316', 'userLv': '11', 'userGp': '1', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '8', 'postip': '118.170.30.xxx', 'postTime': '2015-07-09 03:32:20', 'getgp': '0', 'getbp': '0', 'content': '推 ', 'comments': {'next_snC': 0}}, {'postId': '30106254', 'userId': 'kg12345hj224', 'userLv': '20', 'userGp': '35', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '9', 'postip': '223.137.247.xxx', 'postTime': '2015-07-09 04:48:25', 'getgp': '0', 'getbp': '0', 'content': '卡', 'comments': {'next_snC': 0}}, {'postId': '30239527', 'userId': 'nc906cc', 'userLv': '16', 'userGp': '29', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '10', 'postip': '1.169.39.xxx', 'postTime': '2015-07-16 04:49:32', 'getgp': '0', 'getbp': '0', 'content': '推 ', 'comments': {'next_snC': 0}}, {'postId': '38122197', 'userId': 'capsend456', 'userLv': '24', 'userGp': '271', 'usercareer': '商人', 'userrace': '人類', 'userfloor': '12', 'postip': '39.9.210.xxx', 'postTime': '2016-08-02 03:07:27', 'getgp': '0', 'getbp': '0', 'content': '想吃', 'comments': {'next_snC': 0}}, {'postId': '38122304', 'userId': 'qwe7709', 'userLv': '4', 'userGp': '2', 'usercareer': '初心者', 'userrace': '矮人', 'userfloor': '13', 'postip': '110.28.75.xxx', 'postTime': '2016-08-02 03:21:51', 'getgp': '0', 'getbp': '0', 'content': '蚌', 'comments': {'next_snC': 0}}, {'postId': '38122387', 'userId': 'erg29242477', 'userLv': '10', 'userGp': '72', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '14', 'postip': '1.163.108.xxx', 'postTime': '2016-08-02 03:32:20', 'getgp': '0', 'getbp': '0', 'content': '推', 'comments': {'next_snC': 0}}, {'postId': '39265681', 'userId': 'Lian315213', 'userLv': '12', 'userGp': '49', 'usercareer': '商人', 'userrace': '妖精', 'userfloor': '15', 'postip': '180.205.137.xxx', 'postTime': '2016-09-19 03:21:33', 'getgp': '0', 'getbp': '0', 'content': '肚子餓', 'comments': {'0': {'bsn': '60076', 'sn': '1495386', 'userid': 'cj6tp6bjo4', 'comment': '就你', 'gp': '0', 'bp': '0', 'wtime': '2016-09-19 03:34:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '就你', 'snB': '39265681', 'time': '09-19 03:34', 'nick': '▶────'}, 'next_snC': 0}}, {'postId': '39326122', 'userId': 'aa39489634', 'userLv': '10', 'userGp': '6', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '16', 'postip': '101.138.187.xxx', 'postTime': '2016-09-22 00:42:58', 'getgp': '0', 'getbp': '0', 'content': '推', 'comments': {'next_snC': 0}}, {'postId': '41091064', 'userId': 'cmcmisgod', 'userLv': '36', 'userGp': '3252', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '17', 'postip': '111.251.170.xxx', 'postTime': '2016-12-26 04:31:25', 'getgp': '0', 'getbp': '0', 'content': '楓康東西滿貴ㄋ只有六日去88折比較划算', 'comments': {'0': {'bsn': '60076', 'sn': '1574470', 'userid': 'k1989923', 'comment': 'ㄇㄉ 又是你', 'gp': '0', 'bp': '0', 'wtime': '2016-12-26 10:27:12', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'ㄇㄉ 又是你', 'snB': '41091064', 'time': '12-26 10:27', 'nick': '頭前溪海豹'}, '1': {'bsn': '60076', 'sn': '1574368', 'userid': 'a130135437', 'comment': '是在推尛', 'gp': '0', 'bp': '0', 'wtime': '2016-12-26 04:33:11', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '是在推尛', 'snB': '41091064', 'time': '12-26 04:33', 'nick': '我喜歡吃飯'}, 'next_snC': 0}}, {'postId': '41094796', 'userId': 'dragon60311', 'userLv': '5', 'userGp': '1', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '18', 'postip': '203.72.100.xxx', 'postTime': '2016-12-26 11:56:31', 'getgp': '0', 'getbp': '0', 'content': '有餓有推', 'comments': {'next_snC': 0}}, {'postId': '45040951', 'userId': 'momojjman123', 'userLv': '16', 'userGp': '107', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '20', 'postip': '124.244.192.xxx', 'postTime': '2017-07-28 23:14:43', 'getgp': '0', 'getbp': '0', 'content': 'car', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
@@ -1422,10 +1392,8 @@
           <t>嗨，大家好，我是阿戰師戰歌，今天為大家帶來我的私房菜，海鮮培根白醬義大利麵。 煮法非常的簡單，食材的部分也都平易近人，大家可以參考後，在放假或週末時，試著自己煮…</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="G17" t="n">
+        <v>84</v>
       </c>
       <c r="H17" t="n">
         <v>146</v>
@@ -1453,7 +1421,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'postId': '34761701', 'userId': 'loxaii', 'userLv': '22', 'userGp': '920', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '20', 'postip': '123.193.171.xxx', 'postTime': '2016-03-06 12:57:26', 'getgp': '1', 'getbp': '0', 'content': '', 'comments': {'next_snC': 0}}</t>
+          <t>[{'postId': '34761578', 'userId': 'ss54564152', 'userLv': '29', 'userGp': '1577', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '1', 'postip': 'BAHAMUT', 'postTime': '2016-03-06 12:51:10', 'getgp': '38', 'getbp': '231', 'content': '嗨，大家好，我是阿戰師戰歌，今天為大家帶來我的私房菜，海鮮培根白醬義大利麵。煮法非常的簡單，食材的部分也都平易近人，大家可以參考後，在放假或週末時，試著自己煮給家人吃吃看喔!首先是食材前期準備的部分：義大利麵\u3000一包 (筆管、螺絲、長條的都可以)調製好的白醬 一罐培根 一包花枝 一份蝦仁 一份胡椒 少許Step.1先將義大利麵煮熟，建議使用一個大鍋子放入適量的水，將水煮至滾開後將麵條放下，約7~10分鐘後將麵撈起即可。適量的水及義大利麵：麵熟大概是這樣：將麵瀝乾：Step.2烹煮其他食材，我的作法非常簡單，就是先下培根，也不用加油，鍋子有熱就可以下培根去煎了，培根煎的有熟後放入切好的花枝，花枝煎的時候建議煎到全白且帶有微微黃金色就可以了，最後則是放入蝦仁，蝦仁熟的非常快，看到由白轉紅就可以了，最後加上少許的黑胡椒提點味道，然後就可以將調製好的白醬倒入，這時候建議小火讓食材跟白醬稍作混合。首先是培根：加入花枝：加入蝦仁：最後混入白醬：Step.3最後一個步驟就是將剛剛煮好的義大利麵跟我們辛苦熬製而成的醬料做MIX了!這邊建議小火或是關火讓麵去稍微吸收白醬，這樣吃起來會更入味喔!Step.4享受甜美的果實，開動囉!有問題可以提出喔', 'comments': {'0': {'bsn': '60076', 'sn': '2026662', 'userid': 'OPSE439', 'comment': '過氣版務', 'gp': '0', 'bp': '0', 'wtime': '2018-06-10 21:38:37', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '過氣版務', 'snB': '34761578', 'time': '06-10 21:38', 'nick': '你到底嗑了什麼啊?'}, '1': {'bsn': '60076', 'sn': '1939095', 'userid': 'coy51004', 'comment': '折疊的精華文', 'gp': '0', 'bp': '0', 'wtime': '2018-02-23 07:27:43', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '折疊的精華文', 'snB': '34761578', 'time': '02-23 07:27', 'nick': '無星之夜'}, '2': {'bsn': '60076', 'sn': '1739707', 'userid': 'gogogocar1', 'comment': '沒加鹽麵不會有味道吧..？', 'gp': '0', 'bp': '0', 'wtime': '2017-06-18 12:29:27', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '沒加鹽麵不會有味道吧..？', 'snB': '34761578', 'time': '06-18 12:29', 'nick': 'Valak'}, '3': {'bsn': '60076', 'sn': '1739417', 'userid': 'alvin5716', 'comment': '對齁 退版務就可以摺疊了 爽', 'gp': '0', 'bp': '0', 'wtime': '2017-06-17 23:10:02', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '對齁 退版務就可以摺疊了 爽', 'snB': '34761578', 'time': '06-17 23:10', 'nick': '橘子狂想'}, '4': {'bsn': '60076', 'sn': '1739381', 'userid': 'cw3580xx', 'comment': '這什麼垃圾', 'gp': '0', 'bp': '0', 'wtime': '2017-06-17 22:16:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這什麼垃圾', 'snB': '34761578', 'time': '06-17 22:16', 'nick': '孩子，這世界不夠良善'}, '5': {'bsn': '60076', 'sn': '1707728', 'userid': 'blackangel32', 'comment': '終於折疊ㄌ', 'gp': '0', 'bp': '0', 'wtime': '2017-05-08 16:10:04', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '終於折疊ㄌ', 'snB': '34761578', 'time': '05-08 16:10', 'nick': '魚人好好吃'}, '6': {'bsn': '60076', 'sn': '1685142', 'userid': 'as2321591', 'comment': '參考價值0', 'gp': '0', 'bp': '0', 'wtime': '2017-04-08 21:55:47', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '參考價值0', 'snB': '34761578', 'time': '04-08 21:55', 'nick': '野生漁夫'}, '7': {'bsn': '60076', 'sn': '1457841', 'userid': 'luby729', 'comment': '滾 去吃屎', 'gp': '0', 'bp': '0', 'wtime': '2016-06-24 02:58:16', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '滾 去吃屎', 'snB': '34761578', 'time': '06-24 02:58', 'nick': '✨MissÜ可可亞♥'}, '8': {'bsn': '60076', 'sn': '1457572', 'userid': 'ufx81224', 'comment': '培根沒切失敗~白醬買現成,根本沒技術,沒有學習的榜樣失敗~料太多,根本不能當作商品賣,失敗中的失敗,一份賣300都不能賺到錢...慘!!', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 19:49:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '培根沒切失敗~白醬買現成,根本沒技術,沒有學習的榜樣失敗~料太多,根本不能當作商品賣,失敗中的失敗,一份賣300都不能賺到錢...慘!!', 'snB': '34761578', 'time': '06-23 19:49', 'nick': '邊緣肥宅'}, '9': {'bsn': '60076', 'sn': '1457383', 'userid': 'H123331702', 'comment': '筆管麵很多人不愛吃', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 14:34:28', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '筆管麵很多人不愛吃', 'snB': '34761578', 'time': '06-23 14:34', 'nick': '阿興'}, '10': {'bsn': '60076', 'sn': '1457334', 'userid': 'e04eofore', 'comment': '蛆？', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 13:33:03', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '蛆？', 'snB': '34761578', 'time': '06-23 13:33', 'nick': '和平日'}, '11': {'bsn': '60076', 'sn': '1457143', 'userid': 'cgnurse', 'comment': '歌', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 09:55:01', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '歌', 'snB': '34761578', 'time': '06-23 09:55', 'nick': 'cgnurse♎'}, '12': {'bsn': '60076', 'sn': '1457142', 'userid': 'cgnurse', 'comment': '戰', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 09:54:58', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '戰', 'snB': '34761578', 'time': '06-23 09:54', 'nick': 'cgnurse♎'}, '13': {'bsn': '60076', 'sn': '1457141', 'userid': 'cgnurse', 'comment': '持', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 09:54:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '持', 'snB': '34761578', 'time': '06-23 09:54', 'nick': 'cgnurse♎'}, '14': {'bsn': '60076', 'sn': '1457140', 'userid': 'cgnurse', 'comment': '支', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 09:54:54', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '支', 'snB': '34761578', 'time': '06-23 09:54', 'nick': 'cgnurse♎'}, '15': {'bsn': '60076', 'sn': '1457139', 'userid': 'cgnurse', 'comment': '別叫筆管..好像吃不能吃的東西..叫管狀吧..', 'gp': '0', 'bp': '0', 'wtime': '2016-06-23 09:54:51', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '別叫筆管..好像吃不能吃的東西..叫管狀吧..', 'snB': '34761578', 'time': '06-23 09:54', 'nick': 'cgnurse♎'}, '16': {'bsn': '60076', 'sn': '1363397', 'userid': 'x27647609', 'comment': '成品看起來太乾 白醬不是自己做 0分', 'gp': '0', 'bp': '0', 'wtime': '2016-03-07 15:39:29', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '成品看起來太乾 白醬不是自己做 0分', 'snB': '34761578', 'time': '03-07 15:39', 'nick': '滴嘛一分，壞蛋零分！'}, '17': {'bsn': '60076', 'sn': '1363210', 'userid': 'jacket8009', 'comment': '後續發展已與本文不合 已歪風鬧版照你的標準 可以刪文了', 'gp': '0', 'bp': '0', 'wtime': '2016-03-07 10:46:48', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '後續發展已與本文不合 已歪風鬧版照你的標準 可以刪文了', 'snB': '34761578', 'time': '03-07 10:46', 'nick': '飛尋雪'}, '18': {'bsn': '60076', 'sn': '1362838', 'userid': 'as23061901', 'comment': '能吃??', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 21:40:27', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '能吃??', 'snB': '34761578', 'time': '03-06 21:40', 'nick': '肥馬'}, '19': {'bsn': '60076', 'sn': '1362564', 'userid': 'serlGHKfa', 'comment': '你去吃屎比較快 吃人類食物??', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 12:56:17', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '你去吃屎比較快 吃人類食物??', 'snB': '34761578', 'time': '03-06 12:56', 'nick': '你這樣不太行'}, 'next_snC': 0}}, {'postId': '34761593', 'userId': 'sam06150615', 'userLv': '10', 'userGp': '1', 'usercareer': '商人', 'userrace': '妖精', 'userfloor': '2', 'postip': '180.217.246.xxx', 'postTime': '2016-03-06 12:51:46', 'getgp': '0', 'getbp': '0', 'content': '郭p4', 'comments': {'next_snC': 0}}, {'postId': '34761601', 'userId': 'Henry88', 'userLv': '28', 'userGp': '525', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '3', 'postip': '120.126.194.xxx', 'postTime': '2016-03-06 12:52:32', 'getgp': '38', 'getbp': '9', 'content': '', 'comments': {'0': {'bsn': '60076', 'sn': '2019876', 'userid': 'OPSE439', 'comment': '戰歌幫坦 ㄏㄏ 給推', 'gp': '0', 'bp': '0', 'wtime': '2018-06-10 21:38:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '戰歌幫坦 ㄏㄏ 給推', 'snB': '34761601', 'time': '06-10 21:38', 'nick': '你到底嗑了什麼啊?'}, '1': {'bsn': '60076', 'sn': '1489780', 'userid': 'rogerwu0321', 'comment': 'ㄊㄓ', 'gp': '0', 'bp': '0', 'wtime': '2016-08-06 23:19:56', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': 'ㄊㄓ', 'snB': '34761601', 'time': '08-06 23:19', 'nick': 'null'}, '2': {'bsn': '60076', 'sn': '1352120', 'userid': 'a89824439', 'comment': '0噓 轉移砲火失敗', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 14:00:45', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '0噓 轉移砲火失敗', 'snB': '34761601', 'time': '03-06 14:00', 'nick': '人家是女生耶!'}, 'next_snC': 0}}, {'postId': '34761602', 'userId': 'askk1', 'userLv': '17', 'userGp': '15', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '4', 'postip': '219.85.110.xxx', 'postTime': '2016-03-06 12:52:37', 'getgp': '0', 'getbp': '0', 'content': '好\xa0\xa0肥宅不會煮', 'comments': {'next_snC': 0}}, {'postId': '34761612', 'userId': 'hcc098525962', 'userLv': '4', 'userGp': '317', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '5', 'postip': '39.9.129.xxx', 'postTime': '2016-03-06 12:52:58', 'getgp': '0', 'getbp': '0', 'content': 'ㄘ飽飽', 'comments': {'next_snC': 0}}, {'postId': '34761620', 'userId': 'kurumi84616', 'userLv': '7', 'userGp': '17', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '6', 'postip': '1.200.50.xxx', 'postTime': '2016-03-06 12:53:22', 'getgp': '0', 'getbp': '0', 'content': '筆管麵難ㄘ', 'comments': {'0': {'bsn': '60076', 'sn': '1435094', 'userid': 'luby729', 'comment': '筆通很好吃 是台灣的難吃', 'gp': '0', 'bp': '0', 'wtime': '2016-06-24 02:58:59', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '筆通很好吃 是台灣的難吃', 'snB': '34761620', 'time': '06-24 02:58', 'nick': '✨MissÜ可可亞♥'}, '1': {'bsn': '60076', 'sn': '1340740', 'userid': 'AA8936912', 'comment': '：通心粉 通心粉 好吃的通心粉', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 16:56:27', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '：通心粉 通心粉 好吃的通心粉', 'snB': '34761620', 'time': '03-06 16:56', 'nick': 'LEE SIN'}, '2': {'bsn': '60076', 'sn': '1340630', 'userid': 'oscar123400', 'comment': '通心粉 通心粉 好吃的通心粉', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 13:31:55', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '通心粉 通心粉 好吃的通心粉', 'snB': '34761620', 'time': '03-06 13:31', 'nick': '沙織姊姊❤'}, '3': {'bsn': '60076', 'sn': '1340618', 'userid': 's373bw', 'comment': '這是通心吧', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 13:12:38', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '這是通心吧', 'snB': '34761620', 'time': '03-06 13:12', 'nick': '莎緋爾'}, 'next_snC': 0}}, {'postId': '34761621', 'userId': 'fabcd131253', 'userLv': '17', 'userGp': '48', 'usercareer': '盜賊', 'userrace': '人類', 'userfloor': '7', 'postip': '111.249.144.xxx', 'postTime': '2016-03-06 12:53:22', 'getgp': '0', 'getbp': '0', 'content': '郭p4', 'comments': {'next_snC': 0}}, {'postId': '34761631', 'userId': 'maple87112', 'userLv': '11', 'userGp': '85', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '8', 'postip': '123.110.24.xxx', 'postTime': '2016-03-06 12:53:55', 'getgp': '1', 'getbp': '0', 'content': '鬧爆', 'comments': {'next_snC': 0}}, {'postId': '34761646', 'userId': 'kerry831209', 'userLv': '18', 'userGp': '107', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '9', 'postip': '36.239.42.xxx', 'postTime': '2016-03-06 12:54:26', 'getgp': '0', 'getbp': '0', 'content': '看起來不錯ㄘ但還4鬧爆', 'comments': {'next_snC': 0}}, {'postId': '34761650', 'userId': 'f798798', 'userLv': '17', 'userGp': '129', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '11', 'postip': '111.241.63.xxx', 'postTime': '2016-03-06 12:54:29', 'getgp': '0', 'getbp': '0', 'content': '撐10秒', 'comments': {'next_snC': 0}}, {'postId': '34761660', 'userId': 'salt6313', 'userLv': '39', 'userGp': '1083', 'usercareer': '劍士', 'userrace': '獸人', 'userfloor': '12', 'postip': '220.134.51.xxx', 'postTime': '2016-03-06 12:55:03', 'getgp': '2', 'getbp': '0', 'content': '我的問題94你什麼時候才會自行下台?', 'comments': {'next_snC': 0}}, {'postId': '34761662', 'userId': 'lkslks98', 'userLv': '19', 'userGp': '308', 'usercareer': '武鬥家', 'userrace': '人類', 'userfloor': '13', 'postip': '223.136.79.xxx', 'postTime': '2016-03-06 12:55:05', 'getgp': '0', 'getbp': '0', 'content': '麵我都只吃長條的至於醬 你有沒有想過加蒜頭 我記得那味道超香的\xa0\xa0\xa0(●´ϖ`●)', 'comments': {'next_snC': 0}}, {'postId': '34761670', 'userId': 'hsuan0', 'userLv': '7', 'userGp': '7', 'usercareer': '初心者', 'userrace': '妖精', 'userfloor': '14', 'postip': '39.10.150.xxx', 'postTime': '2016-03-06 12:55:40', 'getgp': '0', 'getbp': '0', 'content': '愛戰歌(｡･ω･｡)ﾉ♡', 'comments': {'next_snC': 0}}, {'postId': '34761676', 'userId': 'mar732', 'userLv': '8', 'userGp': '19', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '15', 'postip': '61.58.103.xxx', 'postTime': '2016-03-06 12:56:00', 'getgp': '0', 'getbp': '0', 'content': '卡', 'comments': {'next_snC': 0}}, {'postId': '34761681', 'userId': 'ab91516', 'userLv': '27', 'userGp': '152', 'usercareer': '盜賊', 'userrace': '獸人', 'userfloor': '16', 'postip': '111.184.108.xxx', 'postTime': '2016-03-06 12:56:26', 'getgp': '0', 'getbp': '0', 'content': '我的問題是什麼時候下台？', 'comments': {'next_snC': 0}}, {'postId': '34761684', 'userId': 'jamm9743', 'userLv': '21', 'userGp': '43', 'usercareer': '法師', 'userrace': '人類', 'userfloor': '17', 'postip': '123.110.51.xxx', 'postTime': '2016-03-06 12:56:40', 'getgp': '0', 'getbp': '0', 'content': '現在一直製造好印象給我們看是無管用的', 'comments': {'next_snC': 0}}, {'postId': '34761695', 'userId': 'lacroix2811', 'userLv': '13', 'userGp': '150', 'usercareer': '法師', 'userrace': '妖精', 'userfloor': '18', 'postip': '223.143.252.xxx', 'postTime': '2016-03-06 12:57:05', 'getgp': '0', 'getbp': '0', 'content': '豪ㄛ', 'comments': {'next_snC': 0}}, {'postId': '34761700', 'userId': 'yeleo870518', 'userLv': '17', 'userGp': '544', 'usercareer': '初心者', 'userrace': '人類', 'userfloor': '19', 'postip': '1.174.187.xxx', 'postTime': '2016-03-06 12:57:22', 'getgp': '0', 'getbp': '0', 'content': '幹 刪我文 幹架 ', 'comments': {'0': {'bsn': '60076', 'sn': '1334086', 'userid': 'grx50810', 'comment': '好', 'gp': '0', 'bp': '0', 'wtime': '2016-03-06 13:05:26', 'mtime': '0000-00-00 00:00:00', 'delreason': '', 'state': 'exist', 'type': 'nologin', 'content': '好', 'snB': '34761700', 'time': '03-06 13:05', 'nick': '自然捲94潮'}, 'next_snC': 0}}, {'postId': '34761701', 'userId': 'loxaii', 'userLv': '22', 'userGp': '920', 'usercareer': '劍士', 'userrace': '人類', 'userfloor': '20', 'postip': '123.193.171.xxx', 'postTime': '2016-03-06 12:57:26', 'getgp': '1', 'getbp': '0', 'content': '', 'comments': {'next_snC': 0}}]</t>
         </is>
       </c>
     </row>
